--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
     <sheet name="タイトル" sheetId="31" r:id="rId2"/>
     <sheet name="デモムービー" sheetId="32" r:id="rId3"/>
-    <sheet name="メニュー画面" sheetId="17" r:id="rId4"/>
+    <sheet name="ステージセレクト画面" sheetId="27" r:id="rId4"/>
     <sheet name="操作説明画面" sheetId="19" r:id="rId5"/>
-    <sheet name="ステージセレクト画面" sheetId="27" r:id="rId6"/>
-    <sheet name="プレイ画面" sheetId="33" r:id="rId7"/>
-    <sheet name="ポーズ画面" sheetId="35" r:id="rId8"/>
-    <sheet name="クリア画面" sheetId="3" r:id="rId9"/>
-    <sheet name="プレイヤー" sheetId="36" r:id="rId10"/>
-    <sheet name="銃" sheetId="41" r:id="rId11"/>
-    <sheet name="障害物" sheetId="40" r:id="rId12"/>
-    <sheet name="ブロック" sheetId="39" r:id="rId13"/>
+    <sheet name="プレイ画面" sheetId="33" r:id="rId6"/>
+    <sheet name="ポーズ画面" sheetId="35" r:id="rId7"/>
+    <sheet name="クリア画面" sheetId="3" r:id="rId8"/>
+    <sheet name="プレイヤー" sheetId="36" r:id="rId9"/>
+    <sheet name="銃" sheetId="41" r:id="rId10"/>
+    <sheet name="障害物" sheetId="40" r:id="rId11"/>
+    <sheet name="ブロック" sheetId="39" r:id="rId12"/>
+    <sheet name="スイッチ" sheetId="42" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="247">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -143,26 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>説明画面への選択肢</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>センタクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームスタートへの選択肢</t>
-    <rPh sb="9" eb="12">
-      <t>センタクシ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ステージ１への選択肢</t>
     <rPh sb="7" eb="10">
       <t>センタクシ</t>
@@ -197,20 +177,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>(?,?)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アプリケーションを閉じる選択肢</t>
-    <rPh sb="9" eb="10">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>センタクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>処理内容</t>
     <rPh sb="0" eb="4">
       <t>ショリナイヨウ</t>
@@ -257,25 +223,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・フェードイン(明転)すると同時にBGMを繰り返し再生</t>
-    <rPh sb="8" eb="10">
-      <t>メイテン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・フェードインの後、カメラはステージを見渡してから初期位置へ移動(操作できるのはこの後)</t>
     <rPh sb="8" eb="9">
       <t>ゴ</t>
@@ -348,16 +295,6 @@
     <t>・Lスティックで選択</t>
     <rPh sb="8" eb="10">
       <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・「おわる」を選択して〇ボタンでアプリケーションを閉じる</t>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -483,598 +420,6 @@
     </rPh>
     <rPh sb="30" eb="31">
       <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・〇ボタンor×ボタンを押すと、SEと共にフェードアウト(暗転)し</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>メニュー画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>へ</t>
-    </r>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>トモ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>アンテン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・〇ボタンor×ボタンを押すと、SEと共にフェードアウト(暗転)して</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>メニュー画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>へ</t>
-    </r>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>トモ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>アンテン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・「操作説明」を選択して〇ボタンで</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>操作説明画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に切り替わる</t>
-    </r>
-    <rPh sb="2" eb="6">
-      <t>ソウサセツメイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・「スタート」を選択して〇ボタンでフェードアウト(暗転)。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ステージセレクト画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>へ移動</t>
-    </r>
-    <rPh sb="8" eb="10">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>アンテン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>操作説明画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ステージセレクト画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>から切り替えた場合、BGMは引き継ぎそのまま繰り返す</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・BGMは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>メニュー画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>から引き継ぎ、そのまま繰り返す</t>
-    </r>
-    <rPh sb="22" eb="23">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>メニュー画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>からフェードイン(明転)</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>メイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・×ボタンを押す事で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>メニュー画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に切り替わる</t>
-    </r>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>メニュー画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>クリア画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>からフェードイン(明転)</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>メイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>メニュー画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>からの場合BGMを引き継ぐ</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>クリア画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>からの場合は(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>メニュー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>と同じ)BGMを最初から流す</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ポーズ画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>からの場合は(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>メニュー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>と同じ)BGMを最初から流す</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1887,10 +1232,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトルのロゴ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>XXXxYY</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1899,10 +1240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Menu_BGM</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>input_SE2</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1911,16 +1248,8 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>メニューのBGM</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>XXXxYY (?,?)</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Movie.Animation</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>戻るを意味するロゴ</t>
@@ -1962,13 +1291,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>戻るをしめすロゴ</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>input_SE4</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -3324,22 +2646,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Axis</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Start</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Tutorial</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Esc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Title</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3371,13 +2677,394 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>背景に流れるアニメーション</t>
-    <rPh sb="0" eb="2">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
+    <t>スイッチの仕様</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤー、ブロックが上面から押す事で起動する</t>
+    <rPh sb="12" eb="14">
+      <t>ジョウメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・起動すると対応したブロックが動く(移動、回転、サイズ変化)</t>
+    <rPh sb="1" eb="3">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ステージセレクト画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>からフェードイン(明転)</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>メイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・BGMは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ステージセレクト画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>から引き継ぎ、そのまま繰り返す</t>
+    </r>
+    <rPh sb="26" eb="27">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・×ボタンを押す事で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ステージセレクト画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に切り替わる</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・〇ボタンor×ボタンを押すと、SEと共にフェードアウト(暗転)して</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ステージセレクト画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>へ</t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>アンテン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・〇ボタンor×ボタンを押すと、SEと共にフェードアウト(暗転)し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ステージセレクト画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>へ</t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>アンテン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>タイトル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ポーズ画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>クリア画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>からフェードイン(明転)</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>メイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・前の画面のBGMは止め、ステージセレクト用のBGMが流れる</t>
+    <rPh sb="1" eb="2">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
       <t>ナガ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ESC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリを閉じる選択肢</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Select_BGM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ステージセレクトのBGM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Tutorial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作説明へ進む選択肢</t>
+    <rPh sb="0" eb="4">
+      <t>ソウサセツメイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SwitchBlock</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3385,7 +3072,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3443,14 +3130,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3680,7 +3359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3718,7 +3397,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3826,8 +3504,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9028</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
@@ -3844,8 +3522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4664155" y="2378133"/>
-          <a:ext cx="1972194" cy="478675"/>
+          <a:off x="3981450" y="2308860"/>
+          <a:ext cx="2670485" cy="464821"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3886,7 +3564,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>メニュー</a:t>
+            <a:t>ステージセレクト</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3965,83 +3643,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>329068</xdr:colOff>
+      <xdr:colOff>569098</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>321447</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4319177" y="3768437"/>
-          <a:ext cx="2652452" cy="478675"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ステージセレクト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>626248</xdr:colOff>
-      <xdr:row>22</xdr:row>
       <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>9027</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4051,8 +3660,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4616357" y="5189221"/>
-          <a:ext cx="2042852" cy="478674"/>
+          <a:off x="4569598" y="3665221"/>
+          <a:ext cx="2212202" cy="464819"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4294,140 +3903,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>550048</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>121921</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>100467</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>137161</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="下矢印 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5870193" y="2948248"/>
-          <a:ext cx="215438" cy="721822"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>392728</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>40644</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>566762</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15719</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="下矢印 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="18208181" flipV="1">
-          <a:off x="7687803" y="3664354"/>
-          <a:ext cx="438062" cy="1524413"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>336687</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -4563,15 +4038,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>550048</xdr:colOff>
+      <xdr:colOff>83323</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>129541</xdr:rowOff>
+      <xdr:rowOff>120016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>100468</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>300493</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4580,62 +4055,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5205175" y="2955868"/>
-          <a:ext cx="215438" cy="729442"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>557668</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>137161</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>108088</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="下矢印 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5212795" y="4376652"/>
-          <a:ext cx="215438" cy="729441"/>
+          <a:off x="4750573" y="2863216"/>
+          <a:ext cx="217170" cy="708660"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -4832,68 +4253,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>648652</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>58708</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>663411</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>157316</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="下矢印 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="3331365">
-          <a:off x="4146564" y="5538542"/>
-          <a:ext cx="334135" cy="679777"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>420507</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>534808</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>129541</xdr:rowOff>
     </xdr:to>
@@ -4904,14 +4271,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2415562" y="2484813"/>
-          <a:ext cx="2109355" cy="3532910"/>
+          <a:off x="2420757" y="2415540"/>
+          <a:ext cx="1389243" cy="3429001"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 4570"/>
-            <a:gd name="adj2" fmla="val 5107"/>
-            <a:gd name="adj3" fmla="val 11291"/>
+            <a:gd name="adj1" fmla="val 8684"/>
+            <a:gd name="adj2" fmla="val 10592"/>
+            <a:gd name="adj3" fmla="val 16090"/>
             <a:gd name="adj4" fmla="val 0"/>
           </a:avLst>
         </a:prstGeom>
@@ -4964,13 +4331,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>77305</xdr:colOff>
+      <xdr:colOff>77304</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>129541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>184289</xdr:colOff>
+      <xdr:colOff>495299</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>99061</xdr:rowOff>
     </xdr:to>
@@ -4981,8 +4348,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2771914" y="3840150"/>
-          <a:ext cx="1454288" cy="2056737"/>
+          <a:off x="2744304" y="3787141"/>
+          <a:ext cx="1751495" cy="2026920"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst>
@@ -5471,15 +4838,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>290967</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>614817</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>313828</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22861</xdr:rowOff>
+      <xdr:colOff>637678</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5488,13 +4855,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7606167" y="3069475"/>
-          <a:ext cx="1352897" cy="486295"/>
+          <a:off x="7949067" y="2855595"/>
+          <a:ext cx="1356361" cy="472441"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -64144"/>
-            <a:gd name="adj2" fmla="val -111118"/>
+            <a:gd name="adj1" fmla="val -80998"/>
+            <a:gd name="adj2" fmla="val -82892"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -5556,306 +4923,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>214767</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>420507</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>203836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>237627</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>30481</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="四角形吹き出し 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6199931" y="3077095"/>
-          <a:ext cx="1352896" cy="486295"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -67496"/>
-            <a:gd name="adj2" fmla="val 5011"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>BACK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>を選択して</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>〇ボタンを押す</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>344789</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>75236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>212202</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>90476</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="四角形吹き出し 31"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8447067" y="3779135"/>
-          <a:ext cx="1892983" cy="478227"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -77871"/>
-            <a:gd name="adj2" fmla="val 77621"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ポーズからやめるを選択し</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>〇ボタンを押す</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>329067</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466228</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>15241</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="四角形吹き出し 33"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3654158" y="3061855"/>
-          <a:ext cx="1467197" cy="486295"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 62105"/>
-            <a:gd name="adj2" fmla="val 24491"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>スタートを選択して</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>〇ボタンを押す</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>344307</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>213361</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>481468</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>557668</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5864,8 +4941,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3669398" y="4452852"/>
-          <a:ext cx="1467197" cy="493221"/>
+          <a:off x="3087507" y="2947036"/>
+          <a:ext cx="1470661" cy="472439"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -5940,94 +5017,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>651186</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123327</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>60961</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="四角形吹き出し 35"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4641295" y="5888183"/>
-          <a:ext cx="1467196" cy="296487"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -68307"/>
-            <a:gd name="adj2" fmla="val -52928"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>クリア条件を満たす</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>378441</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>156939</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>515602</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>175491</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118341</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6036,8 +5035,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3073050" y="5027113"/>
-          <a:ext cx="1484465" cy="482378"/>
+          <a:off x="3045441" y="4443189"/>
+          <a:ext cx="1470661" cy="475752"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -6199,15 +5198,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>337596</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>61347</xdr:rowOff>
+      <xdr:colOff>366170</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>32772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>360456</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>53727</xdr:rowOff>
+      <xdr:colOff>389030</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25152</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6216,8 +5215,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="7326583" y="5148613"/>
-          <a:ext cx="223874" cy="698050"/>
+          <a:off x="7267985" y="3684657"/>
+          <a:ext cx="220980" cy="689610"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -6266,15 +5265,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>341406</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>183267</xdr:rowOff>
+      <xdr:colOff>322357</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>371886</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>183266</xdr:rowOff>
+      <xdr:colOff>352837</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30866</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6283,8 +5282,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="7330393" y="4807546"/>
-          <a:ext cx="231493" cy="705670"/>
+          <a:off x="7224172" y="3454152"/>
+          <a:ext cx="228599" cy="697230"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -6319,16 +5318,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25066</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>221752</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>587040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>83035</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>229371</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>645009</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57921</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6337,8 +5336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8127344" y="5083119"/>
-          <a:ext cx="2083539" cy="470606"/>
+          <a:off x="7921290" y="3707902"/>
+          <a:ext cx="2058219" cy="464819"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6389,15 +5388,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>270077</xdr:colOff>
+      <xdr:colOff>279602</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>208801</xdr:rowOff>
+      <xdr:rowOff>161176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>517421</xdr:colOff>
+      <xdr:colOff>526946</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>226934</xdr:rowOff>
+      <xdr:rowOff>179309</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6406,13 +5405,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5671596" y="4375687"/>
-          <a:ext cx="1597724" cy="481120"/>
+          <a:off x="5613602" y="4275976"/>
+          <a:ext cx="1580844" cy="475333"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 54324"/>
-            <a:gd name="adj2" fmla="val 108693"/>
+            <a:gd name="adj1" fmla="val 50709"/>
+            <a:gd name="adj2" fmla="val -153812"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -6483,15 +5482,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>140496</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>204741</xdr:rowOff>
+      <xdr:colOff>264321</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>195216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>163357</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>219982</xdr:rowOff>
+      <xdr:colOff>287182</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>210457</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6500,8 +5499,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7567585" y="5760589"/>
-          <a:ext cx="1373240" cy="478228"/>
+          <a:off x="7598571" y="4310016"/>
+          <a:ext cx="1356361" cy="472441"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -6691,37 +5690,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487976</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>31119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>198168</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>662010</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6194</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="直方体 11"/>
+        <xdr:cNvPr id="12" name="下矢印 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="106680"/>
-          <a:ext cx="2987040" cy="2834688"/>
+        <a:xfrm rot="18208181" flipV="1">
+          <a:off x="7026355" y="2465290"/>
+          <a:ext cx="432275" cy="1507534"/>
         </a:xfrm>
-        <a:prstGeom prst="cube">
+        <a:prstGeom prst="downArrow">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6752,285 +5758,257 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>376412</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>113030</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>487664</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>132386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>355077</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147626</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="グループ化 13"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="四角形吹き出し 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="3058652" y="341630"/>
-          <a:ext cx="873268" cy="2565400"/>
-          <a:chOff x="3058652" y="189230"/>
-          <a:chExt cx="873268" cy="2565400"/>
+          <a:off x="5154914" y="3104186"/>
+          <a:ext cx="1867663" cy="472440"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="10" name="グループ化 9"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="3058652" y="189230"/>
-            <a:ext cx="649704" cy="2565400"/>
-            <a:chOff x="1816100" y="146050"/>
-            <a:chExt cx="641350" cy="2565400"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2044700" y="1682750"/>
-              <a:ext cx="190500" cy="1028700"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2260600" y="1682750"/>
-              <a:ext cx="190500" cy="1028700"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1816100" y="615950"/>
-              <a:ext cx="185058" cy="1017270"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="正方形/長方形 5"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2032000" y="622300"/>
-              <a:ext cx="425450" cy="1028700"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="楕円 6"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2000250" y="146050"/>
-              <a:ext cx="457200" cy="457200"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3744452" y="661670"/>
-            <a:ext cx="187468" cy="1017270"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 64928"/>
+            <a:gd name="adj2" fmla="val -19153"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ポーズからやめるを選択し</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>〇ボタンを押す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>115403</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>108586</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="曲折矢印 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4115903" y="4253866"/>
+          <a:ext cx="1132371" cy="2026920"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 10815"/>
+            <a:gd name="adj2" fmla="val 14276"/>
+            <a:gd name="adj3" fmla="val 15288"/>
+            <a:gd name="adj4" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
             </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>136836</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>275727</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>70486</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="四角形吹き出し 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5470836" y="5267326"/>
+          <a:ext cx="1472391" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -68307"/>
+            <a:gd name="adj2" fmla="val -52928"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クリア条件を満たす</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7396,7 +6374,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7905,7 +6883,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8479,6 +7457,206 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="直方体 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1348740" y="1615440"/>
+          <a:ext cx="2674620" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 73699"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="円柱 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2529840" y="1737360"/>
+          <a:ext cx="289560" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="直方体 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4701540" y="1264920"/>
+          <a:ext cx="1325880" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8599,28 +7777,71 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>228232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2" r="20698" b="7382"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="457199"/>
+          <a:ext cx="6949440" cy="4343033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670560" y="457200"/>
-          <a:ext cx="6926580" cy="4328160"/>
+          <a:off x="819150" y="590549"/>
+          <a:ext cx="695325" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8628,15 +7849,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="dk1">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -8646,12 +7867,12 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200"/>
-            <a:t>Axis</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>ESC</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8659,84 +7880,55 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3223260" y="2484120"/>
-          <a:ext cx="1828800" cy="1813560"/>
+          <a:off x="847725" y="4257676"/>
+          <a:ext cx="1219200" cy="466724"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　スタート</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
-            <a:t>　操作説明</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
-            <a:t>　おわる</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>操作説明</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8807,54 +7999,6 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>228232</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="2" r="20698" b="7382"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="457199"/>
-          <a:ext cx="6949440" cy="4343033"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -8912,7 +8056,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9030,7 +8174,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9084,6 +8228,342 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190548</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="直方体 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="556260" y="327660"/>
+          <a:ext cx="2987040" cy="2834688"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>262112</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3614912" y="562610"/>
+          <a:ext cx="873268" cy="2565400"/>
+          <a:chOff x="3058652" y="189230"/>
+          <a:chExt cx="873268" cy="2565400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="10" name="グループ化 9"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3058652" y="189230"/>
+            <a:ext cx="649704" cy="2565400"/>
+            <a:chOff x="1816100" y="146050"/>
+            <a:chExt cx="641350" cy="2565400"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2044700" y="1682750"/>
+              <a:ext cx="190500" cy="1028700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2260600" y="1682750"/>
+              <a:ext cx="190500" cy="1028700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1816100" y="615950"/>
+              <a:ext cx="185058" cy="1017270"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2032000" y="622300"/>
+              <a:ext cx="425450" cy="1028700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="楕円 6"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2000250" y="146050"/>
+              <a:ext cx="457200" cy="457200"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3744452" y="661670"/>
+            <a:ext cx="187468" cy="1017270"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9355,7 +8835,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9371,62 +8851,49 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L37"/>
+  <dimension ref="A2:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L4" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" t="s">
+        <v>138</v>
+      </c>
       <c r="L5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L8" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -9446,7 +8913,7 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="5"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
@@ -9474,14 +8941,14 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="5"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="10">
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="12"/>
+        <v>202</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
         <v>13</v>
       </c>
@@ -9489,7 +8956,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -9498,7 +8965,7 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="5"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4"/>
       <c r="D19" s="8"/>
@@ -9527,449 +8994,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" s="5"/>
-      <c r="B23" s="10">
-        <v>1</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="5"/>
-      <c r="B24" s="10">
-        <v>2</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" s="5"/>
-      <c r="B25" s="10">
-        <v>3</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="5"/>
-      <c r="B26" s="10">
-        <v>4</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" s="5"/>
-      <c r="B27" s="10">
-        <v>5</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" s="5"/>
-      <c r="B28" s="10">
-        <v>6</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="5"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B33" s="10">
-        <v>1</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
-        <v>2</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B35" s="10">
-        <v>3</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="15"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L2" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="E5" t="s">
-        <v>161</v>
-      </c>
-      <c r="L5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="11"/>
-      <c r="B17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="11"/>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="11"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="3" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -10012,11 +9037,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="11" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -10076,7 +9101,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="16"/>
-      <c r="G27" s="28"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="9" t="s">
         <v>5</v>
       </c>
@@ -10092,13 +9117,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>128</v>
+        <v>104</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="F28" s="11"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="13"/>
       <c r="I28" s="10"/>
       <c r="J28" s="5"/>
@@ -10108,14 +9133,14 @@
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="29" t="s">
-        <v>129</v>
+      <c r="E29" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="F29" s="11"/>
-      <c r="G29" s="27"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="13"/>
       <c r="I29" s="10"/>
       <c r="J29" s="5"/>
@@ -10125,14 +9150,14 @@
         <v>3</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="29" t="s">
-        <v>130</v>
+      <c r="E30" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="F30" s="11"/>
-      <c r="G30" s="27"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="13"/>
       <c r="I30" s="10"/>
       <c r="J30" s="5"/>
@@ -10155,12 +9180,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10172,67 +9197,67 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10251,7 +9276,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10288,7 +9313,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11" t="s">
@@ -10298,7 +9323,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -10312,7 +9337,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="11" t="s">
@@ -10322,7 +9347,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -10370,9 +9395,9 @@
         <v>4</v>
       </c>
       <c r="F23" s="16"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
       <c r="J23" s="6" t="s">
         <v>5</v>
       </c>
@@ -10388,11 +9413,11 @@
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="29" t="s">
-        <v>210</v>
+      <c r="E24" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="22"/>
@@ -10407,11 +9432,11 @@
         <v>2</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="D25" s="11"/>
-      <c r="E25" s="29" t="s">
-        <v>217</v>
+      <c r="E25" s="28" t="s">
+        <v>194</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="22"/>
@@ -10426,11 +9451,11 @@
         <v>3</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="29" t="s">
-        <v>212</v>
+      <c r="E26" s="28" t="s">
+        <v>189</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -10443,11 +9468,11 @@
     <row r="27" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="15"/>
       <c r="C27" s="14" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="29" t="s">
-        <v>218</v>
+      <c r="E27" s="28" t="s">
+        <v>195</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="18"/>
@@ -10476,12 +9501,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10492,68 +9517,68 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="M13" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="M14" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10606,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
@@ -10616,7 +9641,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -10630,7 +9655,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="11" t="s">
@@ -10640,7 +9665,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -10654,7 +9679,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="13" t="s">
@@ -10664,7 +9689,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -10678,7 +9703,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="14" t="s">
@@ -10688,7 +9713,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -10738,7 +9763,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="16"/>
-      <c r="G25" s="28"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="9" t="s">
         <v>5</v>
       </c>
@@ -10752,14 +9777,14 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
       <c r="C26" s="13" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="29" t="s">
-        <v>196</v>
+      <c r="E26" s="28" t="s">
+        <v>173</v>
       </c>
       <c r="F26" s="11"/>
-      <c r="G26" s="27"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="13"/>
       <c r="I26" s="10"/>
       <c r="J26" s="5"/>
@@ -10767,14 +9792,14 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="29" t="s">
-        <v>195</v>
+      <c r="E27" s="28" t="s">
+        <v>172</v>
       </c>
       <c r="F27" s="11"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="13"/>
       <c r="I27" s="10"/>
       <c r="J27" s="5"/>
@@ -10782,13 +9807,13 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B28" s="10"/>
       <c r="C28" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>197</v>
+        <v>170</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>174</v>
       </c>
       <c r="F28" s="11"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="13"/>
       <c r="I28" s="10"/>
       <c r="J28" s="5"/>
@@ -10796,14 +9821,14 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29" s="10"/>
       <c r="C29" s="13" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="29" t="s">
-        <v>198</v>
+      <c r="E29" s="28" t="s">
+        <v>175</v>
       </c>
       <c r="F29" s="11"/>
-      <c r="G29" s="27"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="13"/>
       <c r="I29" s="10"/>
       <c r="J29" s="5"/>
@@ -10818,6 +9843,258 @@
       <c r="H30" s="14"/>
       <c r="I30" s="15"/>
       <c r="J30" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M2" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="11"/>
+      <c r="B19" s="15">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B24" s="10"/>
+      <c r="C24" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B25" s="10"/>
+      <c r="C25" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="10"/>
+      <c r="C26" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B27" s="10"/>
+      <c r="C27" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -10831,7 +10108,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10845,22 +10122,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>39</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -10921,7 +10198,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
@@ -10931,7 +10208,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -10957,7 +10234,7 @@
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -11006,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="11" t="s">
@@ -11016,7 +10293,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -11084,11 +10361,11 @@
         <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="13"/>
@@ -11102,11 +10379,11 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="14"/>
@@ -11151,8 +10428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11166,22 +10443,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>38</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
@@ -11189,7 +10466,7 @@
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -11239,17 +10516,17 @@
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -11313,19 +10590,19 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
-      <c r="B30" s="24">
+      <c r="B30" s="23">
         <v>1</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>70</v>
+      <c r="C30" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="D30" s="12"/>
-      <c r="E30" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="24"/>
+      <c r="E30" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="12"/>
       <c r="J30" s="3"/>
       <c r="M30" s="3"/>
@@ -11336,11 +10613,11 @@
         <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="4" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="14"/>
@@ -11371,10 +10648,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11383,110 +10660,198 @@
     <col min="10" max="10" width="10.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="M9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="M10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="M13" t="s">
+        <v>231</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+    <row r="24" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="J24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="10">
         <v>1</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="C25" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" s="12"/>
+        <v>212</v>
+      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>77</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -11495,20 +10860,20 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="5"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A27" s="11"/>
       <c r="B27" s="10">
-        <v>2</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>244</v>
+        <v>3</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>213</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>16</v>
@@ -11520,229 +10885,271 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="B28" s="10">
-        <v>3</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>245</v>
+        <v>4</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>214</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="13"/>
       <c r="K28" s="10"/>
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="3"/>
-      <c r="B29" s="13">
-        <v>4</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>246</v>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A29" s="11"/>
+      <c r="B29" s="10">
+        <v>5</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>215</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="H29" s="11"/>
-      <c r="I29" s="5"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="13"/>
       <c r="K29" s="10"/>
       <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="3"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-    </row>
-    <row r="31" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6" t="s">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A30" s="11"/>
+      <c r="B30" s="10">
+        <v>6</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A31" s="11"/>
+      <c r="B31" s="10">
+        <v>7</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A32" s="11"/>
+      <c r="B32" s="10">
+        <v>8</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="3"/>
+      <c r="B33" s="15">
+        <v>9</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="16" t="s">
+      <c r="D36" s="7"/>
+      <c r="E36" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A37" s="5"/>
+      <c r="B37" s="23">
+        <v>1</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38" s="5"/>
+      <c r="B38" s="10">
+        <v>2</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="5"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39" s="3"/>
+      <c r="B39" s="10">
         <v>3</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="3"/>
-      <c r="B32" s="15">
-        <v>1</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-    </row>
-    <row r="34" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A36" s="5"/>
-      <c r="B36" s="10">
-        <v>1</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="3"/>
-      <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
-      <c r="B37" s="10">
-        <v>2</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="3"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="3"/>
-      <c r="B38" s="15">
-        <v>3</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="C39" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="15">
+        <v>4</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -11756,8 +11163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11771,22 +11178,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11840,15 +11247,15 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -11863,7 +11270,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="4" t="s">
@@ -11871,7 +11278,7 @@
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="19" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -11927,16 +11334,16 @@
         <v>4</v>
       </c>
       <c r="F30" s="16"/>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="27"/>
+      <c r="H30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="3"/>
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
@@ -11944,18 +11351,18 @@
       <c r="B31" s="10">
         <v>1</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="11" t="s">
-        <v>83</v>
+      <c r="C31" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="25" t="s">
+        <v>242</v>
       </c>
       <c r="F31" s="11"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="3"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3"/>
@@ -11963,17 +11370,17 @@
         <v>2</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="4" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="3"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="8"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
@@ -11983,16 +11390,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12001,97 +11409,77 @@
     <col min="10" max="10" width="10.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="M6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="M7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="M8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="M11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="M12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="M16" s="1"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M16" t="s">
+        <v>134</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -12106,6 +11494,12 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M21" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
@@ -12150,7 +11544,6 @@
       <c r="L24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
@@ -12158,24 +11551,23 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="13"/>
       <c r="K25" s="10"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
@@ -12183,7 +11575,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -12193,7 +11585,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -12208,7 +11600,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
@@ -12218,7 +11610,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -12233,7 +11625,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
@@ -12243,7 +11635,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -12257,18 +11649,18 @@
       <c r="B29" s="10">
         <v>5</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>238</v>
+      <c r="C29" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="20" t="s">
-        <v>89</v>
+      <c r="G29" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -12280,20 +11672,20 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="10">
-        <v>6</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>239</v>
+        <v>7</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -12302,496 +11694,23 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A31" s="11"/>
-      <c r="B31" s="10">
-        <v>7</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="3"/>
-      <c r="B32" s="15">
-        <v>8</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A36" s="5"/>
-      <c r="B36" s="24">
-        <v>1</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="12"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A37" s="5"/>
-      <c r="B37" s="10">
-        <v>2</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A38" s="3"/>
-      <c r="B38" s="10">
-        <v>3</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="15">
-        <v>4</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="8"/>
-      <c r="M39" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A1" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M15" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M21" s="1"/>
-    </row>
-    <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A25" s="5"/>
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A26" s="5"/>
-      <c r="B26" s="10">
-        <v>2</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A27" s="11"/>
-      <c r="B27" s="10">
-        <v>3</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A28" s="11"/>
-      <c r="B28" s="10">
-        <v>4</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A29" s="11"/>
-      <c r="B29" s="10">
-        <v>5</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A30" s="11"/>
-      <c r="B30" s="10">
-        <v>7</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="3"/>
-    </row>
     <row r="31" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3"/>
       <c r="B31" s="15">
         <v>9</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="8"/>
@@ -12833,7 +11752,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="16"/>
-      <c r="G34" s="28"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="9" t="s">
         <v>5</v>
       </c>
@@ -12851,14 +11770,14 @@
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D35" s="11"/>
-      <c r="E35" s="25" t="s">
-        <v>119</v>
+      <c r="E35" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="F35" s="11"/>
-      <c r="G35" s="27"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="13"/>
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
@@ -12869,13 +11788,13 @@
         <v>2</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>131</v>
+        <v>109</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="F36" s="11"/>
-      <c r="G36" s="27"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="13"/>
       <c r="I36" s="10"/>
       <c r="J36" s="5"/>
@@ -12886,14 +11805,14 @@
         <v>3</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="29" t="s">
-        <v>159</v>
+      <c r="E37" s="28" t="s">
+        <v>136</v>
       </c>
       <c r="F37" s="11"/>
-      <c r="G37" s="27"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="13"/>
       <c r="I37" s="10"/>
       <c r="J37" s="5"/>
@@ -12936,7 +11855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
@@ -12955,37 +11874,37 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13040,17 +11959,17 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -13065,17 +11984,17 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -13090,17 +12009,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -13115,17 +12034,17 @@
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -13207,19 +12126,19 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
-      <c r="B34" s="24">
+      <c r="B34" s="23">
         <v>1</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>81</v>
+      <c r="C34" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="D34" s="12"/>
-      <c r="E34" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="24"/>
+      <c r="E34" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="23"/>
       <c r="I34" s="12"/>
       <c r="J34" s="3"/>
     </row>
@@ -13229,11 +12148,11 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="14"/>
@@ -13257,7 +12176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
@@ -13281,27 +12200,27 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13356,17 +12275,17 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -13381,17 +12300,17 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -13406,17 +12325,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -13442,17 +12361,17 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="3"/>
     </row>
     <row r="31" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13502,11 +12421,11 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="11" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="13"/>
@@ -13520,11 +12439,11 @@
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="20" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="13"/>
@@ -13538,11 +12457,11 @@
         <v>3</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="11" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="13"/>
@@ -13556,11 +12475,11 @@
         <v>4</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="4" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="14"/>
@@ -13588,4 +12507,458 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L2" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="5"/>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="5"/>
+      <c r="B24" s="10">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="5"/>
+      <c r="B25" s="10">
+        <v>3</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="5"/>
+      <c r="B26" s="10">
+        <v>4</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="5"/>
+      <c r="B27" s="10">
+        <v>5</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="5"/>
+      <c r="B28" s="10">
+        <v>6</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="5"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B33" s="10">
+        <v>1</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B34" s="10">
+        <v>2</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B35" s="10">
+        <v>3</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="15"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G017A1326\Desktop\制作\企画　プレゼン等\Axis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G017A1326\Documents\team06\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="271">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -1738,31 +1738,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・レーザーポインターは銃の先端から直線状に放たれ、何かに遮られるまで伸びる</t>
-    <rPh sb="11" eb="12">
-      <t>ジュウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センタン</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>チョクセンジョウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>サエギ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・時間制限は180秒</t>
     <rPh sb="1" eb="3">
       <t>ジカン</t>
@@ -2175,28 +2150,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・もし動かすとブロックが壊れ、動かす前の場所に再生成される</t>
-    <rPh sb="3" eb="4">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コワ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>サイセイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Break_SE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2684,10 +2637,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・プレイヤー、ブロックが上面から押す事で起動する</t>
     <rPh sb="12" eb="14">
       <t>ジョウメン</t>
@@ -2700,28 +2649,6 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・起動すると対応したブロックが動く(移動、回転、サイズ変化)</t>
-    <rPh sb="1" eb="3">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヘンカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3060,11 +2987,254 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>CGリソースリスト</t>
+  </si>
+  <si>
+    <t>番号</t>
+  </si>
+  <si>
+    <t>ファイル名</t>
+  </si>
+  <si>
+    <t>大きさ（座標）</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>作成担当者</t>
+  </si>
+  <si>
+    <t>作成日</t>
+  </si>
+  <si>
+    <t>組込日</t>
+  </si>
+  <si>
     <t>Switch</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXXxYY</t>
+  </si>
+  <si>
+    <t>(?,?)</t>
+  </si>
+  <si>
+    <t>ボタン型スイッチ</t>
   </si>
   <si>
     <t>SwitchBlock</t>
+  </si>
+  <si>
+    <t>スイッチに連動して動く黄ブロック</t>
+  </si>
+  <si>
+    <t>サウンドリソースリスト(フリー素材使用)</t>
+  </si>
+  <si>
+    <t>Switch_SE</t>
+  </si>
+  <si>
+    <t>スイッチが押された時のSE</t>
+  </si>
+  <si>
+    <t>S.Move_SE</t>
+  </si>
+  <si>
+    <t>黄ブロックが動く時のSE</t>
+  </si>
+  <si>
+    <t>S.Stop_SE</t>
+  </si>
+  <si>
+    <t>黄ブロックが停止した時のSE</t>
+  </si>
+  <si>
+    <t>黄ブロックが衝突して停止した時のSE</t>
+  </si>
+  <si>
+    <t>・移動中にスイッチを押していた物が離れると、同時に黄ブロックは元に位置に戻る</t>
+    <rPh sb="1" eb="4">
+      <t>イドウチュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　その状態で進行方向にあったブロックを退かすと、再び黄ブロックは動き始める</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・移動中、進行方向にブロックがあり衝突した場合、そこで黄ブロックは止まる</t>
+    <rPh sb="1" eb="4">
+      <t>イドウチュウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>シンコウホウコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・進行方向にブロックがある場合、起動させても黄ブロックは動かない</t>
+    <rPh sb="1" eb="3">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・レーザーポインターは銃の先端から直線状に放たれ、何かに遮られない限り射程に制限距離は無い</t>
+    <rPh sb="11" eb="12">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>チョクセンジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サエギ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シャテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・もし動かすと衝突し、ブロックが壊れて動かす前の場所に再生成される</t>
+    <rPh sb="3" eb="4">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>サイセイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・起動すると対応したブロックが動く(回転)</t>
+    <rPh sb="1" eb="3">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.Crash_SE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6915,6 +7085,210 @@
           <a:schemeClr val="accent6">
             <a:lumMod val="60000"/>
             <a:lumOff val="40000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>452119</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>121919</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="939930">
+          <a:off x="9428479" y="4032250"/>
+          <a:ext cx="1681480" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292099</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>632459</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2343681">
+          <a:off x="9268459" y="4306570"/>
+          <a:ext cx="1681480" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>75564</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285114</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3923024">
+          <a:off x="8986519" y="4535171"/>
+          <a:ext cx="1681480" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
@@ -6972,11 +7346,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="234950"/>
-          <a:ext cx="1587500" cy="1587500"/>
+          <a:off x="670560" y="234950"/>
+          <a:ext cx="1607820" cy="1587500"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 28840"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="bg1">
@@ -7038,11 +7414,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2641600" y="463550"/>
-          <a:ext cx="1587500" cy="1587500"/>
+          <a:off x="2682240" y="463550"/>
+          <a:ext cx="1607820" cy="1587500"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 28840"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -7092,11 +7470,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4622800" y="692150"/>
-          <a:ext cx="1587500" cy="1587500"/>
+          <a:off x="4693920" y="692150"/>
+          <a:ext cx="1596390" cy="1587500"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 28840"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent6">
@@ -7339,16 +7719,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>153670</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7357,15 +7737,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="9742170" y="4283710"/>
-          <a:ext cx="1184910" cy="1558290"/>
+          <a:off x="9014460" y="3688080"/>
+          <a:ext cx="2567940" cy="2352040"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 25000"/>
-            <a:gd name="adj2" fmla="val 25000"/>
-            <a:gd name="adj3" fmla="val 25000"/>
-            <a:gd name="adj4" fmla="val 81936"/>
+            <a:gd name="adj1" fmla="val 8404"/>
+            <a:gd name="adj2" fmla="val 9786"/>
+            <a:gd name="adj3" fmla="val 14633"/>
+            <a:gd name="adj4" fmla="val 94416"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -7551,7 +7931,9 @@
           <a:ext cx="289560" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="can">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent4">
@@ -8259,7 +8641,9 @@
           <a:ext cx="2987040" cy="2834688"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10216"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -8853,8 +9237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8880,7 +9264,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L5" t="s">
         <v>132</v>
@@ -8893,7 +9277,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>133</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -8946,7 +9330,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
@@ -8956,7 +9340,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -8994,7 +9378,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -9037,11 +9421,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -9184,8 +9568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9197,67 +9581,67 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -9276,7 +9660,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -9323,7 +9707,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -9347,7 +9731,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -9413,11 +9797,11 @@
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="22"/>
@@ -9432,11 +9816,11 @@
         <v>2</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="22"/>
@@ -9451,11 +9835,11 @@
         <v>3</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -9468,11 +9852,11 @@
     <row r="27" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="15"/>
       <c r="C27" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="18"/>
@@ -9506,7 +9890,7 @@
   <dimension ref="A2:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9517,68 +9901,68 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>168</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -9641,7 +10025,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -9703,7 +10087,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="14" t="s">
@@ -9713,7 +10097,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -9781,7 +10165,7 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="26"/>
@@ -9792,11 +10176,11 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="26"/>
@@ -9807,10 +10191,10 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B28" s="10"/>
       <c r="C28" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="26"/>
@@ -9821,11 +10205,11 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29" s="10"/>
       <c r="C29" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="26"/>
@@ -9855,39 +10239,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" customWidth="1"/>
     <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>228</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -9904,29 +10304,29 @@
     <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="16" t="s">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="16" t="s">
-        <v>4</v>
+        <v>245</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="9" t="s">
-        <v>5</v>
+        <v>246</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>6</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
@@ -9935,16 +10335,18 @@
         <v>1</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="20"/>
+        <v>251</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>252</v>
+      </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="13"/>
@@ -9957,16 +10359,18 @@
         <v>2</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="14" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="18"/>
+        <v>251</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>254</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="14"/>
@@ -9989,7 +10393,7 @@
     </row>
     <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
-        <v>9</v>
+        <v>255</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -10005,35 +10409,35 @@
     </row>
     <row r="23" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="6" t="s">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="16" t="s">
-        <v>4</v>
+        <v>245</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="27"/>
       <c r="H23" s="9" t="s">
-        <v>5</v>
+        <v>246</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>6</v>
+        <v>247</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B24" s="10"/>
       <c r="C24" s="13" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="28" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="26"/>
@@ -10044,11 +10448,11 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B25" s="10"/>
       <c r="C25" s="13" t="s">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="28" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="26"/>
@@ -10059,10 +10463,10 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
       <c r="C26" s="20" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>174</v>
+        <v>261</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="26"/>
@@ -10073,11 +10477,11 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="26"/>
@@ -10137,7 +10541,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -10198,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
@@ -10208,7 +10612,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -10234,7 +10638,7 @@
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -10283,7 +10687,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="11" t="s">
@@ -10293,7 +10697,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -10453,7 +10857,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
@@ -10466,7 +10870,7 @@
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -10650,7 +11054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
@@ -10665,7 +11069,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -10675,12 +11079,12 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
@@ -10722,7 +11126,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -10816,7 +11220,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
@@ -10841,7 +11245,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -10866,7 +11270,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
@@ -10891,7 +11295,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
@@ -10916,7 +11320,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="11" t="s">
@@ -10941,7 +11345,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="11" t="s">
@@ -10966,7 +11370,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="11" t="s">
@@ -10991,7 +11395,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="11" t="s">
@@ -11001,7 +11405,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -11016,7 +11420,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="14" t="s">
@@ -11026,7 +11430,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="8"/>
@@ -11083,11 +11487,11 @@
         <v>1</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="25" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="26"/>
@@ -11163,8 +11567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11183,17 +11587,17 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11247,7 +11651,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
@@ -11270,7 +11674,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="4" t="s">
@@ -11352,11 +11756,11 @@
         <v>1</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="25" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="26"/>
@@ -11399,8 +11803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11472,7 +11876,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -11805,11 +12209,11 @@
         <v>3</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="26"/>
@@ -11959,7 +12363,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
@@ -11984,7 +12388,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -12009,7 +12413,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
@@ -12275,7 +12679,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
@@ -12300,7 +12704,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -12421,11 +12825,11 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="13"/>
@@ -12514,7 +12918,7 @@
   <dimension ref="A2:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12536,7 +12940,7 @@
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H4" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -12565,7 +12969,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -12666,7 +13070,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -12709,11 +13113,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -12728,11 +13132,11 @@
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -12747,11 +13151,11 @@
         <v>3</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -12766,11 +13170,11 @@
         <v>4</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -12785,11 +13189,11 @@
         <v>5</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -12804,11 +13208,11 @@
         <v>6</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G017A1326\Documents\team06\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk9hs\Desktop\team06\team06\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="銃" sheetId="41" r:id="rId10"/>
     <sheet name="障害物" sheetId="40" r:id="rId11"/>
     <sheet name="ブロック" sheetId="39" r:id="rId12"/>
-    <sheet name="スイッチ" sheetId="42" r:id="rId13"/>
+    <sheet name="スイッチ " sheetId="43" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="272">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -2628,29 +2628,6 @@
       <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>スイッチの仕様</t>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・プレイヤー、ブロックが上面から押す事で起動する</t>
-    <rPh sb="12" eb="14">
-      <t>ジョウメン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・</t>
@@ -2987,175 +2964,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CGリソースリスト</t>
-  </si>
-  <si>
-    <t>番号</t>
-  </si>
-  <si>
-    <t>ファイル名</t>
-  </si>
-  <si>
-    <t>大きさ（座標）</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>作成担当者</t>
-  </si>
-  <si>
-    <t>作成日</t>
-  </si>
-  <si>
-    <t>組込日</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>XXXxYY</t>
-  </si>
-  <si>
-    <t>(?,?)</t>
-  </si>
-  <si>
-    <t>ボタン型スイッチ</t>
-  </si>
-  <si>
-    <t>SwitchBlock</t>
-  </si>
-  <si>
-    <t>スイッチに連動して動く黄ブロック</t>
-  </si>
-  <si>
-    <t>サウンドリソースリスト(フリー素材使用)</t>
-  </si>
-  <si>
-    <t>Switch_SE</t>
-  </si>
-  <si>
-    <t>スイッチが押された時のSE</t>
-  </si>
-  <si>
-    <t>S.Move_SE</t>
-  </si>
-  <si>
-    <t>黄ブロックが動く時のSE</t>
-  </si>
-  <si>
-    <t>S.Stop_SE</t>
-  </si>
-  <si>
-    <t>黄ブロックが停止した時のSE</t>
-  </si>
-  <si>
-    <t>黄ブロックが衝突して停止した時のSE</t>
-  </si>
-  <si>
-    <t>・移動中にスイッチを押していた物が離れると、同時に黄ブロックは元に位置に戻る</t>
-    <rPh sb="1" eb="4">
-      <t>イドウチュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　その状態で進行方向にあったブロックを退かすと、再び黄ブロックは動き始める</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>フタタ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・移動中、進行方向にブロックがあり衝突した場合、そこで黄ブロックは止まる</t>
-    <rPh sb="1" eb="4">
-      <t>イドウチュウ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>シンコウホウコウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ショウトツ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・進行方向にブロックがある場合、起動させても黄ブロックは動かない</t>
-    <rPh sb="1" eb="3">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・レーザーポインターは銃の先端から直線状に放たれ、何かに遮られない限り射程に制限距離は無い</t>
     <rPh sb="11" eb="12">
       <t>ジュウ</t>
@@ -3218,7 +3026,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・起動すると対応したブロックが動く(回転)</t>
+    <t>スイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ図</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチの仕様概要</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤー、ブロックが上面から接触している間、起動する</t>
+    <rPh sb="12" eb="14">
+      <t>ジョウメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・起動すると対応したブロックが動く</t>
     <rPh sb="1" eb="3">
       <t>キドウ</t>
     </rPh>
@@ -3228,13 +3077,247 @@
     <rPh sb="15" eb="16">
       <t>ウゴ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・ブロックは回転運動のみをおこなう</t>
+    <rPh sb="8" eb="10">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ装置</t>
+    <rPh sb="4" eb="6">
+      <t>ソウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・ブロックの回転速度と回転する値はそれぞれ個別に設定する</t>
+    <rPh sb="8" eb="10">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・設定した値まで動く前にスイッチから離れた場合、その瞬間からスイッチを押す前の状態に戻る</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・接触した際、スイッチのボタン部分が下へ下がる</t>
+    <rPh sb="1" eb="3">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・回転途中で他のブロックとぶつかった場合、ぶつかった地点で停止する</t>
+    <rPh sb="1" eb="3">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホカ</t>
+    </rPh>
     <rPh sb="18" eb="20">
-      <t>カイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S.Crash_SE</t>
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチブロックが動く</t>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック又はプレイヤーが接触</t>
+    <rPh sb="4" eb="5">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CGリソースリスト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Switch_Button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXXxYY</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(?,?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ装置のボタン部分</t>
+    <rPh sb="4" eb="6">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Switch_Base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ装置の土台部分</t>
+    <rPh sb="4" eb="6">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SwitchBlock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチに連動して動くスイッチブロック</t>
+    <rPh sb="5" eb="7">
+      <t>レンドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Switch_SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチが押されたときのSE</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.Move_SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチブロックが動く時のSE</t>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.Stop_SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチブロックが停止したときのSE</t>
+    <rPh sb="9" eb="11">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.Hit_SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチブロックが他のブロックに衝突したときのSE</t>
+    <rPh sb="9" eb="10">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウトツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3242,7 +3325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3337,6 +3420,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3346,7 +3438,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -3523,13 +3615,247 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3584,6 +3910,65 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6200,8 +6585,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="795699" y="158750"/>
-          <a:ext cx="1580375" cy="2565400"/>
+          <a:off x="810939" y="158750"/>
+          <a:ext cx="1610855" cy="2670175"/>
           <a:chOff x="1680889" y="146050"/>
           <a:chExt cx="1560055" cy="2565400"/>
         </a:xfrm>
@@ -7841,26 +8226,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="直方体 11"/>
+        <xdr:cNvPr id="2" name="直方体 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1348740" y="1615440"/>
-          <a:ext cx="2674620" cy="914400"/>
+          <a:off x="150495" y="1720215"/>
+          <a:ext cx="4392930" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
           <a:avLst>
@@ -7909,31 +8294,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>384809</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="円柱 10"/>
+        <xdr:cNvPr id="3" name="円柱 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2529840" y="1737360"/>
-          <a:ext cx="289560" cy="259080"/>
+          <a:off x="1070609" y="1851660"/>
+          <a:ext cx="672465" cy="268605"/>
         </a:xfrm>
         <a:prstGeom prst="can">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
+          <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent4">
@@ -7971,29 +8354,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="直方体 12"/>
+        <xdr:cNvPr id="4" name="直方体 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4701540" y="1264920"/>
-          <a:ext cx="1325880" cy="1242060"/>
+          <a:off x="2476500" y="1055667"/>
+          <a:ext cx="1666875" cy="677883"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 64343"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent4">
@@ -8031,6 +8416,493 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>537209</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>203835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>116373</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="円柱 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1223009" y="1746885"/>
+          <a:ext cx="377191" cy="150663"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>215265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>215265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="直方体 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5092065"/>
+          <a:ext cx="4533900" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 73699"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>234314</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>220979</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="円柱 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="920114" y="5223510"/>
+          <a:ext cx="672465" cy="268605"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>386714</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>78105</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>154473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="円柱 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1072514" y="5200650"/>
+          <a:ext cx="377191" cy="68748"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>312421</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>197067</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="直方体 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="998221" y="4657725"/>
+          <a:ext cx="570446" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="下矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="2962275"/>
+          <a:ext cx="1600200" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="直方体 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="4579917"/>
+          <a:ext cx="1666875" cy="677883"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13759"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="右カーブ矢印 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4029074" y="4791075"/>
+          <a:ext cx="371475" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9222,9 +10094,9 @@
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
@@ -9241,28 +10113,28 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L2" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E5" t="s">
         <v>137</v>
       </c>
@@ -9270,17 +10142,17 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -9296,7 +10168,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -9324,7 +10196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="10">
         <v>1</v>
@@ -9348,7 +10220,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4"/>
@@ -9362,7 +10234,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -9376,7 +10248,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>147</v>
       </c>
@@ -9392,7 +10264,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="6" t="s">
         <v>1</v>
@@ -9416,7 +10288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <v>1</v>
       </c>
@@ -9433,7 +10305,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="15"/>
       <c r="C24" s="4"/>
       <c r="D24" s="8"/>
@@ -9444,7 +10316,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -9457,7 +10329,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
@@ -9473,7 +10345,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
@@ -9496,7 +10368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B28" s="10">
         <v>1</v>
       </c>
@@ -9512,7 +10384,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B29" s="10">
         <v>2</v>
       </c>
@@ -9529,7 +10401,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B30" s="10">
         <v>3</v>
       </c>
@@ -9546,7 +10418,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="15"/>
       <c r="C31" s="14"/>
       <c r="D31" s="4"/>
@@ -9568,83 +10440,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="12.296875" customWidth="1"/>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M2" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M13" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -9663,7 +10535,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -9691,7 +10563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="10">
         <v>1</v>
@@ -9715,7 +10587,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="10">
         <v>2</v>
@@ -9739,7 +10611,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="15"/>
       <c r="C20" s="4"/>
@@ -9753,7 +10625,7 @@
       <c r="K20" s="15"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
@@ -9767,7 +10639,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
         <v>1</v>
       </c>
@@ -9792,7 +10664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B24" s="10">
         <v>1</v>
       </c>
@@ -9811,7 +10683,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B25" s="10">
         <v>2</v>
       </c>
@@ -9830,7 +10702,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B26" s="10">
         <v>3</v>
       </c>
@@ -9849,7 +10721,7 @@
       <c r="K26" s="10"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="15"/>
       <c r="C27" s="14" t="s">
         <v>190</v>
@@ -9866,7 +10738,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
@@ -9893,63 +10765,63 @@
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M2" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>145</v>
       </c>
@@ -9957,7 +10829,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>146</v>
       </c>
@@ -9965,7 +10837,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -9981,7 +10853,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -10009,7 +10881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="10">
         <v>1</v>
@@ -10033,7 +10905,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="10">
         <v>2</v>
@@ -10057,7 +10929,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="10">
         <v>3</v>
@@ -10081,7 +10953,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="B21" s="15">
         <v>4</v>
@@ -10105,7 +10977,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -10119,7 +10991,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
     </row>
-    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
@@ -10135,7 +11007,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
         <v>1</v>
       </c>
@@ -10158,7 +11030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B26" s="10"/>
       <c r="C26" s="13" t="s">
         <v>102</v>
@@ -10173,7 +11045,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
         <v>167</v>
@@ -10188,7 +11060,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B28" s="10"/>
       <c r="C28" s="20" t="s">
         <v>168</v>
@@ -10202,7 +11074,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
       <c r="C29" s="13" t="s">
         <v>169</v>
@@ -10217,7 +11089,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="15"/>
       <c r="C30" s="14"/>
       <c r="D30" s="4"/>
@@ -10237,273 +11109,570 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M28"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="9" max="9" width="10.3984375" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M2" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M4" t="s">
+    <row r="1" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="29"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="22"/>
+      <c r="J3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="29"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="22"/>
+      <c r="J4" t="s">
+        <v>246</v>
+      </c>
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="29"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="22"/>
+      <c r="J5" t="s">
+        <v>247</v>
+      </c>
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="29"/>
+      <c r="B6" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="22"/>
+      <c r="J6" t="s">
+        <v>249</v>
+      </c>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="29"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="29"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="22"/>
+      <c r="K8" s="22"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="29"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="22"/>
+      <c r="J9" t="s">
+        <v>251</v>
+      </c>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="29"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="29"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="22"/>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="29"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="29"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="29"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="29"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="29"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="29"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="29"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="29"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="29"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="29"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="29"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="29"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="29"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="40"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="5"/>
+      <c r="B30" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="45"/>
+      <c r="G30" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="11"/>
+      <c r="B31" s="48">
+        <v>1</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="11"/>
+      <c r="B32" s="55">
+        <v>2</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="E32" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+    </row>
+    <row r="33" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="11"/>
+      <c r="B33" s="62">
+        <v>3</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" s="64"/>
+      <c r="E33" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="F33" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="G33" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+    </row>
+    <row r="35" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B37" s="10"/>
+      <c r="C37" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B38" s="10"/>
+      <c r="C38" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B39" s="10"/>
+      <c r="C39" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="22" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="5"/>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="11"/>
-      <c r="B19" s="15">
-        <v>2</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B24" s="10"/>
-      <c r="C24" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B25" s="10"/>
-      <c r="C25" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B26" s="10"/>
-      <c r="C26" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B27" s="10"/>
-      <c r="C27" s="13" t="s">
+      <c r="F39" s="11"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B40" s="10"/>
+      <c r="C40" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="15"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="8"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="15"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A19:C19"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10515,42 +11684,42 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.296875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -10567,7 +11736,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>1</v>
@@ -10596,7 +11765,7 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>1</v>
@@ -10621,7 +11790,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -10636,7 +11805,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>222</v>
       </c>
@@ -10653,7 +11822,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
         <v>1</v>
@@ -10681,7 +11850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="10">
         <v>1</v>
@@ -10706,7 +11875,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -10720,7 +11889,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
     </row>
-    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
@@ -10736,7 +11905,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="6" t="s">
         <v>1</v>
@@ -10760,7 +11929,7 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B34" s="10">
         <v>1</v>
       </c>
@@ -10778,7 +11947,7 @@
       <c r="J34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="15">
         <v>2</v>
       </c>
@@ -10795,7 +11964,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="11"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -10809,15 +11978,15 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="11"/>
       <c r="B37" s="22"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="11"/>
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
     </row>
   </sheetData>
@@ -10836,39 +12005,39 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.296875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>220</v>
       </c>
@@ -10885,7 +12054,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>1</v>
@@ -10914,7 +12083,7 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>1</v>
@@ -10939,7 +12108,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -10952,7 +12121,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
@@ -10968,7 +12137,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
         <v>1</v>
@@ -10992,7 +12161,7 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="23">
         <v>1</v>
@@ -11011,7 +12180,7 @@
       <c r="J30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="15">
         <v>2</v>
@@ -11029,7 +12198,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -11058,51 +12227,51 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.296875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M11" t="s">
         <v>34</v>
       </c>
@@ -11112,7 +12281,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M12" t="s">
         <v>35</v>
       </c>
@@ -11124,9 +12293,9 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -11136,39 +12305,39 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -11185,7 +12354,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -11214,7 +12383,7 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
@@ -11239,7 +12408,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
@@ -11264,7 +12433,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="10">
         <v>3</v>
@@ -11289,7 +12458,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="10">
         <v>4</v>
@@ -11314,7 +12483,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="10">
         <v>5</v>
@@ -11339,7 +12508,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="10">
         <v>6</v>
@@ -11364,7 +12533,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="10">
         <v>7</v>
@@ -11389,13 +12558,13 @@
       <c r="L31" s="5"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="10">
         <v>8</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="11" t="s">
@@ -11405,7 +12574,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -11414,13 +12583,13 @@
       <c r="L32" s="5"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="15">
         <v>9</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="14" t="s">
@@ -11430,7 +12599,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="8"/>
@@ -11438,10 +12607,10 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -11457,7 +12626,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="6" t="s">
         <v>1</v>
@@ -11481,17 +12650,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="5"/>
       <c r="B37" s="23">
         <v>1</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="26"/>
@@ -11499,7 +12668,7 @@
       <c r="I37" s="23"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="10">
         <v>2</v>
@@ -11518,7 +12687,7 @@
       <c r="J38" s="5"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="10">
         <v>3</v>
@@ -11538,7 +12707,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="15">
         <v>4</v>
       </c>
@@ -11571,36 +12740,36 @@
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.296875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -11616,7 +12785,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -11645,7 +12814,7 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
@@ -11668,7 +12837,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="15">
         <v>2</v>
@@ -11691,7 +12860,7 @@
       <c r="L26" s="8"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -11706,10 +12875,10 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
@@ -11725,7 +12894,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
         <v>1</v>
@@ -11750,17 +12919,17 @@
       </c>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="10">
         <v>1</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="26"/>
@@ -11768,7 +12937,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="15">
         <v>2</v>
@@ -11788,7 +12957,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M33" s="3"/>
     </row>
   </sheetData>
@@ -11807,66 +12976,66 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.296875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M15" t="s">
         <v>25</v>
       </c>
@@ -11874,7 +13043,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M16" t="s">
         <v>133</v>
       </c>
@@ -11883,29 +13052,29 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M21" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -11921,7 +13090,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -11949,7 +13118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
@@ -11973,7 +13142,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
@@ -11998,7 +13167,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="10">
         <v>3</v>
@@ -12023,7 +13192,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="10">
         <v>4</v>
@@ -12048,7 +13217,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="10">
         <v>5</v>
@@ -12073,7 +13242,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="10">
         <v>7</v>
@@ -12098,7 +13267,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="15">
         <v>9</v>
@@ -12123,10 +13292,10 @@
       <c r="L31" s="15"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
@@ -12143,7 +13312,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
         <v>1</v>
@@ -12168,7 +13337,7 @@
       </c>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="10">
         <v>1</v>
@@ -12186,7 +13355,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
       <c r="B36" s="10">
         <v>2</v>
@@ -12203,7 +13372,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="5"/>
       <c r="B37" s="10">
         <v>3</v>
@@ -12221,7 +13390,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="15"/>
       <c r="C38" s="14"/>
@@ -12234,7 +13403,7 @@
       <c r="J38" s="8"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -12248,7 +13417,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M42" s="3"/>
     </row>
   </sheetData>
@@ -12267,51 +13436,51 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.296875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -12328,7 +13497,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -12357,7 +13526,7 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
@@ -12382,7 +13551,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
@@ -12407,7 +13576,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="10">
         <v>3</v>
@@ -12432,7 +13601,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="10">
         <v>4</v>
@@ -12457,7 +13626,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="4"/>
@@ -12472,7 +13641,7 @@
       <c r="L29" s="8"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -12487,7 +13656,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
@@ -12504,7 +13673,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
         <v>1</v>
@@ -12528,7 +13697,7 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="23">
         <v>1</v>
@@ -12546,7 +13715,7 @@
       <c r="I34" s="12"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="15">
         <v>2</v>
@@ -12567,7 +13736,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -12588,46 +13757,46 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.296875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -12644,7 +13813,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -12673,7 +13842,7 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
@@ -12698,7 +13867,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
@@ -12723,7 +13892,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="10">
         <v>3</v>
@@ -12748,7 +13917,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
@@ -12763,7 +13932,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -12778,7 +13947,7 @@
       <c r="L29" s="25"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -12795,7 +13964,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
         <v>1</v>
@@ -12819,7 +13988,7 @@
       </c>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="B33" s="10">
         <v>1</v>
@@ -12837,7 +14006,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="10">
         <v>2</v>
@@ -12855,7 +14024,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="10">
         <v>3</v>
@@ -12873,7 +14042,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="15">
         <v>4</v>
@@ -12891,7 +14060,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -12921,24 +14090,24 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L2" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H4" s="1" t="s">
         <v>199</v>
       </c>
@@ -12948,7 +14117,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -12957,22 +14126,22 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -12988,7 +14157,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -13016,7 +14185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="10">
         <v>1</v>
@@ -13040,7 +14209,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4"/>
@@ -13054,7 +14223,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -13068,7 +14237,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>147</v>
       </c>
@@ -13082,7 +14251,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>1</v>
@@ -13107,7 +14276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="10">
         <v>1</v>
@@ -13126,7 +14295,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="10">
         <v>2</v>
@@ -13145,7 +14314,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>3</v>
@@ -13164,7 +14333,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>4</v>
@@ -13183,7 +14352,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="10">
         <v>5</v>
@@ -13202,7 +14371,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="10">
         <v>6</v>
@@ -13221,7 +14390,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="4"/>
@@ -13234,7 +14403,7 @@
       <c r="J29" s="15"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -13248,7 +14417,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -13264,7 +14433,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
         <v>1</v>
       </c>
@@ -13287,7 +14456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="10">
         <v>1</v>
       </c>
@@ -13304,7 +14473,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="10">
         <v>2</v>
       </c>
@@ -13321,7 +14490,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="10">
         <v>3</v>
       </c>
@@ -13338,7 +14507,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B36" s="15"/>
       <c r="C36" s="14"/>
       <c r="D36" s="4"/>
@@ -13349,7 +14518,7 @@
       <c r="I36" s="15"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk9hs\Desktop\team06\team06\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G017A1326\Documents\team06\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="ポーズ画面" sheetId="35" r:id="rId7"/>
     <sheet name="クリア画面" sheetId="3" r:id="rId8"/>
     <sheet name="プレイヤー" sheetId="36" r:id="rId9"/>
-    <sheet name="銃" sheetId="41" r:id="rId10"/>
-    <sheet name="障害物" sheetId="40" r:id="rId11"/>
-    <sheet name="ブロック" sheetId="39" r:id="rId12"/>
+    <sheet name="障害物" sheetId="40" r:id="rId10"/>
+    <sheet name="ブロック" sheetId="39" r:id="rId11"/>
+    <sheet name="銃" sheetId="41" r:id="rId12"/>
     <sheet name="スイッチ " sheetId="43" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -1641,13 +1641,6 @@
     <t>プレイヤーの仕様</t>
     <rPh sb="6" eb="8">
       <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Lスティックで移動</t>
-    <rPh sb="8" eb="10">
-      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3317,6 +3310,19 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ショウトツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Lスティックで移動(同時にWalk_SEを再生)</t>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3913,26 +3919,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -3969,6 +3957,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6565,372 +6571,6 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>125139</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>364394</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="810939" y="158750"/>
-          <a:ext cx="1610855" cy="2670175"/>
-          <a:chOff x="1680889" y="146050"/>
-          <a:chExt cx="1560055" cy="2565400"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="グループ化 2"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="1680889" y="146050"/>
-            <a:ext cx="1560055" cy="2565400"/>
-            <a:chOff x="1680889" y="146050"/>
-            <a:chExt cx="1560055" cy="2565400"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="正方形/長方形 4"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2044700" y="1682750"/>
-              <a:ext cx="190500" cy="1028700"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="正方形/長方形 5"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2260600" y="1682750"/>
-              <a:ext cx="190500" cy="1028700"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="正方形/長方形 6"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1816100" y="615950"/>
-              <a:ext cx="196850" cy="660400"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="正方形/長方形 7"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="20341630">
-              <a:off x="2549793" y="596454"/>
-              <a:ext cx="238945" cy="1028700"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2032000" y="622300"/>
-              <a:ext cx="425450" cy="1028700"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="楕円 9"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2000250" y="146050"/>
-              <a:ext cx="457200" cy="457200"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="正方形/長方形 10"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="18737581">
-              <a:off x="2308517" y="538159"/>
-              <a:ext cx="304800" cy="1560055"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="17694894">
-            <a:off x="2062261" y="975349"/>
-            <a:ext cx="217062" cy="660400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -7438,7 +7078,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8217,6 +7857,372 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>125139</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>364394</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="795699" y="158750"/>
+          <a:ext cx="1580375" cy="2565400"/>
+          <a:chOff x="1680889" y="146050"/>
+          <a:chExt cx="1560055" cy="2565400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="グループ化 2"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1680889" y="146050"/>
+            <a:ext cx="1560055" cy="2565400"/>
+            <a:chOff x="1680889" y="146050"/>
+            <a:chExt cx="1560055" cy="2565400"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2044700" y="1682750"/>
+              <a:ext cx="190500" cy="1028700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2260600" y="1682750"/>
+              <a:ext cx="190500" cy="1028700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1816100" y="615950"/>
+              <a:ext cx="196850" cy="660400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="20341630">
+              <a:off x="2549793" y="596454"/>
+              <a:ext cx="238945" cy="1028700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2032000" y="622300"/>
+              <a:ext cx="425450" cy="1028700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="楕円 9"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2000250" y="146050"/>
+              <a:ext cx="457200" cy="457200"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="18737581">
+              <a:off x="2308517" y="538159"/>
+              <a:ext cx="304800" cy="1560055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="17694894">
+            <a:off x="2062261" y="975349"/>
+            <a:ext cx="217062" cy="660400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10094,9 +10100,9 @@
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
@@ -10107,52 +10113,85 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L31"/>
+  <dimension ref="A2:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L2" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E5" t="s">
-        <v>137</v>
-      </c>
-      <c r="L5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M2" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -10167,9 +10206,12 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="11"/>
+      <c r="M16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
@@ -10196,15 +10238,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
       <c r="B18" s="10">
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="D18" s="12"/>
       <c r="E18" s="11" t="s">
         <v>13</v>
       </c>
@@ -10212,7 +10254,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -10220,7 +10262,642 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B25" s="10">
+        <v>2</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
+        <v>3</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="15"/>
+      <c r="C27" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M2" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="5"/>
+      <c r="B20" s="10">
+        <v>3</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="11"/>
+      <c r="B21" s="15">
+        <v>4</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="10"/>
+      <c r="C26" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B27" s="10"/>
+      <c r="C27" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B28" s="10"/>
+      <c r="C28" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B29" s="10"/>
+      <c r="C29" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="15"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L2" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="11"/>
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="11"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4"/>
@@ -10234,7 +10911,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -10248,9 +10925,9 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -10264,7 +10941,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="11"/>
       <c r="B22" s="6" t="s">
         <v>1</v>
@@ -10288,16 +10965,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B23" s="10">
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -10305,7 +10982,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="15"/>
       <c r="C24" s="4"/>
       <c r="D24" s="8"/>
@@ -10316,7 +10993,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -10329,7 +11006,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
@@ -10345,7 +11022,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
@@ -10368,7 +11045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B28" s="10">
         <v>1</v>
       </c>
@@ -10384,7 +11061,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29" s="10">
         <v>2</v>
       </c>
@@ -10401,7 +11078,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B30" s="10">
         <v>3</v>
       </c>
@@ -10418,7 +11095,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="15"/>
       <c r="C31" s="14"/>
       <c r="D31" s="4"/>
@@ -10428,677 +11105,6 @@
       <c r="H31" s="14"/>
       <c r="I31" s="15"/>
       <c r="J31" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M2" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="10">
-        <v>2</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="5"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="22" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="10">
-        <v>2</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="10">
-        <v>3</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="15"/>
-      <c r="C27" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M2" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>145</v>
-      </c>
-      <c r="M13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-      <c r="M14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="10">
-        <v>2</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="10">
-        <v>3</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="11"/>
-      <c r="B21" s="15">
-        <v>4</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="10"/>
-      <c r="C26" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="10"/>
-      <c r="C27" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="10"/>
-      <c r="C28" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B29" s="10"/>
-      <c r="C29" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="15"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -11111,60 +11117,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="34"/>
+    <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="64"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
-      <c r="H2" s="35"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="22"/>
       <c r="J2" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="29"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
-      <c r="E3" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="34"/>
+      <c r="E3" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="64"/>
       <c r="G3" s="22"/>
       <c r="H3" s="26"/>
       <c r="I3" s="22"/>
       <c r="J3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="29"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -11175,11 +11181,11 @@
       <c r="H4" s="26"/>
       <c r="I4" s="22"/>
       <c r="J4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="29"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -11190,16 +11196,16 @@
       <c r="H5" s="26"/>
       <c r="I5" s="22"/>
       <c r="J5" t="s">
+        <v>246</v>
+      </c>
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="29"/>
+      <c r="B6" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="K5" s="22"/>
-    </row>
-    <row r="6" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="29"/>
-      <c r="B6" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -11207,11 +11213,11 @@
       <c r="H6" s="26"/>
       <c r="I6" s="22"/>
       <c r="J6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="29"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -11222,11 +11228,11 @@
       <c r="H7" s="26"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="29"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -11238,7 +11244,7 @@
       <c r="I8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="29"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -11249,11 +11255,11 @@
       <c r="H9" s="26"/>
       <c r="I9" s="22"/>
       <c r="J9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="29"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -11264,11 +11270,11 @@
       <c r="H10" s="26"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="29"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -11280,7 +11286,7 @@
       <c r="I11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="29"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -11293,7 +11299,7 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="29"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -11303,7 +11309,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="29"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -11313,7 +11319,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="29"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -11323,7 +11329,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="29"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -11336,38 +11342,38 @@
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="29"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="29"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="29"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -11377,7 +11383,7 @@
       <c r="G20" s="22"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="29"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -11387,7 +11393,7 @@
       <c r="G21" s="22"/>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="29"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -11397,7 +11403,7 @@
       <c r="G22" s="22"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="29"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -11407,7 +11413,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="29"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -11417,7 +11423,7 @@
       <c r="G24" s="22"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="29"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -11427,8 +11433,8 @@
       <c r="G25" s="22"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="40"/>
+    <row r="26" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="34"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -11437,9 +11443,9 @@
       <c r="G26" s="18"/>
       <c r="H26" s="17"/>
     </row>
-    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -11453,107 +11459,107 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="5"/>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44" t="s">
+      <c r="D30" s="37"/>
+      <c r="E30" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="42" t="s">
+      <c r="F30" s="39"/>
+      <c r="G30" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="46" t="s">
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K30" s="47" t="s">
+      <c r="K30" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="45" t="s">
+      <c r="L30" s="39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
-      <c r="B31" s="48">
+      <c r="B31" s="42">
         <v>1</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51" t="s">
+      <c r="F31" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="G31" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="G31" s="53" t="s">
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" s="11"/>
+      <c r="B32" s="49">
+        <v>2</v>
+      </c>
+      <c r="C32" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="11"/>
-      <c r="B32" s="55">
-        <v>2</v>
-      </c>
-      <c r="C32" s="56" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58" t="s">
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+    </row>
+    <row r="33" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="11"/>
+      <c r="B33" s="56">
+        <v>3</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="F33" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="F32" s="59" t="s">
-        <v>258</v>
-      </c>
-      <c r="G32" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-    </row>
-    <row r="33" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="11"/>
-      <c r="B33" s="62">
-        <v>3</v>
-      </c>
-      <c r="C33" s="63" t="s">
+      <c r="G33" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="F33" s="66" t="s">
-        <v>258</v>
-      </c>
-      <c r="G33" s="67" t="s">
-        <v>263</v>
-      </c>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-    </row>
-    <row r="35" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+    </row>
+    <row r="35" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -11569,7 +11575,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="6" t="s">
         <v>1</v>
       </c>
@@ -11592,27 +11598,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B37" s="10"/>
       <c r="C37" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="10"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" s="10"/>
       <c r="C38" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
@@ -11620,14 +11626,14 @@
       <c r="I38" s="10"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B39" s="10"/>
       <c r="C39" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="26"/>
@@ -11635,14 +11641,14 @@
       <c r="I39" s="10"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B40" s="10"/>
       <c r="C40" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="26"/>
@@ -11650,7 +11656,7 @@
       <c r="I40" s="10"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="15"/>
       <c r="C41" s="14"/>
       <c r="D41" s="8"/>
@@ -11684,42 +11690,42 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -11736,7 +11742,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>1</v>
@@ -11765,13 +11771,13 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
@@ -11781,7 +11787,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -11790,7 +11796,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -11805,9 +11811,9 @@
       <c r="L27" s="11"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -11822,7 +11828,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
         <v>1</v>
@@ -11850,13 +11856,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="5"/>
       <c r="B30" s="10">
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="11" t="s">
@@ -11866,7 +11872,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -11875,7 +11881,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -11889,7 +11895,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
@@ -11905,7 +11911,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="3"/>
       <c r="B33" s="6" t="s">
         <v>1</v>
@@ -11929,7 +11935,7 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B34" s="10">
         <v>1</v>
       </c>
@@ -11947,7 +11953,7 @@
       <c r="J34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="15">
         <v>2</v>
       </c>
@@ -11964,7 +11970,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="11"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -11978,15 +11984,15 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="11"/>
       <c r="B37" s="22"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="11"/>
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
     </row>
   </sheetData>
@@ -12005,41 +12011,41 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -12054,7 +12060,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>1</v>
@@ -12083,7 +12089,7 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>1</v>
@@ -12108,7 +12114,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -12121,7 +12127,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
@@ -12137,7 +12143,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
         <v>1</v>
@@ -12161,7 +12167,7 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="23">
         <v>1</v>
@@ -12180,7 +12186,7 @@
       <c r="J30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3"/>
       <c r="B31" s="15">
         <v>2</v>
@@ -12198,7 +12204,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -12223,55 +12229,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="M7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
         <v>34</v>
       </c>
@@ -12281,7 +12287,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
         <v>35</v>
       </c>
@@ -12293,9 +12299,9 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -12305,39 +12311,39 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -12354,7 +12360,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -12383,13 +12389,13 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
@@ -12408,13 +12414,13 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -12433,13 +12439,13 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="10">
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
@@ -12458,13 +12464,13 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="B28" s="10">
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
@@ -12483,13 +12489,13 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="10">
         <v>5</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="11" t="s">
@@ -12508,13 +12514,13 @@
       <c r="L29" s="5"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="10">
         <v>6</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="11" t="s">
@@ -12533,13 +12539,13 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="10">
         <v>7</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="11" t="s">
@@ -12558,13 +12564,13 @@
       <c r="L31" s="5"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
       <c r="B32" s="10">
         <v>8</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="11" t="s">
@@ -12574,7 +12580,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -12583,13 +12589,13 @@
       <c r="L32" s="5"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="3"/>
       <c r="B33" s="15">
         <v>9</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="14" t="s">
@@ -12599,7 +12605,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="8"/>
@@ -12607,10 +12613,10 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -12626,7 +12632,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="5"/>
       <c r="B36" s="6" t="s">
         <v>1</v>
@@ -12650,17 +12656,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="23">
         <v>1</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="26"/>
@@ -12668,7 +12674,7 @@
       <c r="I37" s="23"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="10">
         <v>2</v>
@@ -12687,7 +12693,7 @@
       <c r="J38" s="5"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="10">
         <v>3</v>
@@ -12707,7 +12713,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="15">
         <v>4</v>
       </c>
@@ -12737,39 +12743,39 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M7" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -12785,7 +12791,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -12814,13 +12820,13 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
@@ -12837,13 +12843,13 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="5"/>
       <c r="B26" s="15">
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="4" t="s">
@@ -12860,7 +12866,7 @@
       <c r="L26" s="8"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -12875,10 +12881,10 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
@@ -12894,7 +12900,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
         <v>1</v>
@@ -12919,17 +12925,17 @@
       </c>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="10">
         <v>1</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="26"/>
@@ -12937,7 +12943,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3"/>
       <c r="B32" s="15">
         <v>2</v>
@@ -12957,7 +12963,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M33" s="3"/>
     </row>
   </sheetData>
@@ -12976,66 +12982,66 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
         <v>25</v>
       </c>
@@ -13043,38 +13049,38 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M21" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -13090,7 +13096,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -13118,7 +13124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
@@ -13142,7 +13148,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
@@ -13167,7 +13173,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="10">
         <v>3</v>
@@ -13192,7 +13198,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="B28" s="10">
         <v>4</v>
@@ -13217,7 +13223,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="10">
         <v>5</v>
@@ -13242,7 +13248,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="10">
         <v>7</v>
@@ -13267,7 +13273,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3"/>
       <c r="B31" s="15">
         <v>9</v>
@@ -13292,10 +13298,10 @@
       <c r="L31" s="15"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
@@ -13312,7 +13318,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
         <v>1</v>
@@ -13337,7 +13343,7 @@
       </c>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="10">
         <v>1</v>
@@ -13355,7 +13361,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="10">
         <v>2</v>
@@ -13372,17 +13378,17 @@
       <c r="I36" s="10"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="10">
         <v>3</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="26"/>
@@ -13390,7 +13396,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="5"/>
       <c r="B38" s="15"/>
       <c r="C38" s="14"/>
@@ -13403,7 +13409,7 @@
       <c r="J38" s="8"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -13417,7 +13423,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M42" s="3"/>
     </row>
   </sheetData>
@@ -13436,51 +13442,51 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -13497,7 +13503,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -13526,13 +13532,13 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
@@ -13551,13 +13557,13 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -13576,13 +13582,13 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="10">
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
@@ -13601,7 +13607,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="10">
         <v>4</v>
@@ -13626,7 +13632,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="4"/>
@@ -13641,7 +13647,7 @@
       <c r="L29" s="8"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -13656,7 +13662,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
@@ -13673,7 +13679,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
         <v>1</v>
@@ -13697,7 +13703,7 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="23">
         <v>1</v>
@@ -13715,7 +13721,7 @@
       <c r="I34" s="12"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3"/>
       <c r="B35" s="15">
         <v>2</v>
@@ -13736,7 +13742,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -13757,46 +13763,46 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -13813,7 +13819,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -13842,13 +13848,13 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
@@ -13867,13 +13873,13 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -13892,7 +13898,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="10">
         <v>3</v>
@@ -13917,7 +13923,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="5"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
@@ -13932,7 +13938,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -13947,7 +13953,7 @@
       <c r="L29" s="25"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -13964,7 +13970,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
         <v>1</v>
@@ -13988,17 +13994,17 @@
       </c>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="10">
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="13"/>
@@ -14006,7 +14012,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="10">
         <v>2</v>
@@ -14024,7 +14030,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="10">
         <v>3</v>
@@ -14042,7 +14048,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="5"/>
       <c r="B36" s="15">
         <v>4</v>
@@ -14060,7 +14066,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -14087,61 +14093,61 @@
   <dimension ref="A2:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H4" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -14157,7 +14163,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -14185,7 +14191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="10">
         <v>1</v>
@@ -14209,7 +14215,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="5"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4"/>
@@ -14223,7 +14229,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -14237,9 +14243,9 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -14251,7 +14257,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>1</v>
@@ -14276,17 +14282,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="10">
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -14295,17 +14301,17 @@
       <c r="J23" s="10"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="10">
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -14314,17 +14320,17 @@
       <c r="J24" s="10"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>3</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -14333,17 +14339,17 @@
       <c r="J25" s="10"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>4</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -14352,17 +14358,17 @@
       <c r="J26" s="10"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="10">
         <v>5</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -14371,17 +14377,17 @@
       <c r="J27" s="10"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="10">
         <v>6</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -14390,7 +14396,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="4"/>
@@ -14403,7 +14409,7 @@
       <c r="J29" s="15"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -14417,7 +14423,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -14433,7 +14439,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="6" t="s">
         <v>1</v>
       </c>
@@ -14456,7 +14462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B33" s="10">
         <v>1</v>
       </c>
@@ -14473,7 +14479,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B34" s="10">
         <v>2</v>
       </c>
@@ -14490,7 +14496,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B35" s="10">
         <v>3</v>
       </c>
@@ -14507,7 +14513,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="15"/>
       <c r="C36" s="14"/>
       <c r="D36" s="4"/>
@@ -14518,7 +14524,7 @@
       <c r="I36" s="15"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="285">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -509,104 +509,6 @@
     </rPh>
     <rPh sb="44" eb="46">
       <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・BACKを選択していた場合、〇ボタンでSEと共に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>メニュー画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に戻る</t>
-    </r>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>トモ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・×ボタンを押す事で「戻る」が選択される。そのままもう一度×ボタンを押す事で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>メニュー画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に戻る</t>
-    </r>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1535,13 +1437,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モード切替のSE</t>
-    <rPh sb="3" eb="5">
-      <t>キリカエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゴール演出のBGM</t>
     <rPh sb="3" eb="5">
       <t>エンシュツ</t>
@@ -1656,32 +1551,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・L1で取得タイプの切り替え</t>
-    <rPh sb="4" eb="6">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・R1で軸の切り替え</t>
-    <rPh sb="4" eb="5">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・HPは１</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1699,38 +1568,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・L2を押す間は一人称視点</t>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>イチニンショウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・L2で構え、そのままR2を押す事で撃てる(レーザーポインター)</t>
-    <rPh sb="4" eb="5">
-      <t>カマ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・時間制限は180秒</t>
     <rPh sb="1" eb="3">
       <t>ジカン</t>
@@ -2191,19 +2028,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブロックと敵が衝突した時のSE</t>
-    <rPh sb="5" eb="6">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショウトツ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>◎Laser(レーザー)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2507,16 +2331,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーの身長はブロック1つ分</t>
-    <rPh sb="6" eb="8">
-      <t>シンチョウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Gun</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2621,10 +2435,6 @@
       <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -2814,6 +2624,635 @@
     </rPh>
     <rPh sb="41" eb="43">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・前の画面のBGMは止め、ステージセレクト用のBGMが流れる</t>
+    <rPh sb="1" eb="2">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ESC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリを閉じる選択肢</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Select_BGM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ステージセレクトのBGM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Tutorial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作説明へ進む選択肢</t>
+    <rPh sb="0" eb="4">
+      <t>ソウサセツメイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・レーザーポインターは銃の先端から直線状に放たれ、何かに遮られない限り射程に制限距離は無い</t>
+    <rPh sb="11" eb="12">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>チョクセンジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サエギ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シャテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・もし動かすと衝突し、ブロックが壊れて動かす前の場所に再生成される</t>
+    <rPh sb="3" eb="4">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>サイセイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ図</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチの仕様概要</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤー、ブロックが上面から接触している間、起動する</t>
+    <rPh sb="12" eb="14">
+      <t>ジョウメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・起動すると対応したブロックが動く</t>
+    <rPh sb="1" eb="3">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・ブロックは回転運動のみをおこなう</t>
+    <rPh sb="8" eb="10">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ装置</t>
+    <rPh sb="4" eb="6">
+      <t>ソウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・ブロックの回転速度と回転する値はそれぞれ個別に設定する</t>
+    <rPh sb="8" eb="10">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　・設定した値まで動く前にスイッチから離れた場合、その瞬間からスイッチを押す前の状態に戻る</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・接触した際、スイッチのボタン部分が下へ下がる</t>
+    <rPh sb="1" eb="3">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・回転途中で他のブロックとぶつかった場合、ぶつかった地点で停止する</t>
+    <rPh sb="1" eb="3">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチブロックが動く</t>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック又はプレイヤーが接触</t>
+    <rPh sb="4" eb="5">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CGリソースリスト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Switch_Button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXXxYY</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(?,?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ装置のボタン部分</t>
+    <rPh sb="4" eb="6">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Switch_Base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ装置の土台部分</t>
+    <rPh sb="4" eb="6">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SwitchBlock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチに連動して動くスイッチブロック</t>
+    <rPh sb="5" eb="7">
+      <t>レンドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Switch_SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチが押されたときのSE</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.Move_SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチブロックが動く時のSE</t>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.Stop_SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチブロックが停止したときのSE</t>
+    <rPh sb="9" eb="11">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.Hit_SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチブロックが他のブロックに衝突したときのSE</t>
+    <rPh sb="9" eb="10">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウトツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Lスティックで移動(同時にWalk_SEを再生)</t>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LaserMachine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(?,?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーザーの発射台</t>
+    <rPh sb="5" eb="7">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの身長はブロック(size 1,1,1)が２つ分程</t>
+    <rPh sb="6" eb="8">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ホド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青ブロックが別のオブジェクトと衝突した時のSE</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択する軸の切替SE</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キリカエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得モードの切替SE</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キリカエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Geting,Setingの切替SE</t>
+    <rPh sb="14" eb="16">
+      <t>キリカエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・解放されていないステージは左上の数字のみを表示し、モニターの映像は真っ暗</t>
+    <rPh sb="1" eb="3">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>クラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・モニターの左上に数字(ステージナンバー)を表示し、ステージの内装を一部モニターに表示する</t>
+    <rPh sb="6" eb="8">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ナイソウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yazirusi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(?,?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ESCを選択していた場合、〇ボタンでアプリを閉じる</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・L1で取得タイプの切り替え(SE付き)</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・R1で軸の切り替え(SE付き)</t>
+    <rPh sb="4" eb="5">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・L2でGetting,Setingの切り替え(SE付き)</t>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・R2を押す事で撃てる(レーザーポインター)(SE付き)</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2885,7 +3324,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>からフェードイン(明転)</t>
+      <t>からフェードイン(１～６ステージが表示されている)</t>
     </r>
     <rPh sb="9" eb="11">
       <t>ガメン</t>
@@ -2893,436 +3332,64 @@
     <rPh sb="15" eb="17">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="26" eb="28">
-      <t>メイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・前の画面のBGMは止め、ステージセレクト用のBGMが流れる</t>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・右矢印を選択したままLスティックを右の倒すと、カメラロールして次のステージが６つ表示される（ページ数をnとして、「６(n-1)+(1~6)」ステージが表示される）</t>
     <rPh sb="1" eb="2">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ESC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アプリを閉じる選択肢</t>
-    <rPh sb="4" eb="5">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="7" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２～４</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別のステージを表示する選択肢</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
       <t>センタクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Select_BGM</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ステージセレクトのBGM</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Tutorial</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>操作説明へ進む選択肢</t>
-    <rPh sb="0" eb="4">
-      <t>ソウサセツメイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>センタクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・レーザーポインターは銃の先端から直線状に放たれ、何かに遮られない限り射程に制限距離は無い</t>
-    <rPh sb="11" eb="12">
-      <t>ジュウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センタン</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>チョクセンジョウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>サエギ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>シャテイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・もし動かすと衝突し、ブロックが壊れて動かす前の場所に再生成される</t>
-    <rPh sb="3" eb="4">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショウトツ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>コワ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>サイセイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スイッチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イメージ図</t>
-    <rPh sb="4" eb="5">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スイッチの仕様概要</t>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スイッチブロック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・プレイヤー、ブロックが上面から接触している間、起動する</t>
-    <rPh sb="12" eb="14">
-      <t>ジョウメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・起動すると対応したブロックが動く</t>
-    <rPh sb="1" eb="3">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　・ブロックは回転運動のみをおこなう</t>
-    <rPh sb="8" eb="10">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ウンドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スイッチ装置</t>
-    <rPh sb="4" eb="6">
-      <t>ソウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　・ブロックの回転速度と回転する値はそれぞれ個別に設定する</t>
-    <rPh sb="8" eb="10">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　・設定した値まで動く前にスイッチから離れた場合、その瞬間からスイッチを押す前の状態に戻る</t>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シュンカン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・接触した際、スイッチのボタン部分が下へ下がる</t>
-    <rPh sb="1" eb="3">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・回転途中で他のブロックとぶつかった場合、ぶつかった地点で停止する</t>
-    <rPh sb="1" eb="3">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トチュウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>チテン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>テイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スイッチブロックが動く</t>
-    <rPh sb="9" eb="10">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロック又はプレイヤーが接触</t>
-    <rPh sb="4" eb="5">
-      <t>マタ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セッショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CGリソースリスト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Switch_Button</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XXXxYY</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(?,?)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スイッチ装置のボタン部分</t>
-    <rPh sb="4" eb="6">
-      <t>ソウチ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ブブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Switch_Base</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スイッチ装置の土台部分</t>
-    <rPh sb="4" eb="6">
-      <t>ソウチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SwitchBlock</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スイッチに連動して動くスイッチブロック</t>
-    <rPh sb="5" eb="7">
-      <t>レンドウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Switch_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スイッチが押されたときのSE</t>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S.Move_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スイッチブロックが動く時のSE</t>
-    <rPh sb="9" eb="10">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S.Stop_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スイッチブロックが停止したときのSE</t>
-    <rPh sb="9" eb="11">
-      <t>テイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S.Hit_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スイッチブロックが他のブロックに衝突したときのSE</t>
-    <rPh sb="9" eb="10">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショウトツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Lスティックで移動(同時にWalk_SEを再生)</t>
-    <rPh sb="8" eb="10">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3331,7 +3398,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3381,14 +3448,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3916,7 +3975,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
@@ -9128,10 +9187,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>ESC</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
@@ -9140,42 +9195,518 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="3" name="右矢印 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="847725" y="4257676"/>
-          <a:ext cx="1219200" cy="466724"/>
+          <a:off x="6772275" y="2352675"/>
+          <a:ext cx="723900" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="右矢印 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1657350" y="2390775"/>
+          <a:ext cx="723900" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9563100" y="4124325"/>
+          <a:ext cx="6924675" cy="4362450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="accent1">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>480857</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12725400" y="4295775"/>
+          <a:ext cx="2652557" cy="1695449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チュートリアル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージ１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9563100" y="8743950"/>
+          <a:ext cx="6924675" cy="4362450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410826" y="9182101"/>
+          <a:ext cx="1847850" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12439651" y="9182101"/>
+          <a:ext cx="1847850" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14439901" y="9182101"/>
+          <a:ext cx="1847850" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -9187,9 +9718,748 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>解放してないステージのモニターは、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>暗くして表示しない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096501" y="10715626"/>
+          <a:ext cx="1847850" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12125326" y="10715626"/>
+          <a:ext cx="1847850" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14125576" y="10715626"/>
+          <a:ext cx="1847850" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>499907</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13411200" y="6086475"/>
+          <a:ext cx="2652557" cy="1695449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チュートリアル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージ２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="右矢印 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15706725" y="7781925"/>
+          <a:ext cx="723900" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="右矢印 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9696450" y="7791450"/>
+          <a:ext cx="723900" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9829800" y="4848226"/>
+          <a:ext cx="1619250" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>操作説明</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9953625" y="4238625"/>
+          <a:ext cx="1619250" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ESC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9696450" y="5457826"/>
+          <a:ext cx="1619250" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クレジット</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="右矢印 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15687675" y="12372975"/>
+          <a:ext cx="723900" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="右矢印 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9677400" y="12382500"/>
+          <a:ext cx="723900" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9497,16 +10767,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27748</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83819</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>190548</xdr:rowOff>
+      <xdr:rowOff>205788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9515,8 +10785,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="556260" y="327660"/>
-          <a:ext cx="2987040" cy="2834688"/>
+          <a:off x="698308" y="1851660"/>
+          <a:ext cx="1397191" cy="1325928"/>
         </a:xfrm>
         <a:prstGeom prst="cube">
           <a:avLst>
@@ -9553,16 +10823,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>262112</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>155432</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>105410</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9571,7 +10841,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3614912" y="562610"/>
+          <a:off x="2167112" y="577850"/>
           <a:ext cx="873268" cy="2565400"/>
           <a:chOff x="3058652" y="189230"/>
           <a:chExt cx="873268" cy="2565400"/>
@@ -9826,6 +11096,62 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27748</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83819</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="直方体 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698308" y="609600"/>
+          <a:ext cx="1397191" cy="1325928"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10216"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10096,7 +11422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
@@ -10113,10 +11439,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M28"/>
+  <dimension ref="A2:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10128,67 +11454,67 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10207,7 +11533,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10244,7 +11570,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11" t="s">
@@ -10254,7 +11580,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -10268,7 +11594,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="11" t="s">
@@ -10278,7 +11604,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -10286,88 +11612,93 @@
       <c r="K19" s="10"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C22" s="3" t="s">
+      <c r="B20" s="10">
+        <v>3</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="6" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="16" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="6" t="s">
+      <c r="F24" s="16"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B25" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="28" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="22"/>
@@ -10379,14 +11710,14 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B26" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -10396,33 +11727,52 @@
       <c r="K26" s="10"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="15"/>
-      <c r="C27" s="14" t="s">
-        <v>189</v>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B27" s="10">
+        <v>3</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
+        <v>178</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="15"/>
+      <c r="C28" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -10436,8 +11786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10448,68 +11798,68 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10562,7 +11912,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
@@ -10572,7 +11922,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -10586,7 +11936,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="11" t="s">
@@ -10596,7 +11946,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -10610,7 +11960,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="13" t="s">
@@ -10620,7 +11970,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -10634,7 +11984,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="14" t="s">
@@ -10644,7 +11994,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -10694,75 +12044,85 @@
         <v>4</v>
       </c>
       <c r="F25" s="16"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="9" t="s">
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="K25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
       <c r="C26" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F26" s="11"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="5"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F27" s="11"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="5"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B28" s="10"/>
       <c r="C28" s="20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F28" s="11"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="5"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29" s="10"/>
       <c r="C29" s="13" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="F29" s="11"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="5"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="15"/>
@@ -10770,24 +12130,27 @@
       <c r="D30" s="4"/>
       <c r="E30" s="14"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="8"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L31"/>
+  <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10798,35 +12161,35 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>126</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L4" t="s">
-        <v>127</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L5" t="s">
-        <v>131</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
-        <v>130</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -10879,7 +12242,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
@@ -10889,7 +12252,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -10927,7 +12290,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -10970,11 +12333,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="11" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -11050,10 +12413,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="26"/>
@@ -11066,11 +12429,11 @@
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="26"/>
@@ -11083,11 +12446,11 @@
         <v>3</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="28" t="s">
-        <v>107</v>
+        <v>266</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="26"/>
@@ -11095,16 +12458,50 @@
       <c r="I30" s="10"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="15"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="8"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B31" s="10">
+        <v>3</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B32" s="10">
+        <v>3</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="15"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -11130,7 +12527,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="32" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
@@ -11138,7 +12535,7 @@
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="63" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="21"/>
@@ -11149,7 +12546,7 @@
       <c r="H2" s="33"/>
       <c r="I2" s="22"/>
       <c r="J2" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K2" s="22"/>
     </row>
@@ -11159,14 +12556,14 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="63" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F3" s="64"/>
       <c r="G3" s="22"/>
       <c r="H3" s="26"/>
       <c r="I3" s="22"/>
       <c r="J3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K3" s="22"/>
     </row>
@@ -11181,7 +12578,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="22"/>
       <c r="J4" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="K4" s="22"/>
     </row>
@@ -11196,14 +12593,14 @@
       <c r="H5" s="26"/>
       <c r="I5" s="22"/>
       <c r="J5" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="29"/>
       <c r="B6" s="63" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="22"/>
@@ -11213,7 +12610,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="22"/>
       <c r="J6" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="K6" s="22"/>
     </row>
@@ -11228,7 +12625,7 @@
       <c r="H7" s="26"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="K7" s="22"/>
     </row>
@@ -11255,7 +12652,7 @@
       <c r="H9" s="26"/>
       <c r="I9" s="22"/>
       <c r="J9" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="K9" s="22"/>
     </row>
@@ -11270,7 +12667,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="K10" s="22"/>
     </row>
@@ -11355,7 +12752,7 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="65" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="F18" s="66"/>
       <c r="G18" s="67"/>
@@ -11363,7 +12760,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="68" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
@@ -11445,7 +12842,7 @@
     </row>
     <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -11493,17 +12890,17 @@
         <v>1</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
@@ -11517,17 +12914,17 @@
         <v>2</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="52" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G32" s="54" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="55"/>
@@ -11541,17 +12938,17 @@
         <v>3</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="59" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
@@ -11601,11 +12998,11 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B37" s="10"/>
       <c r="C37" s="24" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="20" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="10"/>
@@ -11614,11 +13011,11 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" s="10"/>
       <c r="C38" s="13" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="20" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
@@ -11629,11 +13026,11 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B39" s="10"/>
       <c r="C39" s="28" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="22" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="26"/>
@@ -11644,11 +13041,11 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B40" s="10"/>
       <c r="C40" s="13" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="20" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="26"/>
@@ -11716,7 +13113,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -11777,7 +13174,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
@@ -11787,7 +13184,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -11813,7 +13210,7 @@
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -11862,7 +13259,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="11" t="s">
@@ -11872,7 +13269,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -11940,11 +13337,11 @@
         <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="13"/>
@@ -11958,11 +13355,11 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="14"/>
@@ -12032,7 +13429,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
@@ -12045,7 +13442,7 @@
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -12095,17 +13492,17 @@
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -12173,11 +13570,11 @@
         <v>1</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="24"/>
@@ -12192,11 +13589,11 @@
         <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="14"/>
@@ -12227,10 +13624,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12244,7 +13641,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -12254,12 +13651,12 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
@@ -12279,7 +13676,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -12289,7 +13686,7 @@
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>35</v>
+        <v>280</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -12301,7 +13698,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -12311,17 +13708,18 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="M14" s="1"/>
-    </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="M15" s="1"/>
+      <c r="M15" t="s">
+        <v>270</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="M16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -12335,13 +13733,17 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M22" s="3"/>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M19" s="1"/>
+      <c r="N19" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
@@ -12358,7 +13760,6 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
@@ -12395,17 +13796,17 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -12420,7 +13821,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -12445,7 +13846,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
@@ -12470,7 +13871,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
@@ -12495,7 +13896,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="11" t="s">
@@ -12505,7 +13906,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -12520,7 +13921,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="11" t="s">
@@ -12530,7 +13931,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -12545,7 +13946,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="11" t="s">
@@ -12555,7 +13956,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -12570,7 +13971,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="11" t="s">
@@ -12580,7 +13981,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -12589,146 +13990,164 @@
       <c r="L32" s="5"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="3"/>
-      <c r="B33" s="15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A33" s="11"/>
+      <c r="B33" s="10">
         <v>9</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="14" t="s">
+      <c r="C33" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="3"/>
+      <c r="B34" s="15">
+        <v>10</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="G34" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="16" t="s">
+      <c r="D37" s="7"/>
+      <c r="E37" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="9" t="s">
+      <c r="F37" s="16"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J37" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A37" s="5"/>
-      <c r="B37" s="23">
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A38" s="5"/>
+      <c r="B38" s="23">
         <v>1</v>
       </c>
-      <c r="C37" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A38" s="5"/>
-      <c r="B38" s="10">
+      <c r="C38" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A39" s="5"/>
+      <c r="B39" s="10">
         <v>2</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="5"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A39" s="3"/>
-      <c r="B39" s="10">
-        <v>3</v>
-      </c>
       <c r="C39" s="13" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="11" t="s">
-        <v>73</v>
+      <c r="E39" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="26"/>
       <c r="H39" s="13"/>
       <c r="I39" s="10"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="3"/>
       <c r="B40" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="17"/>
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
       <c r="J40" s="8"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="N40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M41" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12762,17 +14181,17 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -12826,11 +14245,11 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="11" t="s">
@@ -12849,7 +14268,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="4" t="s">
@@ -12857,7 +14276,7 @@
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -12931,11 +14350,11 @@
         <v>1</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="25" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="26"/>
@@ -12949,11 +14368,11 @@
         <v>2</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="17"/>
@@ -12979,7 +14398,7 @@
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12998,12 +14417,12 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
@@ -13013,27 +14432,27 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
@@ -13051,7 +14470,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -13130,17 +14549,17 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -13154,7 +14573,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -13164,7 +14583,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -13179,7 +14598,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
@@ -13189,7 +14608,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -13204,7 +14623,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
@@ -13214,7 +14633,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -13229,7 +14648,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="13" t="s">
@@ -13239,7 +14658,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -13254,7 +14673,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="13" t="s">
@@ -13264,7 +14683,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -13279,17 +14698,17 @@
         <v>9</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="8"/>
@@ -13349,11 +14768,11 @@
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="26"/>
@@ -13367,10 +14786,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
@@ -13384,11 +14803,11 @@
         <v>3</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="28" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="26"/>
@@ -13458,7 +14877,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
@@ -13473,7 +14892,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -13483,7 +14902,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13538,17 +14957,17 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -13563,17 +14982,17 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -13588,17 +15007,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -13613,17 +15032,17 @@
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -13709,11 +15128,11 @@
         <v>1</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="24"/>
@@ -13727,11 +15146,11 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="14"/>
@@ -13779,7 +15198,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
@@ -13789,17 +15208,17 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13854,17 +15273,17 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -13879,17 +15298,17 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -13904,17 +15323,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -14000,11 +15419,11 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="11" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="13"/>
@@ -14018,11 +15437,11 @@
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="13"/>
@@ -14036,11 +15455,11 @@
         <v>3</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="13"/>
@@ -14054,11 +15473,11 @@
         <v>4</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="14"/>
@@ -14092,8 +15511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14105,46 +15524,46 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H4" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="F5" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -14197,7 +15616,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11" t="s">
@@ -14207,7 +15626,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -14245,7 +15664,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -14288,11 +15707,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -14307,11 +15726,11 @@
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -14326,11 +15745,11 @@
         <v>3</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -14345,11 +15764,11 @@
         <v>4</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -14364,11 +15783,11 @@
         <v>5</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -14383,11 +15802,11 @@
         <v>6</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -14467,11 +15886,11 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="26"/>
@@ -14484,11 +15903,11 @@
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="26"/>
@@ -14501,11 +15920,11 @@
         <v>3</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="26"/>

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="282">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -1564,42 +1564,6 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・時間制限は180秒</t>
-    <rPh sb="1" eb="3">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Time_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>残り時間30秒で鳴る警告音</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ケイコクオン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -11454,67 +11418,67 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11533,7 +11497,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11580,7 +11544,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -11604,7 +11568,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -11618,17 +11582,17 @@
         <v>3</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -11694,11 +11658,11 @@
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="22"/>
@@ -11713,11 +11677,11 @@
         <v>2</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -11732,11 +11696,11 @@
         <v>3</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="22"/>
@@ -11749,11 +11713,11 @@
     <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="15"/>
       <c r="C28" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="28" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="18"/>
@@ -11786,7 +11750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -11798,68 +11762,68 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11922,7 +11886,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -11984,7 +11948,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="14" t="s">
@@ -11994,7 +11958,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -12064,7 +12028,7 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -12077,11 +12041,11 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="22"/>
@@ -12094,10 +12058,10 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B28" s="10"/>
       <c r="C28" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="22"/>
@@ -12110,11 +12074,11 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29" s="10"/>
       <c r="C29" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="22"/>
@@ -12166,30 +12130,30 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -12242,7 +12206,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
@@ -12252,7 +12216,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -12290,7 +12254,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -12333,11 +12297,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -12450,7 +12414,7 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="28" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="26"/>
@@ -12467,7 +12431,7 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="28" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="26"/>
@@ -12484,7 +12448,7 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="26"/>
@@ -12527,7 +12491,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
@@ -12535,7 +12499,7 @@
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="63" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="21"/>
@@ -12546,7 +12510,7 @@
       <c r="H2" s="33"/>
       <c r="I2" s="22"/>
       <c r="J2" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K2" s="22"/>
     </row>
@@ -12556,14 +12520,14 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="63" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F3" s="64"/>
       <c r="G3" s="22"/>
       <c r="H3" s="26"/>
       <c r="I3" s="22"/>
       <c r="J3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K3" s="22"/>
     </row>
@@ -12578,7 +12542,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="22"/>
       <c r="J4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K4" s="22"/>
     </row>
@@ -12593,14 +12557,14 @@
       <c r="H5" s="26"/>
       <c r="I5" s="22"/>
       <c r="J5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="29"/>
       <c r="B6" s="63" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="22"/>
@@ -12610,7 +12574,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="22"/>
       <c r="J6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K6" s="22"/>
     </row>
@@ -12625,7 +12589,7 @@
       <c r="H7" s="26"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K7" s="22"/>
     </row>
@@ -12652,7 +12616,7 @@
       <c r="H9" s="26"/>
       <c r="I9" s="22"/>
       <c r="J9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K9" s="22"/>
     </row>
@@ -12667,7 +12631,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K10" s="22"/>
     </row>
@@ -12752,7 +12716,7 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="65" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F18" s="66"/>
       <c r="G18" s="67"/>
@@ -12760,7 +12724,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="68" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
@@ -12842,7 +12806,7 @@
     </row>
     <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -12890,17 +12854,17 @@
         <v>1</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
@@ -12914,17 +12878,17 @@
         <v>2</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="52" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F32" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" s="54" t="s">
         <v>246</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>249</v>
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="55"/>
@@ -12938,17 +12902,17 @@
         <v>3</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="59" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
@@ -12998,11 +12962,11 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B37" s="10"/>
       <c r="C37" s="24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="10"/>
@@ -13011,11 +12975,11 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" s="10"/>
       <c r="C38" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
@@ -13026,11 +12990,11 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B39" s="10"/>
       <c r="C39" s="28" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="26"/>
@@ -13041,11 +13005,11 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B40" s="10"/>
       <c r="C40" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="20" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="26"/>
@@ -13113,7 +13077,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -13174,7 +13138,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
@@ -13184,7 +13148,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -13210,7 +13174,7 @@
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -13259,7 +13223,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="11" t="s">
@@ -13269,7 +13233,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -13429,7 +13393,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
@@ -13442,7 +13406,7 @@
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -13626,8 +13590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13641,7 +13605,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -13651,12 +13615,12 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
@@ -13676,7 +13640,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -13686,7 +13650,7 @@
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -13698,7 +13662,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -13710,7 +13674,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -13718,7 +13682,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M16" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -13742,7 +13706,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M19" s="1"/>
       <c r="N19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13796,7 +13760,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
@@ -13821,7 +13785,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -13846,7 +13810,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
@@ -13871,7 +13835,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
@@ -13896,7 +13860,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="11" t="s">
@@ -13921,7 +13885,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="11" t="s">
@@ -13946,7 +13910,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="11" t="s">
@@ -13971,7 +13935,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="11" t="s">
@@ -13981,7 +13945,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -13996,17 +13960,17 @@
         <v>9</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -14021,7 +13985,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="14" t="s">
@@ -14031,7 +13995,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="8"/>
@@ -14090,11 +14054,11 @@
         <v>1</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="26"/>
@@ -14120,7 +14084,7 @@
       <c r="I39" s="10"/>
       <c r="J39" s="5"/>
       <c r="N39" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -14143,7 +14107,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="N40" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
@@ -14161,8 +14125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14181,17 +14145,17 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -14245,7 +14209,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
@@ -14268,7 +14232,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="4" t="s">
@@ -14350,11 +14314,11 @@
         <v>1</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="26"/>
@@ -14395,10 +14359,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14469,9 +14433,6 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M16" t="s">
-        <v>125</v>
-      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -14797,53 +14758,35 @@
       <c r="I36" s="10"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="5"/>
-      <c r="B37" s="10">
-        <v>3</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="5"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="8"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M42" s="3"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="8"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M41" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -14957,7 +14900,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
@@ -14982,7 +14925,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -15007,7 +14950,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
@@ -15273,7 +15216,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
@@ -15298,7 +15241,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -15419,11 +15362,11 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="13"/>
@@ -15529,7 +15472,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -15541,7 +15484,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F5" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -15563,7 +15506,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15664,7 +15607,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -15707,11 +15650,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -15726,11 +15669,11 @@
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -15745,11 +15688,11 @@
         <v>3</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -15764,11 +15707,11 @@
         <v>4</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -15783,11 +15726,11 @@
         <v>5</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -15802,11 +15745,11 @@
         <v>6</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -9,22 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
     <sheet name="タイトル" sheetId="31" r:id="rId2"/>
     <sheet name="デモムービー" sheetId="32" r:id="rId3"/>
     <sheet name="ステージセレクト画面" sheetId="27" r:id="rId4"/>
-    <sheet name="操作説明画面" sheetId="19" r:id="rId5"/>
-    <sheet name="プレイ画面" sheetId="33" r:id="rId6"/>
-    <sheet name="ポーズ画面" sheetId="35" r:id="rId7"/>
-    <sheet name="クリア画面" sheetId="3" r:id="rId8"/>
-    <sheet name="プレイヤー" sheetId="36" r:id="rId9"/>
-    <sheet name="障害物" sheetId="40" r:id="rId10"/>
-    <sheet name="ブロック" sheetId="39" r:id="rId11"/>
-    <sheet name="銃" sheetId="41" r:id="rId12"/>
-    <sheet name="スイッチ " sheetId="43" r:id="rId13"/>
+    <sheet name="プレイ画面" sheetId="33" r:id="rId5"/>
+    <sheet name="ポーズ画面" sheetId="35" r:id="rId6"/>
+    <sheet name="クリア画面" sheetId="3" r:id="rId7"/>
+    <sheet name="プレイヤー" sheetId="36" r:id="rId8"/>
+    <sheet name="障害物" sheetId="40" r:id="rId9"/>
+    <sheet name="ブロック" sheetId="39" r:id="rId10"/>
+    <sheet name="銃" sheetId="41" r:id="rId11"/>
+    <sheet name="スイッチ " sheetId="43" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="273">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -103,10 +102,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>XXXxYY (?,?)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>サウンドリソースリスト(フリー素材使用)</t>
     <rPh sb="15" eb="17">
       <t>ソザイ</t>
@@ -160,19 +155,6 @@
     <t>ステージ３への選択肢</t>
     <rPh sb="7" eb="10">
       <t>センタクシ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>操作説明画面</t>
-    <rPh sb="0" eb="2">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1150,24 +1132,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>XXXxYY (?,?)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>戻るを意味するロゴ</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イミ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>input_SE４</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>(?,?)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2362,14 +2326,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Back</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Motion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Title</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2399,117 +2355,6 @@
       <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ステージセレクト画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>からフェードイン(明転)</t>
-    </r>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>メイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・BGMは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ステージセレクト画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>から引き継ぎ、そのまま繰り返す</t>
-    </r>
-    <rPh sb="26" eb="27">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・×ボタンを押す事で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ステージセレクト画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に切り替わる</t>
-    </r>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -3354,6 +3199,31 @@
     </rPh>
     <rPh sb="11" eb="14">
       <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(クリア演出の流れは「扉を潜る」→「ワープ装置に乗る」→「ワープする(ホワイトアウト)」→「クリア画面へ」)</t>
+    <rPh sb="4" eb="6">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クグ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6594,515 +6464,6 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="3657600" y="177800"/>
-          <a:ext cx="812800" cy="812800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="円柱 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4019550" y="723900"/>
-          <a:ext cx="120650" cy="2508250"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 123438"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>334241</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123191</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>543528</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>8891</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1675361" y="1951991"/>
-          <a:ext cx="209287" cy="1028700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571433</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123191</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>110160</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>8891</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1912553" y="1951991"/>
-          <a:ext cx="209287" cy="1028700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>199390</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>299359</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>99059</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1409700" y="885190"/>
-          <a:ext cx="230779" cy="1042669"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>320288</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>205741</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>117136</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>91441</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1661408" y="891541"/>
-          <a:ext cx="467408" cy="1028700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285407</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>186691</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>117136</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>186691</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="楕円 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1626527" y="415291"/>
-          <a:ext cx="502289" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>367939</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>97789</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2148840" y="883920"/>
-          <a:ext cx="230779" cy="1042669"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -7885,7 +7246,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8251,7 +7612,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10096,75 +9457,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9829800" y="4848226"/>
-          <a:ext cx="1619250" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>操作説明</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -10239,15 +9531,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10256,7 +9548,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9696450" y="5457826"/>
+          <a:off x="9715500" y="4886326"/>
           <a:ext cx="1619250" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10449,7 +9741,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10508,7 +9800,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10519,6 +9811,65 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1874520" y="1303020"/>
+          <a:ext cx="4518660" cy="2636520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -10606,128 +9957,10 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1874520" y="1303020"/>
-          <a:ext cx="4518660" cy="2636520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="457200"/>
-          <a:ext cx="6926580" cy="4328160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11121,6 +10354,515 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3657600" y="177800"/>
+          <a:ext cx="812800" cy="812800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="円柱 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="723900"/>
+          <a:ext cx="120650" cy="2508250"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 123438"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>334241</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>543528</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8891</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1675361" y="1951991"/>
+          <a:ext cx="209287" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571433</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>110160</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8891</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1912553" y="1951991"/>
+          <a:ext cx="209287" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>199390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>299359</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="885190"/>
+          <a:ext cx="230779" cy="1042669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320288</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>205741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>117136</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1661408" y="891541"/>
+          <a:ext cx="467408" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285407</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>186691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>117136</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>186691</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1626527" y="415291"/>
+          <a:ext cx="502289" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>367939</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>97789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2148840" y="883920"/>
+          <a:ext cx="230779" cy="1042669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -11403,82 +11145,82 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M29"/>
+  <dimension ref="A2:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="12.19921875" customWidth="1"/>
     <col min="8" max="8" width="10.8984375" customWidth="1"/>
     <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M4" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>170</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M11" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M12" t="s">
-        <v>162</v>
+      <c r="B12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
       <c r="M13" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
       <c r="M14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M15" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11496,28 +11238,25 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="9" t="s">
         <v>5</v>
       </c>
@@ -11533,18 +11272,18 @@
       <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="12"/>
+      <c r="C18" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>152</v>
+        <v>9</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -11557,18 +11296,18 @@
       <c r="B19" s="10">
         <v>2</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>88</v>
+      <c r="C19" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>164</v>
+        <v>9</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -11581,18 +11320,18 @@
       <c r="B20" s="10">
         <v>3</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>258</v>
+      <c r="C20" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="20" t="s">
-        <v>12</v>
+      <c r="E20" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>260</v>
+        <v>9</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -11601,364 +11340,22 @@
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="23" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
-        <v>2</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B27" s="10">
-        <v>3</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="15"/>
-      <c r="C28" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M2" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>135</v>
-      </c>
-      <c r="M14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="5"/>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="5"/>
-      <c r="B19" s="10">
-        <v>2</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="5"/>
-      <c r="B20" s="10">
-        <v>3</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="11"/>
       <c r="B21" s="15">
         <v>4</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -11982,7 +11379,7 @@
     </row>
     <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -12024,11 +11421,11 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
       <c r="C26" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -12041,11 +11438,11 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="22"/>
@@ -12058,10 +11455,10 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B28" s="10"/>
       <c r="C28" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="22"/>
@@ -12074,11 +11471,11 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29" s="10"/>
       <c r="C29" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="22"/>
@@ -12109,7 +11506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L33"/>
   <sheetViews>
@@ -12125,35 +11522,35 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L5" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -12206,17 +11603,17 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="G18" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -12254,7 +11651,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -12297,11 +11694,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -12335,7 +11732,7 @@
     </row>
     <row r="26" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -12377,10 +11774,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="26"/>
@@ -12393,11 +11790,11 @@
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="26"/>
@@ -12410,11 +11807,11 @@
         <v>3</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="28" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="26"/>
@@ -12427,11 +11824,11 @@
         <v>3</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="28" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="26"/>
@@ -12444,11 +11841,11 @@
         <v>3</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="28" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="26"/>
@@ -12474,7 +11871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
@@ -12491,7 +11888,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="32" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
@@ -12499,7 +11896,7 @@
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="63" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="21"/>
@@ -12510,7 +11907,7 @@
       <c r="H2" s="33"/>
       <c r="I2" s="22"/>
       <c r="J2" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="K2" s="22"/>
     </row>
@@ -12520,14 +11917,14 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="63" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F3" s="64"/>
       <c r="G3" s="22"/>
       <c r="H3" s="26"/>
       <c r="I3" s="22"/>
       <c r="J3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="K3" s="22"/>
     </row>
@@ -12542,7 +11939,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="22"/>
       <c r="J4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="K4" s="22"/>
     </row>
@@ -12557,14 +11954,14 @@
       <c r="H5" s="26"/>
       <c r="I5" s="22"/>
       <c r="J5" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="29"/>
       <c r="B6" s="63" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="22"/>
@@ -12574,7 +11971,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="22"/>
       <c r="J6" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="K6" s="22"/>
     </row>
@@ -12589,7 +11986,7 @@
       <c r="H7" s="26"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="K7" s="22"/>
     </row>
@@ -12616,7 +12013,7 @@
       <c r="H9" s="26"/>
       <c r="I9" s="22"/>
       <c r="J9" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="K9" s="22"/>
     </row>
@@ -12631,7 +12028,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="K10" s="22"/>
     </row>
@@ -12716,7 +12113,7 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="65" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F18" s="66"/>
       <c r="G18" s="67"/>
@@ -12724,7 +12121,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="68" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
@@ -12806,7 +12203,7 @@
     </row>
     <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -12854,17 +12251,17 @@
         <v>1</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
@@ -12878,17 +12275,17 @@
         <v>2</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="52" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G32" s="54" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="55"/>
@@ -12902,17 +12299,17 @@
         <v>3</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="59" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
@@ -12922,7 +12319,7 @@
     </row>
     <row r="35" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -12962,11 +12359,11 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B37" s="10"/>
       <c r="C37" s="24" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="20" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="10"/>
@@ -12975,11 +12372,11 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" s="10"/>
       <c r="C38" s="13" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="20" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
@@ -12990,11 +12387,11 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B39" s="10"/>
       <c r="C39" s="28" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="22" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="26"/>
@@ -13005,11 +12402,11 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B40" s="10"/>
       <c r="C40" s="13" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="20" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="26"/>
@@ -13062,22 +12459,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -13138,17 +12535,17 @@
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -13174,7 +12571,7 @@
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -13223,17 +12620,17 @@
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -13258,7 +12655,7 @@
     </row>
     <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="3"/>
@@ -13301,11 +12698,11 @@
         <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="13"/>
@@ -13319,11 +12716,11 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="14"/>
@@ -13383,22 +12780,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
@@ -13406,7 +12803,7 @@
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -13456,17 +12853,17 @@
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -13490,7 +12887,7 @@
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -13534,11 +12931,11 @@
         <v>1</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="24"/>
@@ -13553,11 +12950,11 @@
         <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="14"/>
@@ -13590,8 +12987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13605,42 +13002,42 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -13650,7 +13047,7 @@
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -13662,7 +13059,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -13674,7 +13071,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -13682,7 +13079,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M16" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -13706,7 +13103,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M19" s="1"/>
       <c r="N19" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13760,17 +13157,17 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -13785,17 +13182,17 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -13810,17 +13207,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -13835,17 +13232,17 @@
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -13860,17 +13257,17 @@
         <v>5</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -13885,17 +13282,17 @@
         <v>6</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -13910,17 +13307,17 @@
         <v>7</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -13935,17 +13332,17 @@
         <v>8</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -13960,17 +13357,17 @@
         <v>9</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -13985,17 +13382,17 @@
         <v>10</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="8"/>
@@ -14009,7 +13406,7 @@
     </row>
     <row r="36" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -14054,11 +13451,11 @@
         <v>1</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="25" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="26"/>
@@ -14072,11 +13469,11 @@
         <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="26"/>
@@ -14084,7 +13481,7 @@
       <c r="I39" s="10"/>
       <c r="J39" s="5"/>
       <c r="N39" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -14093,11 +13490,11 @@
         <v>3</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="17"/>
@@ -14107,7 +13504,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="N40" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
@@ -14123,10 +13520,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14135,30 +13532,99 @@
     <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M17" t="s">
+        <v>272</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M21" s="1"/>
+    </row>
+    <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -14174,7 +13640,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -14201,332 +13667,30 @@
       <c r="L24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="G25" s="11" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="13"/>
       <c r="K25" s="10"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="5"/>
-      <c r="B26" s="15">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A31" s="5"/>
-      <c r="B31" s="10">
-        <v>1</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="3"/>
-      <c r="B32" s="15">
-        <v>2</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.45">
-      <c r="M33" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A1" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M21" s="1"/>
-    </row>
-    <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A25" s="5"/>
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
@@ -14534,17 +13698,17 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -14559,17 +13723,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -14584,17 +13748,17 @@
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -14609,17 +13773,17 @@
         <v>5</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -14634,17 +13798,17 @@
         <v>7</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -14659,17 +13823,17 @@
         <v>9</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="8"/>
@@ -14683,7 +13847,7 @@
     </row>
     <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -14729,11 +13893,11 @@
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="26"/>
@@ -14747,10 +13911,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
@@ -14796,7 +13960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
@@ -14815,37 +13979,37 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -14900,17 +14064,17 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -14925,17 +14089,17 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -14950,17 +14114,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -14975,17 +14139,17 @@
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -15026,7 +14190,7 @@
     </row>
     <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -15071,11 +14235,11 @@
         <v>1</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="31" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="24"/>
@@ -15089,11 +14253,11 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="14"/>
@@ -15117,7 +14281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
@@ -15136,32 +14300,32 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15216,17 +14380,17 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -15241,17 +14405,17 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -15266,17 +14430,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -15317,7 +14481,7 @@
     </row>
     <row r="31" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -15362,11 +14526,11 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="13"/>
@@ -15380,11 +14544,11 @@
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="13"/>
@@ -15398,11 +14562,11 @@
         <v>3</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="13"/>
@@ -15416,11 +14580,11 @@
         <v>4</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="14"/>
@@ -15450,7 +14614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L37"/>
   <sheetViews>
@@ -15467,46 +14631,46 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F5" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15559,17 +14723,17 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="G18" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -15607,7 +14771,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -15650,11 +14814,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -15669,11 +14833,11 @@
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -15688,11 +14852,11 @@
         <v>3</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -15707,11 +14871,11 @@
         <v>4</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -15726,11 +14890,11 @@
         <v>5</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -15745,11 +14909,11 @@
         <v>6</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -15787,7 +14951,7 @@
     </row>
     <row r="31" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -15829,11 +14993,11 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="26"/>
@@ -15846,11 +15010,11 @@
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="28" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="26"/>
@@ -15863,11 +15027,11 @@
         <v>3</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="29" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="26"/>
@@ -15902,4 +15066,349 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="7" width="12.19921875" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M2" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="5"/>
+      <c r="B20" s="10">
+        <v>3</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
+        <v>2</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B27" s="10">
+        <v>3</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="15"/>
+      <c r="C28" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G017A1326\Documents\team06\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk9hs\Desktop\team06\team06\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -2986,10 +2986,6 @@
     <rPh sb="41" eb="43">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3224,6 +3220,25 @@
     </rPh>
     <rPh sb="49" eb="51">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステージ選択時、選択したステージ画面へズームしながらフェードインし、そのステージへと遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9721,6 +9736,1233 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>83343</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>369094</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12013406" y="14918531"/>
+          <a:ext cx="2357438" cy="631031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>92868</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>378619</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>45244</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12022931" y="18523744"/>
+          <a:ext cx="2357438" cy="631031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>467915</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>15481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>408384</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>229794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="14297025" y="16654465"/>
+          <a:ext cx="2357438" cy="631031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>632221</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>60727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>572689</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>36915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9627393" y="16699711"/>
+          <a:ext cx="2357438" cy="631031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="台形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="12953999" y="16502061"/>
+          <a:ext cx="547688" cy="345281"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 56034"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13037344" y="16847344"/>
+          <a:ext cx="440531" cy="869156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="994183" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12727781" y="15037594"/>
+          <a:ext cx="994183" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>ページ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>688180</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1107996" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12618243" y="18642807"/>
+          <a:ext cx="1107996" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>ページ３</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>519111</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="415498" cy="1532920"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15211424" y="16342520"/>
+          <a:ext cx="415498" cy="1532920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>ペ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>  l</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>ジ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>２</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>40479</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>219078</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="415498" cy="1532920"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10589417" y="16232984"/>
+          <a:ext cx="415498" cy="1532920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>ペ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>  l</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>ジ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>４</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466722</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>50010</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="364202" cy="993734"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13087347" y="16778291"/>
+          <a:ext cx="364202" cy="993734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>カ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>メ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>ラ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="円弧 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13382625" y="14966156"/>
+          <a:ext cx="2190750" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 20540993"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="82550">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>69055</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>92868</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>140494</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="円弧 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6230113">
+          <a:off x="13332618" y="16868775"/>
+          <a:ext cx="2190750" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 20540993"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="82550">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>197641</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>221454</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="円弧 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="17400457">
+          <a:off x="10698954" y="15128082"/>
+          <a:ext cx="2190750" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 20540993"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="82550">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>290508</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>207170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>409571</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>159545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="円弧 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="11021480">
+          <a:off x="10839446" y="16935451"/>
+          <a:ext cx="2190750" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 20540993"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="82550">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>283368</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>188119</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="649537" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14975681" y="14773275"/>
+          <a:ext cx="649537" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>90</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>度</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>269081</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="649537" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14899481" y="18107025"/>
+          <a:ext cx="649537" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>90</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>度</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>116681</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="649537" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10632281" y="18126075"/>
+          <a:ext cx="649537" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>90</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>度</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2381</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="649537" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10517981" y="14525625"/>
+          <a:ext cx="649537" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>90</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>度</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9661071" y="14423571"/>
+          <a:ext cx="7007679" cy="5878286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>612321</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9647464" y="14423572"/>
+          <a:ext cx="2081893" cy="449036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>レイアウトイメージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11132,9 +12374,9 @@
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
@@ -11151,63 +12393,63 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M2" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M11" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>129</v>
       </c>
@@ -11215,7 +12457,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>130</v>
       </c>
@@ -11223,7 +12465,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -11239,7 +12481,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -11267,7 +12509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="10">
         <v>1</v>
@@ -11291,7 +12533,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="10">
         <v>2</v>
@@ -11315,7 +12557,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="10">
         <v>3</v>
@@ -11339,7 +12581,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="B21" s="15">
         <v>4</v>
@@ -11363,7 +12605,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -11377,7 +12619,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
     </row>
-    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -11393,7 +12635,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
         <v>1</v>
       </c>
@@ -11418,7 +12660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B26" s="10"/>
       <c r="C26" s="13" t="s">
         <v>95</v>
@@ -11435,7 +12677,7 @@
       <c r="K26" s="10"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
         <v>151</v>
@@ -11452,7 +12694,7 @@
       <c r="K27" s="10"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B28" s="10"/>
       <c r="C28" s="20" t="s">
         <v>152</v>
@@ -11468,7 +12710,7 @@
       <c r="K28" s="10"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
       <c r="C29" s="13" t="s">
         <v>153</v>
@@ -11485,7 +12727,7 @@
       <c r="K29" s="10"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="15"/>
       <c r="C30" s="14"/>
       <c r="D30" s="4"/>
@@ -11514,46 +12756,46 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E5" t="s">
         <v>121</v>
       </c>
       <c r="L5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="L6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -11569,7 +12811,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -11597,7 +12839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="10">
         <v>1</v>
@@ -11621,7 +12863,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4"/>
@@ -11635,7 +12877,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -11649,7 +12891,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>131</v>
       </c>
@@ -11665,7 +12907,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="6" t="s">
         <v>1</v>
@@ -11689,7 +12931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <v>1</v>
       </c>
@@ -11706,7 +12948,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="15"/>
       <c r="C24" s="4"/>
       <c r="D24" s="8"/>
@@ -11717,7 +12959,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -11730,7 +12972,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -11746,7 +12988,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
@@ -11769,7 +13011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B28" s="10">
         <v>1</v>
       </c>
@@ -11785,7 +13027,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B29" s="10">
         <v>2</v>
       </c>
@@ -11802,7 +13044,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B30" s="10">
         <v>3</v>
       </c>
@@ -11819,7 +13061,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B31" s="10">
         <v>3</v>
       </c>
@@ -11836,7 +13078,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B32" s="10">
         <v>3</v>
       </c>
@@ -11853,7 +13095,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="15"/>
       <c r="C33" s="14"/>
       <c r="D33" s="4"/>
@@ -11879,14 +13121,14 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
         <v>216</v>
       </c>
@@ -11894,7 +13136,7 @@
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="63" t="s">
         <v>217</v>
       </c>
@@ -11911,7 +13153,7 @@
       </c>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="29"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -11928,7 +13170,7 @@
       </c>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="29"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -11943,7 +13185,7 @@
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="29"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -11958,7 +13200,7 @@
       </c>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="29"/>
       <c r="B6" s="63" t="s">
         <v>223</v>
@@ -11975,7 +13217,7 @@
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="29"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -11990,7 +13232,7 @@
       </c>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="29"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -12002,7 +13244,7 @@
       <c r="I8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="29"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -12017,7 +13259,7 @@
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="29"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -12032,7 +13274,7 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="29"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -12044,7 +13286,7 @@
       <c r="I11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="29"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -12057,7 +13299,7 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="29"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -12067,7 +13309,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="29"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -12077,7 +13319,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="29"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -12087,7 +13329,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="29"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -12100,14 +13342,14 @@
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="29"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="29"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -12119,7 +13361,7 @@
       <c r="G18" s="67"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="68" t="s">
         <v>229</v>
       </c>
@@ -12131,7 +13373,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="29"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -12141,7 +13383,7 @@
       <c r="G20" s="22"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="29"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -12151,7 +13393,7 @@
       <c r="G21" s="22"/>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="29"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -12161,7 +13403,7 @@
       <c r="G22" s="22"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="29"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -12171,7 +13413,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="29"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -12181,7 +13423,7 @@
       <c r="G24" s="22"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="29"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -12191,7 +13433,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="34"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -12201,7 +13443,7 @@
       <c r="G26" s="18"/>
       <c r="H26" s="17"/>
     </row>
-    <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>230</v>
       </c>
@@ -12217,7 +13459,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="35" t="s">
         <v>1</v>
@@ -12245,7 +13487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="42">
         <v>1</v>
@@ -12269,7 +13511,7 @@
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="49">
         <v>2</v>
@@ -12293,7 +13535,7 @@
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
     </row>
-    <row r="33" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="11"/>
       <c r="B33" s="56">
         <v>3</v>
@@ -12317,7 +13559,7 @@
       <c r="K33" s="56"/>
       <c r="L33" s="56"/>
     </row>
-    <row r="35" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -12333,7 +13575,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B36" s="6" t="s">
         <v>1</v>
       </c>
@@ -12356,7 +13598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B37" s="10"/>
       <c r="C37" s="24" t="s">
         <v>239</v>
@@ -12369,7 +13611,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B38" s="10"/>
       <c r="C38" s="13" t="s">
         <v>241</v>
@@ -12384,7 +13626,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B39" s="10"/>
       <c r="C39" s="28" t="s">
         <v>243</v>
@@ -12399,7 +13641,7 @@
       <c r="I39" s="10"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B40" s="10"/>
       <c r="C40" s="13" t="s">
         <v>245</v>
@@ -12414,7 +13656,7 @@
       <c r="I40" s="10"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="15"/>
       <c r="C41" s="14"/>
       <c r="D41" s="8"/>
@@ -12448,42 +13690,42 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -12500,7 +13742,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>1</v>
@@ -12529,7 +13771,7 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>1</v>
@@ -12554,7 +13796,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -12569,7 +13811,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>202</v>
       </c>
@@ -12586,7 +13828,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
         <v>1</v>
@@ -12614,7 +13856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="10">
         <v>1</v>
@@ -12639,7 +13881,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -12653,7 +13895,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
     </row>
-    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -12669,7 +13911,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="6" t="s">
         <v>1</v>
@@ -12693,7 +13935,7 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B34" s="10">
         <v>1</v>
       </c>
@@ -12711,7 +13953,7 @@
       <c r="J34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="15">
         <v>2</v>
       </c>
@@ -12728,7 +13970,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="11"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -12742,15 +13984,15 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="11"/>
       <c r="B37" s="22"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="11"/>
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
     </row>
   </sheetData>
@@ -12769,39 +14011,39 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>200</v>
       </c>
@@ -12818,7 +14060,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>1</v>
@@ -12847,7 +14089,7 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>1</v>
@@ -12872,7 +14114,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -12885,7 +14127,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -12901,7 +14143,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
         <v>1</v>
@@ -12925,7 +14167,7 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="23">
         <v>1</v>
@@ -12944,7 +14186,7 @@
       <c r="J30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="15">
         <v>2</v>
@@ -12962,7 +14204,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -12987,57 +14229,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -13045,9 +14287,9 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -13057,9 +14299,9 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M13" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -13069,7 +14311,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M15" t="s">
         <v>257</v>
       </c>
@@ -13077,7 +14319,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M16" s="1" t="s">
         <v>256</v>
       </c>
@@ -13086,27 +14328,27 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M19" s="1"/>
       <c r="N19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -13122,7 +14364,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -13151,7 +14393,7 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
@@ -13176,7 +14418,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
@@ -13201,7 +14443,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="10">
         <v>3</v>
@@ -13226,7 +14468,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="10">
         <v>4</v>
@@ -13251,7 +14493,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="10">
         <v>5</v>
@@ -13276,7 +14518,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="10">
         <v>6</v>
@@ -13301,7 +14543,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="10">
         <v>7</v>
@@ -13326,7 +14568,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="10">
         <v>8</v>
@@ -13351,23 +14593,23 @@
       <c r="L32" s="5"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="11"/>
       <c r="B33" s="10">
         <v>9</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -13376,7 +14618,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="15">
         <v>10</v>
@@ -13401,10 +14643,10 @@
       <c r="L34" s="15"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -13420,7 +14662,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="6" t="s">
         <v>1</v>
@@ -13445,7 +14687,7 @@
       </c>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="23">
         <v>1</v>
@@ -13463,7 +14705,7 @@
       <c r="I38" s="23"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="10">
         <v>2</v>
@@ -13481,10 +14723,10 @@
       <c r="I39" s="10"/>
       <c r="J39" s="5"/>
       <c r="N39" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="15">
         <v>3</v>
@@ -13504,10 +14746,10 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="N40" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="M41" s="3"/>
     </row>
   </sheetData>
@@ -13522,70 +14764,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M15" t="s">
         <v>23</v>
       </c>
@@ -13593,38 +14835,38 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M21" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -13640,7 +14882,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -13668,7 +14910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
@@ -13692,7 +14934,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
@@ -13717,7 +14959,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="10">
         <v>3</v>
@@ -13742,7 +14984,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="10">
         <v>4</v>
@@ -13767,7 +15009,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="10">
         <v>5</v>
@@ -13792,7 +15034,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="10">
         <v>7</v>
@@ -13817,7 +15059,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="15">
         <v>9</v>
@@ -13842,10 +15084,10 @@
       <c r="L31" s="15"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -13862,7 +15104,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
         <v>1</v>
@@ -13887,7 +15129,7 @@
       </c>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="10">
         <v>1</v>
@@ -13905,7 +15147,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
       <c r="B36" s="10">
         <v>2</v>
@@ -13922,7 +15164,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="15"/>
       <c r="C37" s="14"/>
@@ -13935,7 +15177,7 @@
       <c r="J37" s="8"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -13949,7 +15191,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M41" s="3"/>
     </row>
   </sheetData>
@@ -13968,51 +15210,51 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -14029,7 +15271,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -14058,7 +15300,7 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
@@ -14083,7 +15325,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
@@ -14108,7 +15350,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="10">
         <v>3</v>
@@ -14133,7 +15375,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="10">
         <v>4</v>
@@ -14158,7 +15400,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="4"/>
@@ -14173,7 +15415,7 @@
       <c r="L29" s="8"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -14188,7 +15430,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -14205,7 +15447,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
         <v>1</v>
@@ -14229,7 +15471,7 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="23">
         <v>1</v>
@@ -14247,7 +15489,7 @@
       <c r="I34" s="12"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="15">
         <v>2</v>
@@ -14268,7 +15510,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -14289,46 +15531,46 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -14345,7 +15587,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -14374,7 +15616,7 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
@@ -14399,7 +15641,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
@@ -14424,7 +15666,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="10">
         <v>3</v>
@@ -14449,7 +15691,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
@@ -14464,7 +15706,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -14479,7 +15721,7 @@
       <c r="L29" s="25"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -14496,7 +15738,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
         <v>1</v>
@@ -14520,7 +15762,7 @@
       </c>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="B33" s="10">
         <v>1</v>
@@ -14538,7 +15780,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="10">
         <v>2</v>
@@ -14556,7 +15798,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="10">
         <v>3</v>
@@ -14574,7 +15816,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="15">
         <v>4</v>
@@ -14592,7 +15834,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -14622,31 +15864,31 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="F5" s="1" t="s">
         <v>251</v>
       </c>
@@ -14658,22 +15900,22 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -14689,7 +15931,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -14717,7 +15959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="10">
         <v>1</v>
@@ -14741,7 +15983,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4"/>
@@ -14755,7 +15997,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -14769,7 +16011,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>131</v>
       </c>
@@ -14783,7 +16025,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>1</v>
@@ -14808,7 +16050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="10">
         <v>1</v>
@@ -14827,7 +16069,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="10">
         <v>2</v>
@@ -14846,7 +16088,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>3</v>
@@ -14865,7 +16107,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>4</v>
@@ -14884,7 +16126,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="10">
         <v>5</v>
@@ -14903,7 +16145,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="10">
         <v>6</v>
@@ -14922,7 +16164,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="4"/>
@@ -14935,7 +16177,7 @@
       <c r="J29" s="15"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -14949,7 +16191,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -14965,7 +16207,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
         <v>1</v>
       </c>
@@ -14988,7 +16230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="10">
         <v>1</v>
       </c>
@@ -15005,7 +16247,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="10">
         <v>2</v>
       </c>
@@ -15022,7 +16264,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="10">
         <v>3</v>
       </c>
@@ -15039,7 +16281,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B36" s="15"/>
       <c r="C36" s="14"/>
       <c r="D36" s="4"/>
@@ -15050,7 +16292,7 @@
       <c r="I36" s="15"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -15076,79 +16318,79 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="12.19921875" customWidth="1"/>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M2" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -15167,7 +16409,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -15195,7 +16437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="10">
         <v>1</v>
@@ -15219,7 +16461,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="10">
         <v>2</v>
@@ -15243,7 +16485,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="10">
         <v>3</v>
@@ -15267,7 +16509,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="15"/>
       <c r="C21" s="4"/>
@@ -15281,7 +16523,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
@@ -15295,7 +16537,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
         <v>1</v>
       </c>
@@ -15320,7 +16562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B25" s="10">
         <v>1</v>
       </c>
@@ -15339,7 +16581,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B26" s="10">
         <v>2</v>
       </c>
@@ -15358,7 +16600,7 @@
       <c r="K26" s="10"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B27" s="10">
         <v>3</v>
       </c>
@@ -15377,7 +16619,7 @@
       <c r="K27" s="10"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="15"/>
       <c r="C28" s="14" t="s">
         <v>173</v>
@@ -15394,7 +16636,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk9hs\Desktop\team06\team06\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G017A1326\Documents\team06\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <sheet name="ステージセレクト画面" sheetId="27" r:id="rId4"/>
     <sheet name="プレイ画面" sheetId="33" r:id="rId5"/>
     <sheet name="ポーズ画面" sheetId="35" r:id="rId6"/>
-    <sheet name="クリア画面" sheetId="3" r:id="rId7"/>
-    <sheet name="プレイヤー" sheetId="36" r:id="rId8"/>
-    <sheet name="障害物" sheetId="40" r:id="rId9"/>
-    <sheet name="ブロック" sheetId="39" r:id="rId10"/>
-    <sheet name="銃" sheetId="41" r:id="rId11"/>
-    <sheet name="スイッチ " sheetId="43" r:id="rId12"/>
+    <sheet name="プレイヤー" sheetId="36" r:id="rId7"/>
+    <sheet name="障害物" sheetId="40" r:id="rId8"/>
+    <sheet name="ブロック" sheetId="39" r:id="rId9"/>
+    <sheet name="銃" sheetId="41" r:id="rId10"/>
+    <sheet name="スイッチ " sheetId="43" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="257">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -116,16 +115,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クリア画面処理内容</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ショリナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>XXXxYY</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -198,6 +187,75 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>・フェードインの後、カメラはステージを見渡してから初期位置へ移動(操作できるのはこの後)</t>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ミワタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵に当たる、落ちるとプレイBGMが止まり、死亡演出と共にBGMが流れる</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・死亡演出後、自動でリスタートされる</t>
+    <rPh sb="1" eb="3">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>・Lスティックで選択</t>
     <rPh sb="8" eb="10">
       <t>センタク</t>
@@ -205,82 +263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・フェードインの後、カメラはステージを見渡してから初期位置へ移動(操作できるのはこの後)</t>
-    <rPh sb="8" eb="9">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ミワタ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>アト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・敵に当たる、落ちるとプレイBGMが止まり、死亡演出と共にBGMが流れる</t>
-    <rPh sb="1" eb="2">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>トモ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・死亡演出後、自動でリスタートされる</t>
-    <rPh sb="1" eb="3">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Lスティックで選択</t>
-    <rPh sb="8" eb="10">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・「リスタート」を選択し、〇ボタンでステージの形とプレイヤーの位置をリセットする。</t>
     <rPh sb="9" eb="11">
       <t>センタク</t>
@@ -312,22 +294,6 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Lスティックで選択。選択されているステージは枠が光る</t>
-    <rPh sb="8" eb="10">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヒカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -456,46 +422,6 @@
   </si>
   <si>
     <r>
-      <t>・フェードアウトの仕方は、選択されたステージのモニターにズームインしそのまま</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>プレイ画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>へ移行する</t>
-    </r>
-    <rPh sb="9" eb="11">
-      <t>シカタ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>・</t>
     </r>
     <r>
@@ -522,43 +448,6 @@
     </r>
     <rPh sb="9" eb="11">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>クリア画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>からの場合、フェードイン(明転)する</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>メイテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -670,46 +559,6 @@
     </rPh>
     <rPh sb="31" eb="32">
       <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・クリア演出後にフェードアウト(暗転)して</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>クリア画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>へ</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>アンテン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -902,184 +751,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>・クリア演出後の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>プレイ画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>からフェードイン(明転)</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>メイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・「次のステージ」を選択し、〇ボタンでフェードアウト(暗転)。その後に次のステージの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>プレイ画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>へ</t>
-    </r>
-    <rPh sb="2" eb="3">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>アンテン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・「やめる」を選択し、〇ボタンでフェードアウト(暗転)。その後に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ステージセレクト画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>へ</t>
-    </r>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>アンテン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・×ボタンを押す事で「戻る」が選択される。そのままもう一度×ボタンを押す事でも</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ステージセレクト画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>へフェードアウト</t>
-    </r>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Title_BGM</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1157,10 +828,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>input_SE4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>input_SE5</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1175,16 +842,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>戻る時のSE</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>選択時のSE</t>
     <rPh sb="0" eb="2">
       <t>センタク</t>
@@ -1463,13 +1120,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>クリア画面</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ステージセレクト画面(背景)</t>
     <rPh sb="8" eb="10">
       <t>ガメン</t>
@@ -1480,23 +1130,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>次のステージへ進む選択肢</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>センタクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(?,?)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーの仕様</t>
     <rPh sb="6" eb="8">
       <t>シヨウ</t>
@@ -2265,25 +1898,6 @@
   <si>
     <t>GunShot_Animation</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GameClear</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Next</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clear_BGM</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>クリア画面のBGM</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Pause</t>
@@ -2994,19 +2608,6 @@
   </si>
   <si>
     <t>(?,?)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ESCを選択していた場合、〇ボタンでアプリを閉じる</t>
-    <rPh sb="5" eb="7">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ト</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3143,37 +2744,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・右矢印を選択したままLスティックを右の倒すと、カメラロールして次のステージが６つ表示される（ページ数をnとして、「６(n-1)+(1~6)」ステージが表示される）</t>
-    <rPh sb="1" eb="2">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヤジルシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1ページ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3199,31 +2769,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(クリア演出の流れは「扉を潜る」→「ワープ装置に乗る」→「ワープする(ホワイトアウト)」→「クリア画面へ」)</t>
-    <rPh sb="4" eb="6">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>トビラ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>クグ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ソウチ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・ステージ選択時、選択したステージ画面へズームしながらフェードインし、そのステージへと遷移する。</t>
     <rPh sb="5" eb="7">
       <t>センタク</t>
@@ -3239,6 +2784,171 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・フェードアウトの仕方は、選択されたステージのモニターにズームインしそのまま</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プレイ画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>へ移行する(暗転)</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>シカタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>アンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クリア演出後に次のステージへ</t>
+    <rPh sb="4" eb="6">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Lスティックで動くポインターで選択。選択されているステージは枠が光り、静止画3枚が3秒毎に切り替わる</t>
+    <rPh sb="8" eb="9">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>セイシガ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ESCを選択していた場合、〇ボタンでアプリを閉じる（モニターの電源が全て切れ、部屋が暗転しフェードアウト）</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>アンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・右矢印を選択したままと、カメラロールして次のステージが６つ表示される（ページ数をnとして、「６(n-1)+(1~6)」ステージが表示される）</t>
+    <rPh sb="1" eb="2">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(クリア演出の流れは「ゴールブロック？に触れる」→「ワープウィンドウ？が現れる」→「ワープする」→「次のステージへ」)</t>
+    <rPh sb="4" eb="6">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ツギ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4180,75 +3890,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>24267</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1408</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="角丸四角形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2019322" y="6131330"/>
-          <a:ext cx="1972195" cy="478674"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>クリア画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>651186</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -4715,160 +4356,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>420507</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>129541</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="曲折矢印 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2420757" y="2415540"/>
-          <a:ext cx="1389243" cy="3429001"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8684"/>
-            <a:gd name="adj2" fmla="val 10592"/>
-            <a:gd name="adj3" fmla="val 16090"/>
-            <a:gd name="adj4" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>77304</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>129541</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>99061</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="曲折矢印 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2744304" y="3787141"/>
-          <a:ext cx="1751495" cy="2026920"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 6609"/>
-            <a:gd name="adj2" fmla="val 6706"/>
-            <a:gd name="adj3" fmla="val 15288"/>
-            <a:gd name="adj4" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5478,186 +4965,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>〇ボタンを押す</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>378441</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>99789</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>515602</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>118341</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="四角形吹き出し 36"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3045441" y="4443189"/>
-          <a:ext cx="1470661" cy="475752"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -65108"/>
-            <a:gd name="adj2" fmla="val -57927"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Next</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>を選択して</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>〇ボタンを押す</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>67015</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>220991</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>204175</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>88348</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="四角形吹き出し 37"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="740667" y="3467774"/>
-          <a:ext cx="1484465" cy="331183"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 68800"/>
-            <a:gd name="adj2" fmla="val -41901"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>戻るを選択する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6321,14 +5628,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>115403</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>139066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
+      <xdr:colOff>581023</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>108586</xdr:rowOff>
     </xdr:to>
@@ -6339,13 +5646,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="4115903" y="4253866"/>
-          <a:ext cx="1132371" cy="2026920"/>
+          <a:off x="3648074" y="4253866"/>
+          <a:ext cx="1600199" cy="2026920"/>
         </a:xfrm>
         <a:prstGeom prst="bentArrow">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 10815"/>
-            <a:gd name="adj2" fmla="val 14276"/>
+            <a:gd name="adj1" fmla="val 8434"/>
+            <a:gd name="adj2" fmla="val 10407"/>
             <a:gd name="adj3" fmla="val 15288"/>
             <a:gd name="adj4" fmla="val 0"/>
           </a:avLst>
@@ -6474,704 +5781,51 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>39203</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>115570</xdr:rowOff>
+      <xdr:rowOff>24766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvPr id="46" name="曲折矢印 45"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9458960" y="3780790"/>
-          <a:ext cx="1681480" cy="209550"/>
+          <a:off x="3372953" y="3682366"/>
+          <a:ext cx="1132371" cy="2508884"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 10815"/>
+            <a:gd name="adj2" fmla="val 14276"/>
+            <a:gd name="adj3" fmla="val 15288"/>
+            <a:gd name="adj4" fmla="val 0"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:alpha val="50000"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>452119</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>130810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>121919</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="939930">
-          <a:off x="9428479" y="4032250"/>
-          <a:ext cx="1681480" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:alpha val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>292099</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>176530</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>632459</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>157480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="2343681">
-          <a:off x="9268459" y="4306570"/>
-          <a:ext cx="1681480" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:alpha val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>75564</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133986</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>285114</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="3923024">
-          <a:off x="8986519" y="4535171"/>
-          <a:ext cx="1681480" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="直方体 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="234950"/>
-          <a:ext cx="1607820" cy="1587500"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 28840"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="直方体 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2682240" y="463550"/>
-          <a:ext cx="1607820" cy="1587500"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 28840"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="直方体 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4693920" y="692150"/>
-          <a:ext cx="1596390" cy="1587500"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 28840"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>147320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="楕円 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9084310" y="3507740"/>
-          <a:ext cx="778510" cy="769620"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>231140</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="楕円 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9236710" y="3660140"/>
-          <a:ext cx="486410" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>174985</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>48992</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>175183</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>17440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="直方体 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="2078036">
-          <a:off x="11833585" y="4407632"/>
-          <a:ext cx="670758" cy="661868"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>58420</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="曲折矢印 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="9014460" y="3688080"/>
-          <a:ext cx="2567940" cy="2352040"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8404"/>
-            <a:gd name="adj2" fmla="val 9786"/>
-            <a:gd name="adj3" fmla="val 14633"/>
-            <a:gd name="adj4" fmla="val 94416"/>
-          </a:avLst>
-        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7206,30 +5860,47 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203402</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>227851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450746</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17384</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="下矢印 30"/>
+        <xdr:cNvPr id="47" name="四角形吹き出し 46"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11944350" y="3247390"/>
-          <a:ext cx="480060" cy="958850"/>
+          <a:off x="1536902" y="4571251"/>
+          <a:ext cx="1580844" cy="475333"/>
         </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 69387"/>
+            <a:gd name="adj2" fmla="val 20524"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7248,11 +5919,34 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ゴール演出後に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>次のステージが始まる</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7261,7 +5955,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7627,7 +6321,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8366,6 +7060,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200"/>
+            <a:t>Axis</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
         </a:p>
       </xdr:txBody>
@@ -8446,8 +7148,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>228232</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1692</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9471,16 +8173,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>281667</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>195942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>195941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9489,8 +8191,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9953625" y="4238625"/>
-          <a:ext cx="1619250" cy="533400"/>
+          <a:off x="10601324" y="6847113"/>
+          <a:ext cx="1993447" cy="914399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9521,23 +8223,18 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ESC</a:t>
+            <a:t>ゲーム終了</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9546,15 +8243,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>370115</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>151040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>655865</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9563,8 +8260,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9715500" y="4886326"/>
-          <a:ext cx="1619250" cy="533400"/>
+          <a:off x="10014858" y="4494440"/>
+          <a:ext cx="1635578" cy="534761"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10963,6 +9660,123 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>597243</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>226541</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>113271</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6054811" y="1626973"/>
+          <a:ext cx="298622" cy="298622"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123567</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>72081</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形吹き出し 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581135" y="854676"/>
+          <a:ext cx="1390135" cy="648729"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1574"/>
+            <a:gd name="adj2" fmla="val 83135"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11144,65 +9958,6 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="457200"/>
-          <a:ext cx="6926580" cy="4328160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11596,7 +10351,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12074,6 +10829,790 @@
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>115570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9458960" y="3780790"/>
+          <a:ext cx="1681480" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>452119</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>121919</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="939930">
+          <a:off x="9428479" y="4032250"/>
+          <a:ext cx="1681480" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292099</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>632459</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2343681">
+          <a:off x="9268459" y="4306570"/>
+          <a:ext cx="1681480" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>75564</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285114</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3923024">
+          <a:off x="8986519" y="4535171"/>
+          <a:ext cx="1681480" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="直方体 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="234950"/>
+          <a:ext cx="1607820" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 28840"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="直方体 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2682240" y="463550"/>
+          <a:ext cx="1607820" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 28840"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="直方体 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693920" y="692150"/>
+          <a:ext cx="1596390" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 28840"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="楕円 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9084310" y="3507740"/>
+          <a:ext cx="778510" cy="769620"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>231140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="楕円 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9236710" y="3660140"/>
+          <a:ext cx="486410" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>174985</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>48992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>175183</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="直方体 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2078036">
+          <a:off x="11833585" y="4407632"/>
+          <a:ext cx="670758" cy="661868"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="曲折矢印 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9014460" y="3688080"/>
+          <a:ext cx="2567940" cy="2352040"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8404"/>
+            <a:gd name="adj2" fmla="val 9786"/>
+            <a:gd name="adj3" fmla="val 14633"/>
+            <a:gd name="adj4" fmla="val 94416"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="下矢印 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11944350" y="3247390"/>
+          <a:ext cx="480060" cy="958850"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -12371,12 +11910,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
@@ -12387,85 +11926,52 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M30"/>
+  <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M2" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>129</v>
-      </c>
-      <c r="M13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>130</v>
-      </c>
-      <c r="M14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -12481,24 +11987,24 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="9" t="s">
         <v>5</v>
       </c>
@@ -12509,23 +12015,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="11"/>
       <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>79</v>
+      <c r="C18" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>122</v>
+        <v>12</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -12533,337 +12039,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="10">
-        <v>2</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="10">
-        <v>3</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="11"/>
-      <c r="B21" s="15">
-        <v>4</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="10"/>
-      <c r="C26" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="10"/>
-      <c r="C27" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="10"/>
-      <c r="C28" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B29" s="10"/>
-      <c r="C29" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="15"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L2" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E5" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="11"/>
-      <c r="B17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="11"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4"/>
@@ -12877,7 +12053,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -12891,9 +12067,9 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -12907,7 +12083,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="11"/>
       <c r="B22" s="6" t="s">
         <v>1</v>
@@ -12931,16 +12107,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B23" s="10">
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="11" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -12948,7 +12124,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="15"/>
       <c r="C24" s="4"/>
       <c r="D24" s="8"/>
@@ -12959,7 +12135,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -12972,7 +12148,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -12988,7 +12164,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
@@ -13011,15 +12187,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B28" s="10">
         <v>1</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="26"/>
@@ -13027,16 +12203,16 @@
       <c r="I28" s="10"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29" s="10">
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="26"/>
@@ -13044,16 +12220,16 @@
       <c r="I29" s="10"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B30" s="10">
         <v>3</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="28" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="26"/>
@@ -13061,16 +12237,16 @@
       <c r="I30" s="10"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B31" s="10">
         <v>3</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="28" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="26"/>
@@ -13078,16 +12254,16 @@
       <c r="I31" s="10"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B32" s="10">
         <v>3</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="28" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="26"/>
@@ -13095,7 +12271,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="15"/>
       <c r="C33" s="14"/>
       <c r="D33" s="4"/>
@@ -13113,7 +12289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
@@ -13121,24 +12297,24 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="32" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="63" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="21"/>
@@ -13149,28 +12325,28 @@
       <c r="H2" s="33"/>
       <c r="I2" s="22"/>
       <c r="J2" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="29"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="63" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="F3" s="64"/>
       <c r="G3" s="22"/>
       <c r="H3" s="26"/>
       <c r="I3" s="22"/>
       <c r="J3" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="29"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -13181,11 +12357,11 @@
       <c r="H4" s="26"/>
       <c r="I4" s="22"/>
       <c r="J4" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="29"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -13196,14 +12372,14 @@
       <c r="H5" s="26"/>
       <c r="I5" s="22"/>
       <c r="J5" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="29"/>
       <c r="B6" s="63" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="22"/>
@@ -13213,11 +12389,11 @@
       <c r="H6" s="26"/>
       <c r="I6" s="22"/>
       <c r="J6" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="29"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -13228,11 +12404,11 @@
       <c r="H7" s="26"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="29"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -13244,7 +12420,7 @@
       <c r="I8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="29"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -13255,11 +12431,11 @@
       <c r="H9" s="26"/>
       <c r="I9" s="22"/>
       <c r="J9" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="29"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -13270,11 +12446,11 @@
       <c r="H10" s="26"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="29"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -13286,7 +12462,7 @@
       <c r="I11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="29"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -13299,7 +12475,7 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="29"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -13309,7 +12485,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="29"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -13319,7 +12495,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="29"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -13329,7 +12505,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="29"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -13342,28 +12518,28 @@
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="29"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="29"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="65" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="F18" s="66"/>
       <c r="G18" s="67"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="68" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
@@ -13373,7 +12549,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="29"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -13383,7 +12559,7 @@
       <c r="G20" s="22"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="29"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -13393,7 +12569,7 @@
       <c r="G21" s="22"/>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="29"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -13403,7 +12579,7 @@
       <c r="G22" s="22"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="29"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -13413,7 +12589,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="29"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -13423,7 +12599,7 @@
       <c r="G24" s="22"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="29"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -13433,7 +12609,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="34"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -13443,9 +12619,9 @@
       <c r="G26" s="18"/>
       <c r="H26" s="17"/>
     </row>
-    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -13459,7 +12635,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="5"/>
       <c r="B30" s="35" t="s">
         <v>1</v>
@@ -13487,23 +12663,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="42">
         <v>1</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
@@ -13511,23 +12687,23 @@
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
       <c r="B32" s="49">
         <v>2</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="52" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G32" s="54" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="55"/>
@@ -13535,23 +12711,23 @@
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
     </row>
-    <row r="33" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="11"/>
       <c r="B33" s="56">
         <v>3</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="59" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
@@ -13559,7 +12735,7 @@
       <c r="K33" s="56"/>
       <c r="L33" s="56"/>
     </row>
-    <row r="35" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -13575,7 +12751,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="6" t="s">
         <v>1</v>
       </c>
@@ -13598,27 +12774,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B37" s="10"/>
       <c r="C37" s="24" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="20" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="10"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" s="10"/>
       <c r="C38" s="13" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="20" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
@@ -13626,14 +12802,14 @@
       <c r="I38" s="10"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B39" s="10"/>
       <c r="C39" s="28" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="22" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="26"/>
@@ -13641,14 +12817,14 @@
       <c r="I39" s="10"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B40" s="10"/>
       <c r="C40" s="13" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="20" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="26"/>
@@ -13656,7 +12832,7 @@
       <c r="I40" s="10"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="15"/>
       <c r="C41" s="14"/>
       <c r="D41" s="8"/>
@@ -13687,45 +12863,45 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -13742,7 +12918,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>1</v>
@@ -13771,23 +12947,23 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -13796,7 +12972,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -13811,9 +12987,9 @@
       <c r="L27" s="11"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -13828,7 +13004,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
         <v>1</v>
@@ -13856,23 +13032,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="5"/>
       <c r="B30" s="10">
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -13881,7 +13057,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -13895,7 +13071,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -13911,7 +13087,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="3"/>
       <c r="B33" s="6" t="s">
         <v>1</v>
@@ -13935,16 +13111,16 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B34" s="10">
         <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="13"/>
@@ -13953,16 +13129,16 @@
       <c r="J34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="15">
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="14"/>
@@ -13970,7 +13146,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="11"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -13984,15 +13160,15 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="11"/>
       <c r="B37" s="22"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="11"/>
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
     </row>
   </sheetData>
@@ -14011,41 +13187,41 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -14060,7 +13236,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>1</v>
@@ -14089,23 +13265,23 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -14114,7 +13290,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -14127,7 +13303,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -14143,7 +13319,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
         <v>1</v>
@@ -14167,17 +13343,17 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="23">
         <v>1</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="24"/>
@@ -14186,17 +13362,17 @@
       <c r="J30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3"/>
       <c r="B31" s="15">
         <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="14"/>
@@ -14204,7 +13380,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -14229,57 +13405,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="M9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="M9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -14287,9 +13463,9 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -14299,9 +13475,9 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -14311,44 +13487,44 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M16" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M19" s="1"/>
       <c r="N19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -14364,7 +13540,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -14393,23 +13569,23 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -14418,23 +13594,23 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -14443,23 +13619,23 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="10">
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -14468,23 +13644,23 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="B28" s="10">
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -14493,23 +13669,23 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="10">
         <v>5</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -14518,23 +13694,23 @@
       <c r="L29" s="5"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="10">
         <v>6</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -14543,23 +13719,23 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="10">
         <v>7</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -14568,23 +13744,23 @@
       <c r="L31" s="5"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
       <c r="B32" s="10">
         <v>8</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -14593,23 +13769,23 @@
       <c r="L32" s="5"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="11"/>
       <c r="B33" s="10">
         <v>9</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -14618,23 +13794,23 @@
       <c r="L33" s="5"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="3"/>
       <c r="B34" s="15">
         <v>10</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="8"/>
@@ -14643,10 +13819,10 @@
       <c r="L34" s="15"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -14662,7 +13838,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="5"/>
       <c r="B37" s="6" t="s">
         <v>1</v>
@@ -14687,17 +13863,17 @@
       </c>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="23">
         <v>1</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="25" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="26"/>
@@ -14705,17 +13881,17 @@
       <c r="I38" s="23"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="10">
         <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="26"/>
@@ -14723,20 +13899,20 @@
       <c r="I39" s="10"/>
       <c r="J39" s="5"/>
       <c r="N39" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="3"/>
       <c r="B40" s="15">
         <v>3</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="17"/>
@@ -14746,10 +13922,10 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="N40" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="M41" s="3"/>
     </row>
   </sheetData>
@@ -14762,111 +13938,106 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M8" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M15" t="s">
-        <v>23</v>
-      </c>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M16" t="s">
+        <v>256</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M17" t="s">
-        <v>271</v>
-      </c>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M21" s="1"/>
-    </row>
-    <row r="23" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -14882,7 +14053,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -14910,47 +14081,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="13"/>
       <c r="K25" s="10"/>
       <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -14959,23 +14131,23 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="10">
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -14984,23 +14156,23 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="B28" s="10">
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -15009,23 +14181,23 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="10">
         <v>5</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -15034,23 +14206,23 @@
       <c r="L29" s="5"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="10">
         <v>7</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -15059,23 +14231,23 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3"/>
       <c r="B31" s="15">
         <v>9</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="8"/>
@@ -15084,10 +14256,10 @@
       <c r="L31" s="15"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -15104,7 +14276,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
         <v>1</v>
@@ -15127,19 +14299,18 @@
       <c r="J34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="10">
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="24" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="26"/>
@@ -15147,24 +14318,25 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="10">
         <v>2</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
       <c r="H36" s="13"/>
       <c r="I36" s="10"/>
       <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="5"/>
       <c r="B37" s="15"/>
       <c r="C37" s="14"/>
@@ -15175,9 +14347,8 @@
       <c r="H37" s="14"/>
       <c r="I37" s="15"/>
       <c r="J37" s="8"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -15191,8 +14362,8 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M41" s="3"/>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M40" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -15206,55 +14377,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -15271,7 +14442,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -15300,23 +14471,23 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -15325,23 +14496,23 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -15350,23 +14521,23 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="10">
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -15375,23 +14546,23 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="10">
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -15400,7 +14571,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="4"/>
@@ -15415,7 +14586,7 @@
       <c r="L29" s="8"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -15430,7 +14601,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -15447,7 +14618,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
         <v>1</v>
@@ -15471,17 +14642,17 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="23">
         <v>1</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="31" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="24"/>
@@ -15489,17 +14660,17 @@
       <c r="I34" s="12"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3"/>
       <c r="B35" s="15">
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="14"/>
@@ -15510,7 +14681,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -15525,397 +14696,64 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="10">
-        <v>2</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="10">
-        <v>3</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="5"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="31" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="10">
-        <v>1</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" s="5"/>
-      <c r="B34" s="10">
-        <v>2</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A35" s="5"/>
-      <c r="B35" s="10">
-        <v>3</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="5"/>
-      <c r="B36" s="15">
-        <v>4</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L37"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F5" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -15931,7 +14769,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -15959,23 +14797,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="10">
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="G18" s="11" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -15983,7 +14821,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="5"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4"/>
@@ -15997,7 +14835,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -16011,9 +14849,9 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -16025,7 +14863,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>1</v>
@@ -16050,17 +14888,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="10">
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="11" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -16069,17 +14907,17 @@
       <c r="J23" s="10"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="10">
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="11" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -16088,17 +14926,17 @@
       <c r="J24" s="10"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>3</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="20" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -16107,17 +14945,17 @@
       <c r="J25" s="10"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>4</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="20" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -16126,17 +14964,17 @@
       <c r="J26" s="10"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="10">
         <v>5</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -16145,17 +14983,17 @@
       <c r="J27" s="10"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="10">
         <v>6</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -16164,7 +15002,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="4"/>
@@ -16177,7 +15015,7 @@
       <c r="J29" s="15"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -16191,7 +15029,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -16207,7 +15045,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="6" t="s">
         <v>1</v>
       </c>
@@ -16230,16 +15068,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B33" s="10">
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="28" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="26"/>
@@ -16247,16 +15085,16 @@
       <c r="I33" s="10"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B34" s="10">
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="28" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="26"/>
@@ -16264,16 +15102,16 @@
       <c r="I34" s="10"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B35" s="10">
         <v>3</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="29" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="26"/>
@@ -16281,7 +15119,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="15"/>
       <c r="C36" s="14"/>
       <c r="D36" s="4"/>
@@ -16292,7 +15130,7 @@
       <c r="I36" s="15"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -16310,7 +15148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M29"/>
   <sheetViews>
@@ -16318,79 +15156,79 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M13" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M9" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -16406,10 +15244,10 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -16437,23 +15275,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="10">
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="G18" s="11" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -16461,23 +15299,23 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="10">
         <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="G19" s="11" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -16485,23 +15323,23 @@
       <c r="K19" s="10"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="10">
         <v>3</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -16509,7 +15347,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="5"/>
       <c r="B21" s="15"/>
       <c r="C21" s="4"/>
@@ -16523,7 +15361,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
@@ -16537,7 +15375,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="6" t="s">
         <v>1</v>
       </c>
@@ -16562,16 +15400,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="28" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="22"/>
@@ -16581,16 +15419,16 @@
       <c r="K25" s="10"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B26" s="10">
         <v>2</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -16600,16 +15438,16 @@
       <c r="K26" s="10"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B27" s="10">
         <v>3</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="22"/>
@@ -16619,14 +15457,14 @@
       <c r="K27" s="10"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="15"/>
       <c r="C28" s="14" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="28" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="18"/>
@@ -16636,7 +15474,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -16653,4 +15491,367 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="5"/>
+      <c r="B20" s="10">
+        <v>3</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="11"/>
+      <c r="B21" s="15">
+        <v>4</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="10"/>
+      <c r="C26" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B27" s="10"/>
+      <c r="C27" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B28" s="10"/>
+      <c r="C28" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B29" s="10"/>
+      <c r="C29" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="15"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G017A1326\Documents\team06\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk9hs\Desktop\team06\team06\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="261">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -2952,12 +2952,58 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>タイトルロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構図</t>
+    <rPh sb="0" eb="2">
+      <t>コウズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1人称視点でプレイヤーは若干うつむいている。</t>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジャッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・正面にはドアがあり、○ボタンor×ボタン入力でプレイヤーがドアをくぐり、シーン遷移（移動は自動で行う）</t>
+    <rPh sb="1" eb="3">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3047,6 +3093,15 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -3479,7 +3534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3592,6 +3647,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7015,28 +7076,145 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670560" y="457200"/>
-          <a:ext cx="6926580" cy="4328160"/>
+          <a:off x="1114425" y="1400176"/>
+          <a:ext cx="4572000" cy="1152524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="角丸四角形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2953310" y="1386168"/>
+          <a:ext cx="969309" cy="1561539"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="台形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="2552700"/>
+          <a:ext cx="4581525" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -7059,19 +7237,279 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200"/>
-            <a:t>Axis</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="3295650"/>
+          <a:ext cx="971550" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>393887</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>194422</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="543739" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3128122" y="1371040"/>
+          <a:ext cx="543739" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>ドア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1082348" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609850" y="3352800"/>
+          <a:ext cx="1082348" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>銃的なもの</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381002</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1787797" cy="1006238"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2431678" y="1916207"/>
+          <a:ext cx="1787797" cy="1006238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="5400">
+              <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
+            </a:rPr>
+            <a:t>Axis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>118122</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>739589</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4219475" y="2419326"/>
+          <a:ext cx="2772996" cy="12350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10035,8 +10473,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2167112" y="577850"/>
-          <a:ext cx="873268" cy="2565400"/>
+          <a:off x="2212832" y="596900"/>
+          <a:ext cx="888508" cy="2660650"/>
           <a:chOff x="3058652" y="189230"/>
           <a:chExt cx="873268" cy="2565400"/>
         </a:xfrm>
@@ -11913,9 +12351,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
@@ -11932,28 +12370,28 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L2" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E5" t="s">
         <v>106</v>
       </c>
@@ -11961,17 +12399,17 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -11987,7 +12425,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -12015,7 +12453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="10">
         <v>1</v>
@@ -12039,7 +12477,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4"/>
@@ -12053,7 +12491,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -12067,7 +12505,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>116</v>
       </c>
@@ -12083,7 +12521,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="6" t="s">
         <v>1</v>
@@ -12107,7 +12545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <v>1</v>
       </c>
@@ -12124,7 +12562,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="15"/>
       <c r="C24" s="4"/>
       <c r="D24" s="8"/>
@@ -12135,7 +12573,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -12148,7 +12586,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -12164,7 +12602,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
@@ -12187,7 +12625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B28" s="10">
         <v>1</v>
       </c>
@@ -12203,7 +12641,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B29" s="10">
         <v>2</v>
       </c>
@@ -12220,7 +12658,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B30" s="10">
         <v>3</v>
       </c>
@@ -12237,7 +12675,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B31" s="10">
         <v>3</v>
       </c>
@@ -12254,7 +12692,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B32" s="10">
         <v>3</v>
       </c>
@@ -12271,7 +12709,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="15"/>
       <c r="C33" s="14"/>
       <c r="D33" s="4"/>
@@ -12297,14 +12735,14 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
         <v>197</v>
       </c>
@@ -12312,7 +12750,7 @@
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="63" t="s">
         <v>198</v>
       </c>
@@ -12329,7 +12767,7 @@
       </c>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="29"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -12346,7 +12784,7 @@
       </c>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="29"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -12361,7 +12799,7 @@
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="29"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -12376,7 +12814,7 @@
       </c>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="29"/>
       <c r="B6" s="63" t="s">
         <v>204</v>
@@ -12393,7 +12831,7 @@
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="29"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -12408,7 +12846,7 @@
       </c>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="29"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -12420,7 +12858,7 @@
       <c r="I8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="29"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -12435,7 +12873,7 @@
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="29"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -12450,7 +12888,7 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="29"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -12462,7 +12900,7 @@
       <c r="I11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="29"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -12475,7 +12913,7 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="29"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -12485,7 +12923,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="29"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -12495,7 +12933,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="29"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -12505,7 +12943,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="29"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -12518,14 +12956,14 @@
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="29"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="29"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -12537,7 +12975,7 @@
       <c r="G18" s="67"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="68" t="s">
         <v>210</v>
       </c>
@@ -12549,7 +12987,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="29"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -12559,7 +12997,7 @@
       <c r="G20" s="22"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="29"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -12569,7 +13007,7 @@
       <c r="G21" s="22"/>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="29"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -12579,7 +13017,7 @@
       <c r="G22" s="22"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="29"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -12589,7 +13027,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="29"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -12599,7 +13037,7 @@
       <c r="G24" s="22"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="29"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -12609,7 +13047,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="34"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -12619,7 +13057,7 @@
       <c r="G26" s="18"/>
       <c r="H26" s="17"/>
     </row>
-    <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>211</v>
       </c>
@@ -12635,7 +13073,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="35" t="s">
         <v>1</v>
@@ -12663,7 +13101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="42">
         <v>1</v>
@@ -12687,7 +13125,7 @@
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="49">
         <v>2</v>
@@ -12711,7 +13149,7 @@
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
     </row>
-    <row r="33" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="11"/>
       <c r="B33" s="56">
         <v>3</v>
@@ -12735,7 +13173,7 @@
       <c r="K33" s="56"/>
       <c r="L33" s="56"/>
     </row>
-    <row r="35" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -12751,7 +13189,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B36" s="6" t="s">
         <v>1</v>
       </c>
@@ -12774,7 +13212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B37" s="10"/>
       <c r="C37" s="24" t="s">
         <v>220</v>
@@ -12787,7 +13225,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B38" s="10"/>
       <c r="C38" s="13" t="s">
         <v>222</v>
@@ -12802,7 +13240,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B39" s="10"/>
       <c r="C39" s="28" t="s">
         <v>224</v>
@@ -12817,7 +13255,7 @@
       <c r="I39" s="10"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B40" s="10"/>
       <c r="C40" s="13" t="s">
         <v>226</v>
@@ -12832,7 +13270,7 @@
       <c r="I40" s="10"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="15"/>
       <c r="C41" s="14"/>
       <c r="D41" s="8"/>
@@ -12862,46 +13300,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K11" s="69" t="s">
+        <v>257</v>
+      </c>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="M13" s="70" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -12918,7 +13378,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>1</v>
@@ -12947,7 +13407,7 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>1</v>
@@ -12972,7 +13432,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -12987,7 +13447,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>183</v>
       </c>
@@ -13004,7 +13464,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
         <v>1</v>
@@ -13032,7 +13492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="10">
         <v>1</v>
@@ -13057,7 +13517,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -13071,7 +13531,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
     </row>
-    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -13087,7 +13547,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="6" t="s">
         <v>1</v>
@@ -13111,7 +13571,7 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B34" s="10">
         <v>1</v>
       </c>
@@ -13129,7 +13589,7 @@
       <c r="J34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="15">
         <v>2</v>
       </c>
@@ -13146,7 +13606,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="11"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -13160,15 +13620,15 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="11"/>
       <c r="B37" s="22"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="11"/>
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
     </row>
   </sheetData>
@@ -13187,39 +13647,39 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>181</v>
       </c>
@@ -13236,7 +13696,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>1</v>
@@ -13265,7 +13725,7 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>1</v>
@@ -13290,7 +13750,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -13303,7 +13763,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -13319,7 +13779,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
         <v>1</v>
@@ -13343,7 +13803,7 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="23">
         <v>1</v>
@@ -13362,7 +13822,7 @@
       <c r="J30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="15">
         <v>2</v>
@@ -13380,7 +13840,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -13409,51 +13869,51 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M10" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M11" t="s">
         <v>254</v>
       </c>
@@ -13463,7 +13923,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M12" t="s">
         <v>255</v>
       </c>
@@ -13475,7 +13935,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M13" t="s">
         <v>250</v>
       </c>
@@ -13487,7 +13947,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M15" t="s">
         <v>238</v>
       </c>
@@ -13495,7 +13955,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M16" s="1" t="s">
         <v>237</v>
       </c>
@@ -13504,27 +13964,27 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M19" s="1"/>
       <c r="N19" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -13540,7 +14000,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -13569,7 +14029,7 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
@@ -13594,7 +14054,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
@@ -13619,7 +14079,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="10">
         <v>3</v>
@@ -13644,7 +14104,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="10">
         <v>4</v>
@@ -13669,7 +14129,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="10">
         <v>5</v>
@@ -13694,7 +14154,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="10">
         <v>6</v>
@@ -13719,7 +14179,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="10">
         <v>7</v>
@@ -13744,7 +14204,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="10">
         <v>8</v>
@@ -13769,7 +14229,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="11"/>
       <c r="B33" s="10">
         <v>9</v>
@@ -13794,7 +14254,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="15">
         <v>10</v>
@@ -13819,10 +14279,10 @@
       <c r="L34" s="15"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -13838,7 +14298,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="6" t="s">
         <v>1</v>
@@ -13863,7 +14323,7 @@
       </c>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="23">
         <v>1</v>
@@ -13881,7 +14341,7 @@
       <c r="I38" s="23"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="10">
         <v>2</v>
@@ -13902,7 +14362,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="15">
         <v>3</v>
@@ -13925,7 +14385,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="M41" s="3"/>
     </row>
   </sheetData>
@@ -13944,71 +14404,71 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M12" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M16" t="s">
         <v>256</v>
       </c>
@@ -14017,27 +14477,27 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M20" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -14053,7 +14513,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -14081,7 +14541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
@@ -14106,7 +14566,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
@@ -14131,7 +14591,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="10">
         <v>3</v>
@@ -14156,7 +14616,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="10">
         <v>4</v>
@@ -14181,7 +14641,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="10">
         <v>5</v>
@@ -14206,7 +14666,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="10">
         <v>7</v>
@@ -14231,7 +14691,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="15">
         <v>9</v>
@@ -14256,10 +14716,10 @@
       <c r="L31" s="15"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -14276,7 +14736,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
         <v>1</v>
@@ -14300,7 +14760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="10">
         <v>1</v>
@@ -14318,7 +14778,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="5"/>
       <c r="B36" s="10">
         <v>2</v>
@@ -14336,7 +14796,7 @@
       <c r="J36" s="5"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="15"/>
       <c r="C37" s="14"/>
@@ -14348,7 +14808,7 @@
       <c r="I37" s="15"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -14362,7 +14822,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M40" s="3"/>
     </row>
   </sheetData>
@@ -14377,55 +14837,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -14442,7 +14902,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -14471,7 +14931,7 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
@@ -14496,7 +14956,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
@@ -14521,7 +14981,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="10">
         <v>3</v>
@@ -14546,7 +15006,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="10">
         <v>4</v>
@@ -14571,7 +15031,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="4"/>
@@ -14586,7 +15046,7 @@
       <c r="L29" s="8"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -14601,7 +15061,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -14618,7 +15078,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
         <v>1</v>
@@ -14642,7 +15102,7 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="23">
         <v>1</v>
@@ -14660,7 +15120,7 @@
       <c r="I34" s="12"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="15">
         <v>2</v>
@@ -14681,7 +15141,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -14702,31 +15162,31 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L2" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="F5" s="1" t="s">
         <v>232</v>
       </c>
@@ -14738,22 +15198,22 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="L8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -14769,7 +15229,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -14797,7 +15257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="10">
         <v>1</v>
@@ -14821,7 +15281,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4"/>
@@ -14835,7 +15295,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -14849,7 +15309,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>116</v>
       </c>
@@ -14863,7 +15323,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>1</v>
@@ -14888,7 +15348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="10">
         <v>1</v>
@@ -14907,7 +15367,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="10">
         <v>2</v>
@@ -14926,7 +15386,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>3</v>
@@ -14945,7 +15405,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>4</v>
@@ -14964,7 +15424,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="10">
         <v>5</v>
@@ -14983,7 +15443,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="10">
         <v>6</v>
@@ -15002,7 +15462,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="4"/>
@@ -15015,7 +15475,7 @@
       <c r="J29" s="15"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -15029,7 +15489,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -15045,7 +15505,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
         <v>1</v>
       </c>
@@ -15068,7 +15528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="10">
         <v>1</v>
       </c>
@@ -15085,7 +15545,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="10">
         <v>2</v>
       </c>
@@ -15102,7 +15562,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="10">
         <v>3</v>
       </c>
@@ -15119,7 +15579,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B36" s="15"/>
       <c r="C36" s="14"/>
       <c r="D36" s="4"/>
@@ -15130,7 +15590,7 @@
       <c r="I36" s="15"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -15156,79 +15616,79 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="12.19921875" customWidth="1"/>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M2" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M13" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -15247,7 +15707,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -15275,7 +15735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="10">
         <v>1</v>
@@ -15299,7 +15759,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="10">
         <v>2</v>
@@ -15323,7 +15783,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="10">
         <v>3</v>
@@ -15347,7 +15807,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="15"/>
       <c r="C21" s="4"/>
@@ -15361,7 +15821,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
@@ -15375,7 +15835,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
         <v>1</v>
       </c>
@@ -15400,7 +15860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B25" s="10">
         <v>1</v>
       </c>
@@ -15419,7 +15879,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B26" s="10">
         <v>2</v>
       </c>
@@ -15438,7 +15898,7 @@
       <c r="K26" s="10"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B27" s="10">
         <v>3</v>
       </c>
@@ -15457,7 +15917,7 @@
       <c r="K27" s="10"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="15"/>
       <c r="C28" s="14" t="s">
         <v>158</v>
@@ -15474,7 +15934,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -15501,63 +15961,63 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M2" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M11" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>114</v>
       </c>
@@ -15565,7 +16025,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>115</v>
       </c>
@@ -15573,7 +16033,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -15589,7 +16049,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -15617,7 +16077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="10">
         <v>1</v>
@@ -15641,7 +16101,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="10">
         <v>2</v>
@@ -15665,7 +16125,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="10">
         <v>3</v>
@@ -15689,7 +16149,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="B21" s="15">
         <v>4</v>
@@ -15713,7 +16173,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -15727,7 +16187,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
     </row>
-    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -15743,7 +16203,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
         <v>1</v>
       </c>
@@ -15768,7 +16228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B26" s="10"/>
       <c r="C26" s="13" t="s">
         <v>83</v>
@@ -15785,7 +16245,7 @@
       <c r="K26" s="10"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
         <v>136</v>
@@ -15802,7 +16262,7 @@
       <c r="K27" s="10"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B28" s="10"/>
       <c r="C28" s="20" t="s">
         <v>137</v>
@@ -15818,7 +16278,7 @@
       <c r="K28" s="10"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B29" s="10"/>
       <c r="C29" s="13" t="s">
         <v>138</v>
@@ -15835,7 +16295,7 @@
       <c r="K29" s="10"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="15"/>
       <c r="C30" s="14"/>
       <c r="D30" s="4"/>

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk9hs\Desktop\team06\team06\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G017A1326\Documents\team06\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="プレイ画面" sheetId="33" r:id="rId5"/>
     <sheet name="ポーズ画面" sheetId="35" r:id="rId6"/>
     <sheet name="プレイヤー" sheetId="36" r:id="rId7"/>
-    <sheet name="障害物" sheetId="40" r:id="rId8"/>
-    <sheet name="ブロック" sheetId="39" r:id="rId9"/>
-    <sheet name="銃" sheetId="41" r:id="rId10"/>
-    <sheet name="スイッチ " sheetId="43" r:id="rId11"/>
+    <sheet name="操作説明" sheetId="44" r:id="rId8"/>
+    <sheet name="障害物" sheetId="40" r:id="rId9"/>
+    <sheet name="ブロック" sheetId="39" r:id="rId10"/>
+    <sheet name="銃" sheetId="41" r:id="rId11"/>
+    <sheet name="スイッチ " sheetId="43" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="280">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -183,59 +184,6 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>サイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・フェードインの後、カメラはステージを見渡してから初期位置へ移動(操作できるのはこの後)</t>
-    <rPh sb="8" eb="9">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ミワタ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>アト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・敵に当たる、落ちるとプレイBGMが止まり、死亡演出と共にBGMが流れる</t>
-    <rPh sb="1" eb="2">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>トモ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -751,10 +699,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Title_BGM</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>タイトルのBGM</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -763,14 +707,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>input_SE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Input_SE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>デモムービーのBGM</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -789,10 +725,6 @@
   <si>
     <t>XXXxYY</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(?,?)</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>input_SE2</t>
@@ -828,10 +760,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>input_SE5</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ステージ決定時のSE</t>
     <rPh sb="4" eb="6">
       <t>ケッテイ</t>
@@ -869,13 +797,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>キー入力時SE</t>
-    <rPh sb="2" eb="5">
-      <t>ニュウリョクジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -977,10 +898,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Play_BGM</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>プレイ中のBGM</t>
     <rPh sb="3" eb="4">
       <t>チュウ</t>
@@ -1058,28 +975,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゴール演出のBGM</t>
-    <rPh sb="3" eb="5">
-      <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Goal_BGM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dead_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死亡時のSE</t>
-    <rPh sb="0" eb="3">
-      <t>シボウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(?,?)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1770,10 +1665,6 @@
   </si>
   <si>
     <t>LaserHit_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EnemHit_SE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2051,25 +1942,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・前の画面のBGMは止め、ステージセレクト用のBGMが流れる</t>
-    <rPh sb="1" eb="2">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ESC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2082,14 +1954,6 @@
       <t>センタクシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Select_BGM</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ステージセレクトのBGM</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Tutorial</t>
@@ -2881,34 +2745,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ESCを選択していた場合、〇ボタンでアプリを閉じる（モニターの電源が全て切れ、部屋が暗転しフェードアウト）</t>
-    <rPh sb="5" eb="7">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>デンゲン</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヘヤ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>アンテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・右矢印を選択したままと、カメラロールして次のステージが６つ表示される（ページ数をnとして、「６(n-1)+(1~6)」ステージが表示される）</t>
     <rPh sb="1" eb="2">
       <t>ミギ</t>
@@ -2934,25 +2770,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(クリア演出の流れは「ゴールブロック？に触れる」→「ワープウィンドウ？が現れる」→「ワープする」→「次のステージへ」)</t>
-    <rPh sb="4" eb="6">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ツギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトルロゴ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2995,6 +2812,434 @@
     </rPh>
     <rPh sb="49" eb="50">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①の位置にポスターが貼られていて、それがクレジットの選択肢になっている</t>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲーム終了を選択していた場合、〇ボタンでアプリを閉じる（モニターの電源が全て切れ、部屋が暗転しフェードアウト）</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>アンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②の位置に電源ボタンがあり、ゲーム終了の選択肢になっている</t>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアルステージにはステージセレクト画面と同じモニターを置き、それに操作説明動画を流す</t>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・前の画面のBGMは止め、タイトル画面と同じのBGMを流す。タイトルからの場合、音量を下げて引き継ぐ</t>
+    <rPh sb="1" eb="2">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルBGM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6815.mp3</t>
+  </si>
+  <si>
+    <t>8811.mp3</t>
+  </si>
+  <si>
+    <t>8671.mp3</t>
+  </si>
+  <si>
+    <t>8497.mp3</t>
+  </si>
+  <si>
+    <t>input_SE1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input_SE1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8659.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その４</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FallDead_SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落下死のSE</t>
+    <rPh sb="0" eb="2">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnemyHit_SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Landing_SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tutorial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(?,?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージにある説明用オブジェクト</t>
+    <rPh sb="7" eb="9">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明オブジェクトの仕様</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・張り紙なら壁、モニターならステージ上の邪魔にならない所に設置してある</t>
+    <rPh sb="1" eb="2">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジャマ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・操作の説明等が一枚絵で記されている</t>
+    <rPh sb="1" eb="3">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチマイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・一枚絵では収まらないため、数枚に分けて説明する</t>
+    <rPh sb="1" eb="3">
+      <t>イチマイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オサ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スウマイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Poster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Monitor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.8*1.2*0.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.8*1.0*0.01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明用オブジェクト(張り紙)</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガミ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>説明用オブジェクト(モニター)</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイ中のBGMは１～５，６～１０，１１～１５，１６～２０ステージに分けて変える</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア演出の流れは「ゴールブロック？に触れる」→「ワープウィンドウ？が現れる」→「ワープする」→「次のステージへ」</t>
+    <rPh sb="3" eb="5">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・フェードインすると、画面(カメラ)は初期位置(プレイヤーのスタート位置)に</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・プレイヤーが死亡するとプレイBGMの音量が</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>０になり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、死亡演出後に自動リスタートし音量を戻す(BGMを最初から流すわけではない)</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3630,6 +3875,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3647,12 +3898,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6017,6 +6262,790 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>115570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9458960" y="3780790"/>
+          <a:ext cx="1681480" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>452119</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>121919</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="939930">
+          <a:off x="9428479" y="4032250"/>
+          <a:ext cx="1681480" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292099</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>632459</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2343681">
+          <a:off x="9268459" y="4306570"/>
+          <a:ext cx="1681480" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>75564</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285114</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3923024">
+          <a:off x="8986519" y="4535171"/>
+          <a:ext cx="1681480" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="直方体 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="234950"/>
+          <a:ext cx="1607820" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 28840"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="直方体 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2682240" y="463550"/>
+          <a:ext cx="1607820" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 28840"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="直方体 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693920" y="692150"/>
+          <a:ext cx="1596390" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 28840"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="楕円 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9084310" y="3507740"/>
+          <a:ext cx="778510" cy="769620"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>231140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="楕円 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9236710" y="3660140"/>
+          <a:ext cx="486410" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>174985</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>48992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>175183</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="直方体 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2078036">
+          <a:off x="11833585" y="4407632"/>
+          <a:ext cx="670758" cy="661868"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="曲折矢印 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9014460" y="3688080"/>
+          <a:ext cx="2567940" cy="2352040"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8404"/>
+            <a:gd name="adj2" fmla="val 9786"/>
+            <a:gd name="adj3" fmla="val 14633"/>
+            <a:gd name="adj4" fmla="val 94416"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="下矢印 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11944350" y="3247390"/>
+          <a:ext cx="480060" cy="958850"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6382,7 +7411,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7863,16 +8892,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>52516</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>170677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>480857</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38072</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>18276</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7881,8 +8910,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12725400" y="4295775"/>
-          <a:ext cx="2652557" cy="1695449"/>
+          <a:off x="13644948" y="4248407"/>
+          <a:ext cx="2662854" cy="1680518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8402,16 +9431,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>61270</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>134122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>499907</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>46826</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
+      <xdr:rowOff>229371</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8420,8 +9449,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13411200" y="6086475"/>
-          <a:ext cx="2652557" cy="1695449"/>
+          <a:off x="13653702" y="6044771"/>
+          <a:ext cx="2662854" cy="1681032"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8612,15 +9641,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>281667</xdr:colOff>
+      <xdr:colOff>353747</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>195942</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>250371</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>195941</xdr:rowOff>
+      <xdr:colOff>322451</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>10296</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8629,8 +9658,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10601324" y="6847113"/>
-          <a:ext cx="1993447" cy="914399"/>
+          <a:off x="10599558" y="6590270"/>
+          <a:ext cx="1976677" cy="1379837"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8671,76 +9700,23 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ゲーム終了</a:t>
+            <a:t>②</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>370115</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>151040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>655865</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10014858" y="4494440"/>
-          <a:ext cx="1635578" cy="534761"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>クレジット</a:t>
+            <a:t>ゲーム終了</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10100,50 +11076,50 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>597243</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>41189</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>73662</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>226541</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>113271</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175054</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133864</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="楕円 14"/>
+        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6054811" y="1626973"/>
-          <a:ext cx="298622" cy="298622"/>
+          <a:off x="9650148" y="4178641"/>
+          <a:ext cx="770717" cy="3225115"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
+          <a:schemeClr val="accent1">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -10153,8 +11129,31 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クレジット</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10162,54 +11161,125 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123567</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>175054</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485552</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>18535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>72081</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>525162</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>144162</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="四角形吹き出し 15"/>
+        <xdr:cNvPr id="54" name="正方形/長方形 53"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5581135" y="854676"/>
-          <a:ext cx="1390135" cy="648729"/>
+          <a:off x="10731363" y="4322805"/>
+          <a:ext cx="2716907" cy="1958546"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -1574"/>
-            <a:gd name="adj2" fmla="val 83135"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>598823</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>131806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>391297</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30892</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10844634" y="4436076"/>
+          <a:ext cx="2469771" cy="1732005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ズームアウト用モニター</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10337,14 +11407,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10353,8 +11423,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1874520" y="1303020"/>
-          <a:ext cx="4518660" cy="2636520"/>
+          <a:off x="1874520" y="1021080"/>
+          <a:ext cx="4518660" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10386,7 +11456,67 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ポーズ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>続ける</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リスタート</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>やめる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10473,8 +11603,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2212832" y="596900"/>
-          <a:ext cx="888508" cy="2660650"/>
+          <a:off x="2167112" y="577850"/>
+          <a:ext cx="873268" cy="2565400"/>
           <a:chOff x="3058652" y="189230"/>
           <a:chExt cx="873268" cy="2565400"/>
         </a:xfrm>
@@ -10791,6 +11921,391 @@
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="297180"/>
+          <a:ext cx="3169920" cy="3970020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+            <a:t>ポスター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="358140"/>
+          <a:ext cx="167640" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="807720" y="350520"/>
+          <a:ext cx="167640" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="4046220"/>
+          <a:ext cx="167640" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3703320" y="4061460"/>
+          <a:ext cx="167640" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142754</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>411160</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>16269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4193893" y="491540"/>
+          <a:ext cx="4994735" cy="3691615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>337235</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198567</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86901</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4388374" y="631592"/>
+          <a:ext cx="4587661" cy="3390701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+            <a:t>モニター</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -11267,790 +12782,6 @@
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>115570</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9458960" y="3780790"/>
-          <a:ext cx="1681480" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>452119</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>130810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>121919</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="939930">
-          <a:off x="9428479" y="4032250"/>
-          <a:ext cx="1681480" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:alpha val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>292099</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>176530</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>632459</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>157480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="2343681">
-          <a:off x="9268459" y="4306570"/>
-          <a:ext cx="1681480" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:alpha val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>75564</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133986</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>285114</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="3923024">
-          <a:off x="8986519" y="4535171"/>
-          <a:ext cx="1681480" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="直方体 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="234950"/>
-          <a:ext cx="1607820" cy="1587500"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 28840"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="直方体 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2682240" y="463550"/>
-          <a:ext cx="1607820" cy="1587500"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 28840"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="直方体 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4693920" y="692150"/>
-          <a:ext cx="1596390" cy="1587500"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 28840"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>147320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="楕円 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9084310" y="3507740"/>
-          <a:ext cx="778510" cy="769620"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>231140</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="楕円 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9236710" y="3660140"/>
-          <a:ext cx="486410" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>174985</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>48992</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>175183</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>17440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="直方体 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="2078036">
-          <a:off x="11833585" y="4407632"/>
-          <a:ext cx="670758" cy="661868"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>58420</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="曲折矢印 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="9014460" y="3688080"/>
-          <a:ext cx="2567940" cy="2352040"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8404"/>
-            <a:gd name="adj2" fmla="val 9786"/>
-            <a:gd name="adj3" fmla="val 14633"/>
-            <a:gd name="adj4" fmla="val 94416"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="下矢印 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11944350" y="3247390"/>
-          <a:ext cx="480060" cy="958850"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -12347,13 +13078,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
@@ -12364,52 +13095,85 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L33"/>
+  <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L2" s="2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -12425,24 +13189,24 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="9" t="s">
         <v>5</v>
       </c>
@@ -12453,23 +13217,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
       <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>167</v>
+      <c r="C18" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>117</v>
+        <v>9</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -12477,7 +13241,337 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="5"/>
+      <c r="B20" s="10">
+        <v>3</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="11"/>
+      <c r="B21" s="15">
+        <v>4</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="10"/>
+      <c r="C26" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B27" s="10"/>
+      <c r="C27" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B28" s="10"/>
+      <c r="C28" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B29" s="10"/>
+      <c r="C29" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="15"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="11"/>
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="11"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4"/>
@@ -12491,7 +13585,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -12505,9 +13599,9 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -12521,7 +13615,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="11"/>
       <c r="B22" s="6" t="s">
         <v>1</v>
@@ -12545,16 +13639,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B23" s="10">
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="11" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -12562,7 +13656,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="15"/>
       <c r="C24" s="4"/>
       <c r="D24" s="8"/>
@@ -12573,7 +13667,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -12586,7 +13680,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -12602,7 +13696,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
@@ -12625,15 +13719,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B28" s="10">
         <v>1</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="26"/>
@@ -12641,16 +13735,16 @@
       <c r="I28" s="10"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29" s="10">
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="26"/>
@@ -12658,16 +13752,16 @@
       <c r="I29" s="10"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B30" s="10">
         <v>3</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="28" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="26"/>
@@ -12675,16 +13769,16 @@
       <c r="I30" s="10"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B31" s="10">
         <v>3</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="28" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="26"/>
@@ -12692,16 +13786,16 @@
       <c r="I31" s="10"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B32" s="10">
         <v>3</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="28" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="26"/>
@@ -12709,7 +13803,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="15"/>
       <c r="C33" s="14"/>
       <c r="D33" s="4"/>
@@ -12727,34 +13821,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="32" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="64"/>
+    <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="66"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -12763,28 +13857,28 @@
       <c r="H2" s="33"/>
       <c r="I2" s="22"/>
       <c r="J2" s="2" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="29"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
-      <c r="E3" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="F3" s="64"/>
+      <c r="E3" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="66"/>
       <c r="G3" s="22"/>
       <c r="H3" s="26"/>
       <c r="I3" s="22"/>
       <c r="J3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="29"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -12795,11 +13889,11 @@
       <c r="H4" s="26"/>
       <c r="I4" s="22"/>
       <c r="J4" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="29"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -12810,16 +13904,16 @@
       <c r="H5" s="26"/>
       <c r="I5" s="22"/>
       <c r="J5" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="29"/>
-      <c r="B6" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="64"/>
+      <c r="B6" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="66"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -12827,11 +13921,11 @@
       <c r="H6" s="26"/>
       <c r="I6" s="22"/>
       <c r="J6" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="29"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -12842,11 +13936,11 @@
       <c r="H7" s="26"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="29"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -12858,7 +13952,7 @@
       <c r="I8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="29"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -12869,11 +13963,11 @@
       <c r="H9" s="26"/>
       <c r="I9" s="22"/>
       <c r="J9" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="29"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -12884,11 +13978,11 @@
       <c r="H10" s="26"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="29"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -12900,7 +13994,7 @@
       <c r="I11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="29"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -12913,7 +14007,7 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="29"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -12923,7 +14017,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="29"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -12933,7 +14027,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="29"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -12943,7 +14037,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="29"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -12956,38 +14050,38 @@
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="29"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="29"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
+      <c r="E18" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="68"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="29"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -12997,7 +14091,7 @@
       <c r="G20" s="22"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="29"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -13007,7 +14101,7 @@
       <c r="G21" s="22"/>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="29"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -13017,7 +14111,7 @@
       <c r="G22" s="22"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="29"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -13027,7 +14121,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="29"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -13037,7 +14131,7 @@
       <c r="G24" s="22"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="29"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -13047,7 +14141,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="34"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -13057,9 +14151,9 @@
       <c r="G26" s="18"/>
       <c r="H26" s="17"/>
     </row>
-    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -13073,7 +14167,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="5"/>
       <c r="B30" s="35" t="s">
         <v>1</v>
@@ -13101,23 +14195,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="42">
         <v>1</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
@@ -13125,23 +14219,23 @@
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
       <c r="B32" s="49">
         <v>2</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="52" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="G32" s="54" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="55"/>
@@ -13149,23 +14243,23 @@
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
     </row>
-    <row r="33" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="11"/>
       <c r="B33" s="56">
         <v>3</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="59" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
@@ -13173,7 +14267,7 @@
       <c r="K33" s="56"/>
       <c r="L33" s="56"/>
     </row>
-    <row r="35" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -13189,7 +14283,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B36" s="6" t="s">
         <v>1</v>
       </c>
@@ -13212,27 +14306,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B37" s="10"/>
       <c r="C37" s="24" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="20" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="10"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" s="10"/>
       <c r="C38" s="13" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="20" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
@@ -13240,14 +14334,14 @@
       <c r="I38" s="10"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B39" s="10"/>
       <c r="C39" s="28" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="22" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="26"/>
@@ -13255,14 +14349,14 @@
       <c r="I39" s="10"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B40" s="10"/>
       <c r="C40" s="13" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="20" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="26"/>
@@ -13270,7 +14364,7 @@
       <c r="I40" s="10"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="15"/>
       <c r="C41" s="14"/>
       <c r="D41" s="8"/>
@@ -13300,68 +14394,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K11" s="69" t="s">
-        <v>257</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K11" s="63" t="s">
+        <v>238</v>
       </c>
       <c r="L11" s="27"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="M13" s="70" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="M13" s="64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -13378,7 +14472,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>1</v>
@@ -13407,13 +14501,13 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
@@ -13423,7 +14517,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -13432,7 +14526,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -13447,9 +14541,9 @@
       <c r="L27" s="11"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -13464,7 +14558,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
         <v>1</v>
@@ -13492,13 +14586,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="5"/>
       <c r="B30" s="10">
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="11" t="s">
@@ -13508,7 +14602,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -13517,7 +14611,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -13531,7 +14625,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -13547,7 +14641,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="3"/>
       <c r="B33" s="6" t="s">
         <v>1</v>
@@ -13571,16 +14665,16 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B34" s="10">
         <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="13"/>
@@ -13589,16 +14683,16 @@
       <c r="J34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="15">
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="14"/>
@@ -13606,7 +14700,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="11"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -13620,15 +14714,15 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="11"/>
       <c r="B37" s="22"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="11"/>
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
     </row>
   </sheetData>
@@ -13643,45 +14737,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -13696,7 +14790,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>1</v>
@@ -13725,23 +14819,23 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -13750,7 +14844,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -13763,7 +14857,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -13779,7 +14873,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
         <v>1</v>
@@ -13803,17 +14897,17 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="23">
         <v>1</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="24"/>
@@ -13822,17 +14916,17 @@
       <c r="J30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3"/>
       <c r="B31" s="15">
         <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="14"/>
@@ -13840,7 +14934,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -13863,59 +14957,59 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M10" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -13923,9 +15017,9 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -13935,9 +15029,9 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -13947,44 +15041,49 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M16" s="1" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="M19" s="1"/>
       <c r="N19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Z21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -13999,8 +15098,11 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Z23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -14029,23 +15131,23 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -14054,13 +15156,13 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -14079,13 +15181,13 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="10">
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
@@ -14104,13 +15206,13 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="B28" s="10">
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
@@ -14129,13 +15231,13 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="10">
         <v>5</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="11" t="s">
@@ -14145,7 +15247,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -14154,13 +15256,13 @@
       <c r="L29" s="5"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="10">
         <v>6</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="11" t="s">
@@ -14170,7 +15272,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -14179,13 +15281,13 @@
       <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" s="11"/>
       <c r="B31" s="10">
         <v>7</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="11" t="s">
@@ -14195,7 +15297,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -14204,13 +15306,13 @@
       <c r="L31" s="5"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
       <c r="B32" s="10">
         <v>8</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="11" t="s">
@@ -14220,7 +15322,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -14229,23 +15331,23 @@
       <c r="L32" s="5"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="11"/>
       <c r="B33" s="10">
         <v>9</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -14254,13 +15356,13 @@
       <c r="L33" s="5"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="3"/>
       <c r="B34" s="15">
         <v>10</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="14" t="s">
@@ -14270,7 +15372,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="8"/>
@@ -14279,10 +15381,10 @@
       <c r="L34" s="15"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -14298,7 +15400,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="5"/>
       <c r="B37" s="6" t="s">
         <v>1</v>
@@ -14323,17 +15425,17 @@
       </c>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="23">
         <v>1</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="25" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="26"/>
@@ -14341,17 +15443,17 @@
       <c r="I38" s="23"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="10">
         <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="20" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="26"/>
@@ -14359,20 +15461,20 @@
       <c r="I39" s="10"/>
       <c r="J39" s="5"/>
       <c r="N39" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="3"/>
       <c r="B40" s="15">
         <v>3</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="17"/>
@@ -14382,10 +15484,10 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="N40" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="M41" s="3"/>
     </row>
   </sheetData>
@@ -14398,106 +15500,108 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M7" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M16" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M19" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M20" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -14513,7 +15617,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -14531,48 +15635,49 @@
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="27"/>
+      <c r="K24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="L24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="5"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A26" s="11"/>
       <c r="B26" s="10">
         <v>2</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>68</v>
+      <c r="C26" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -14582,22 +15687,22 @@
         <v>9</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="J26" s="26"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="10">
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
@@ -14607,47 +15712,47 @@
         <v>9</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="J27" s="26"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="11"/>
       <c r="B28" s="10">
         <v>4</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>66</v>
+      <c r="C28" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>63</v>
+      <c r="G28" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="J28" s="26"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
       <c r="B29" s="10">
         <v>5</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>65</v>
+      <c r="C29" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="13" t="s">
@@ -14656,70 +15761,70 @@
       <c r="F29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>62</v>
+      <c r="G29" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="J29" s="26"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>70</v>
+        <v>263</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>9</v>
+        <v>264</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J30" s="26"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3"/>
       <c r="B31" s="15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H31" s="4"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="15"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="17"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -14736,7 +15841,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
         <v>1</v>
@@ -14760,17 +15865,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="10">
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="24" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="26"/>
@@ -14778,52 +15883,81 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="10">
         <v>2</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>88</v>
+        <v>250</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
       <c r="H36" s="13"/>
       <c r="I36" s="10"/>
       <c r="J36" s="5"/>
-      <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M40" s="3"/>
+      <c r="B37" s="10">
+        <v>3</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="5"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="5"/>
+      <c r="B38" s="15">
+        <v>4</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M41" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -14838,54 +15972,54 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -14902,7 +16036,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>1</v>
@@ -14931,23 +16065,23 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -14956,23 +16090,23 @@
       <c r="L25" s="5"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -14981,23 +16115,23 @@
       <c r="L26" s="5"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="10">
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -15006,23 +16140,23 @@
       <c r="L27" s="5"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="10">
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -15031,7 +16165,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="4"/>
@@ -15046,7 +16180,7 @@
       <c r="L29" s="8"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -15061,7 +16195,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -15078,7 +16212,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
         <v>1</v>
@@ -15102,17 +16236,17 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="23">
         <v>1</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>47</v>
+        <v>252</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="31" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="24"/>
@@ -15120,17 +16254,17 @@
       <c r="I34" s="12"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3"/>
       <c r="B35" s="15">
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="14"/>
@@ -15141,7 +16275,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -15156,64 +16290,64 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L37"/>
+  <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F5" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -15229,7 +16363,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -15257,13 +16391,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="10">
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11" t="s">
@@ -15273,7 +16407,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -15281,7 +16415,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="5"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4"/>
@@ -15295,7 +16429,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -15309,9 +16443,9 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -15323,7 +16457,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>1</v>
@@ -15348,17 +16482,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="10">
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="11" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -15367,17 +16501,17 @@
       <c r="J23" s="10"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="10">
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="11" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -15386,17 +16520,17 @@
       <c r="J24" s="10"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="10">
         <v>3</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="20" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -15405,17 +16539,17 @@
       <c r="J25" s="10"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="10">
         <v>4</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="20" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -15424,17 +16558,17 @@
       <c r="J26" s="10"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="10">
         <v>5</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -15443,17 +16577,17 @@
       <c r="J27" s="10"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="10">
         <v>6</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -15462,7 +16596,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="4"/>
@@ -15475,7 +16609,7 @@
       <c r="J29" s="15"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -15489,7 +16623,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -15505,7 +16639,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="6" t="s">
         <v>1</v>
       </c>
@@ -15528,16 +16662,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B33" s="10">
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="28" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="26"/>
@@ -15545,16 +16679,16 @@
       <c r="I33" s="10"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B34" s="10">
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="28" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="26"/>
@@ -15562,16 +16696,16 @@
       <c r="I34" s="10"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B35" s="10">
         <v>3</v>
       </c>
-      <c r="C35" s="28" t="s">
-        <v>90</v>
+      <c r="C35" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="D35" s="11"/>
-      <c r="E35" s="29" t="s">
-        <v>91</v>
+      <c r="E35" s="28" t="s">
+        <v>262</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="26"/>
@@ -15579,27 +16713,44 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="15"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B36" s="10">
+        <v>4</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="15"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -15610,85 +16761,195 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:P23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="4" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="16:16" x14ac:dyDescent="0.45">
+      <c r="P7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="21" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="15"/>
+      <c r="C23" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -15704,10 +16965,10 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -15735,13 +16996,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="10">
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11" t="s">
@@ -15751,7 +17012,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -15759,13 +17020,13 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="10">
         <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="11" t="s">
@@ -15775,7 +17036,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -15783,23 +17044,23 @@
       <c r="K19" s="10"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="10">
         <v>3</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -15807,7 +17068,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="5"/>
       <c r="B21" s="15"/>
       <c r="C21" s="4"/>
@@ -15821,7 +17082,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
@@ -15835,7 +17096,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="6" t="s">
         <v>1</v>
       </c>
@@ -15860,16 +17121,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B25" s="10">
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="28" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="22"/>
@@ -15879,16 +17140,16 @@
       <c r="K25" s="10"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B26" s="10">
         <v>2</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -15898,16 +17159,16 @@
       <c r="K26" s="10"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B27" s="10">
         <v>3</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="22"/>
@@ -15917,14 +17178,14 @@
       <c r="K27" s="10"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="15"/>
       <c r="C28" s="14" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="28" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="18"/>
@@ -15934,7 +17195,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -15951,367 +17212,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M2" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-      <c r="M13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="M14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="10">
-        <v>2</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="10">
-        <v>3</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="11"/>
-      <c r="B21" s="15">
-        <v>4</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="10"/>
-      <c r="C26" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="10"/>
-      <c r="C27" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="10"/>
-      <c r="C28" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B29" s="10"/>
-      <c r="C29" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="15"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="281">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -727,14 +727,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>input_SE2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>input_SE3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>(?,?)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -925,30 +917,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Walk_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Jump_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Gun_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Move_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Change_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Posture_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>銃を構えた時にSE</t>
     <rPh sb="0" eb="1">
       <t>ジュウ</t>
@@ -1436,18 +1404,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Break_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Born_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Crash_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>青ブロックが壊れた時のSE</t>
     <rPh sb="0" eb="1">
       <t>アオ</t>
@@ -1605,10 +1561,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>E.Voice_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵の声</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -1638,10 +1590,6 @@
     <t>焼けるような「ジジジッ」という音</t>
   </si>
   <si>
-    <t>Laser_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・プレイヤーが範囲内(レーザーを軸に半径５ｍ)にいる時、レーザーの音(Laser_SE)が聞こえる</t>
     <rPh sb="7" eb="10">
       <t>ハンイナイ</t>
@@ -1661,10 +1609,6 @@
     <rPh sb="45" eb="46">
       <t>キ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LaserHit_SE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2280,10 +2224,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Switch_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スイッチが押されたときのSE</t>
     <rPh sb="5" eb="6">
       <t>オ</t>
@@ -2291,10 +2231,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S.Move_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スイッチブロックが動く時のSE</t>
     <rPh sb="9" eb="10">
       <t>ウゴ</t>
@@ -2305,18 +2241,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S.Stop_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スイッチブロックが停止したときのSE</t>
     <rPh sb="9" eb="11">
       <t>テイシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S.Hit_SE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2951,17 +2879,6 @@
     <t>8671.mp3</t>
   </si>
   <si>
-    <t>8497.mp3</t>
-  </si>
-  <si>
-    <t>input_SE1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>input_SE1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>8659.mp3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2971,14 +2888,6 @@
   </si>
   <si>
     <t>その３</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その４</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FallDead_SE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2989,14 +2898,6 @@
     <rPh sb="2" eb="3">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EnemyHit_SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Landing_SE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3241,6 +3142,111 @@
     <rPh sb="55" eb="56">
       <t>ナガ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8497.mp2</t>
+  </si>
+  <si>
+    <t>その３</t>
+  </si>
+  <si>
+    <t>Goal_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールのワープ時のSE</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input_SE3.mp3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input_SE1.mp3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input_SE2.mp3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Walk_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Landing_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jump_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FallDead_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E.Voice_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnemyHit_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Laser_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LaserHit_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Move_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Break_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Born_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Crash_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Posture_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gun_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Change_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Switch_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.Move_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.Stop_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S.Hit_SE.mp3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -13098,7 +13104,7 @@
   <dimension ref="A2:M30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13109,68 +13115,68 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="M13" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13223,7 +13229,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
@@ -13233,7 +13239,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -13247,7 +13253,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="11" t="s">
@@ -13257,7 +13263,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -13271,7 +13277,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="13" t="s">
@@ -13281,7 +13287,7 @@
         <v>9</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -13295,7 +13301,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="14" t="s">
@@ -13305,7 +13311,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -13371,11 +13377,11 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
       <c r="C26" s="13" t="s">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -13388,11 +13394,11 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
-        <v>123</v>
+        <v>271</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="22"/>
@@ -13405,10 +13411,10 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B28" s="10"/>
       <c r="C28" s="20" t="s">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="22"/>
@@ -13421,11 +13427,11 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29" s="10"/>
       <c r="C29" s="13" t="s">
-        <v>125</v>
+        <v>273</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="22"/>
@@ -13461,7 +13467,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13472,35 +13478,35 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L4" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13553,7 +13559,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
@@ -13563,7 +13569,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -13601,7 +13607,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -13644,11 +13650,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="11" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -13724,10 +13730,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="26"/>
@@ -13740,11 +13746,11 @@
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>73</v>
+        <v>275</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="26"/>
@@ -13757,11 +13763,11 @@
         <v>3</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>75</v>
+        <v>276</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="28" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="26"/>
@@ -13774,11 +13780,11 @@
         <v>3</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>75</v>
+        <v>276</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="28" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="26"/>
@@ -13791,11 +13797,11 @@
         <v>3</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>75</v>
+        <v>276</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="28" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="26"/>
@@ -13825,8 +13831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13838,7 +13844,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="32" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
@@ -13846,7 +13852,7 @@
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="65" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="21"/>
@@ -13857,7 +13863,7 @@
       <c r="H2" s="33"/>
       <c r="I2" s="22"/>
       <c r="J2" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="K2" s="22"/>
     </row>
@@ -13867,14 +13873,14 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="65" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="22"/>
       <c r="H3" s="26"/>
       <c r="I3" s="22"/>
       <c r="J3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="K3" s="22"/>
     </row>
@@ -13889,7 +13895,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="22"/>
       <c r="J4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K4" s="22"/>
     </row>
@@ -13904,14 +13910,14 @@
       <c r="H5" s="26"/>
       <c r="I5" s="22"/>
       <c r="J5" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="29"/>
       <c r="B6" s="65" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C6" s="66"/>
       <c r="D6" s="22"/>
@@ -13921,7 +13927,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="22"/>
       <c r="J6" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="K6" s="22"/>
     </row>
@@ -13936,7 +13942,7 @@
       <c r="H7" s="26"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="K7" s="22"/>
     </row>
@@ -13963,7 +13969,7 @@
       <c r="H9" s="26"/>
       <c r="I9" s="22"/>
       <c r="J9" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="K9" s="22"/>
     </row>
@@ -13978,7 +13984,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="K10" s="22"/>
     </row>
@@ -14063,7 +14069,7 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="67" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F18" s="68"/>
       <c r="G18" s="69"/>
@@ -14071,7 +14077,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="70" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B19" s="68"/>
       <c r="C19" s="69"/>
@@ -14153,7 +14159,7 @@
     </row>
     <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -14201,17 +14207,17 @@
         <v>1</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
@@ -14225,17 +14231,17 @@
         <v>2</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="52" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="G32" s="54" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="55"/>
@@ -14249,17 +14255,17 @@
         <v>3</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="59" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
@@ -14309,11 +14315,11 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B37" s="10"/>
       <c r="C37" s="24" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="20" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="10"/>
@@ -14322,11 +14328,11 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" s="10"/>
       <c r="C38" s="13" t="s">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="20" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
@@ -14337,11 +14343,11 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B39" s="10"/>
       <c r="C39" s="28" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="22" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="26"/>
@@ -14352,11 +14358,11 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B40" s="10"/>
       <c r="C40" s="13" t="s">
-        <v>209</v>
+        <v>280</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="20" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="26"/>
@@ -14395,7 +14401,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14424,29 +14430,29 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K11" s="63" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="L11" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
       <c r="M13" s="64" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -14507,7 +14513,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
@@ -14517,7 +14523,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -14543,7 +14549,7 @@
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -14592,7 +14598,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="11" t="s">
@@ -14602,7 +14608,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -14670,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="11" t="s">
@@ -14688,11 +14694,11 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="14"/>
@@ -14738,7 +14744,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:E31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14762,7 +14768,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
@@ -14775,7 +14781,7 @@
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -14922,11 +14928,11 @@
         <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="14"/>
@@ -14959,8 +14965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A23" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14974,7 +14980,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -14984,17 +14990,17 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
@@ -15004,12 +15010,12 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M10" s="1" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -15019,7 +15025,7 @@
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -15031,7 +15037,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -15043,7 +15049,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -15051,7 +15057,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M16" s="1" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -15075,12 +15081,12 @@
     <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="M19" s="1"/>
       <c r="N19" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="Z21" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15099,7 +15105,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="Z23" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15137,17 +15143,17 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -15162,7 +15168,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -15187,7 +15193,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
@@ -15212,7 +15218,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
@@ -15237,7 +15243,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="11" t="s">
@@ -15247,7 +15253,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -15262,7 +15268,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="11" t="s">
@@ -15272,7 +15278,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -15287,7 +15293,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="11" t="s">
@@ -15297,7 +15303,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -15312,7 +15318,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="11" t="s">
@@ -15322,7 +15328,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -15337,17 +15343,17 @@
         <v>9</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -15362,7 +15368,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="14" t="s">
@@ -15372,7 +15378,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="8"/>
@@ -15431,11 +15437,11 @@
         <v>1</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="25" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="26"/>
@@ -15449,11 +15455,11 @@
         <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="26"/>
@@ -15461,7 +15467,7 @@
       <c r="I39" s="10"/>
       <c r="J39" s="5"/>
       <c r="N39" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15470,11 +15476,11 @@
         <v>3</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="17"/>
@@ -15484,7 +15490,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="N40" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
@@ -15500,10 +15506,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="A21" zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -15527,7 +15533,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
@@ -15552,7 +15558,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
@@ -15562,7 +15568,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
@@ -15572,7 +15578,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M16" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -15595,7 +15601,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M19" s="1" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
@@ -15652,7 +15658,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="11" t="s">
@@ -15662,7 +15668,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -15677,7 +15683,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -15687,7 +15693,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -15702,7 +15708,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
@@ -15712,7 +15718,7 @@
         <v>9</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -15727,7 +15733,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="13" t="s">
@@ -15737,7 +15743,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -15752,7 +15758,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="13" t="s">
@@ -15762,7 +15768,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -15777,17 +15783,17 @@
         <v>6</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -15802,17 +15808,17 @@
         <v>7</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -15871,11 +15877,11 @@
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="26"/>
@@ -15889,11 +15895,11 @@
         <v>2</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="13" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
@@ -15907,10 +15913,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="26"/>
@@ -15919,45 +15925,64 @@
       <c r="J37" s="5"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="15">
+      <c r="B38" s="10">
         <v>4</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="5"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="5"/>
+      <c r="B39" s="15">
+        <v>5</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
         <v>251</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M42" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -15971,7 +15996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -16071,17 +16096,17 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -16096,17 +16121,17 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -16121,17 +16146,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -16146,17 +16171,17 @@
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -16242,11 +16267,11 @@
         <v>1</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="24"/>
@@ -16260,11 +16285,11 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="14"/>
@@ -16292,8 +16317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -16305,46 +16330,46 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F5" s="1" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L8" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -16397,7 +16422,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11" t="s">
@@ -16407,7 +16432,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -16445,7 +16470,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -16488,11 +16513,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -16507,11 +16532,11 @@
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="11" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -16526,11 +16551,11 @@
         <v>3</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="20" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -16545,11 +16570,11 @@
         <v>4</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -16564,11 +16589,11 @@
         <v>5</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -16583,11 +16608,11 @@
         <v>6</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -16667,11 +16692,11 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="26"/>
@@ -16684,11 +16709,11 @@
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="26"/>
@@ -16701,11 +16726,11 @@
         <v>3</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="28" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="26"/>
@@ -16718,11 +16743,11 @@
         <v>4</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="29" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
@@ -16763,7 +16788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+    <sheetView zoomScale="79" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -16771,22 +16796,22 @@
   <sheetData>
     <row r="4" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P4" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P5" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P6" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P7" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -16823,18 +16848,18 @@
         <v>1</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="11" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -16845,16 +16870,16 @@
     <row r="23" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="15"/>
       <c r="C23" s="4" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="4" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="8"/>
       <c r="H23" s="4" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -16873,8 +16898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -16886,67 +16911,67 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -16965,7 +16990,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -17002,7 +17027,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11" t="s">
@@ -17012,7 +17037,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -17026,7 +17051,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="11" t="s">
@@ -17036,7 +17061,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -17050,17 +17075,17 @@
         <v>3</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -17126,11 +17151,11 @@
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="28" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="22"/>
@@ -17145,11 +17170,11 @@
         <v>2</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -17164,11 +17189,11 @@
         <v>3</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>143</v>
+        <v>268</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="22"/>
@@ -17181,11 +17206,11 @@
     <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="15"/>
       <c r="C28" s="14" t="s">
-        <v>145</v>
+        <v>269</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="28" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="18"/>

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="287">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -3148,9 +3148,6 @@
     <t>8497.mp2</t>
   </si>
   <si>
-    <t>その３</t>
-  </si>
-  <si>
     <t>Goal_SE.mp3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3247,6 +3244,30 @@
   </si>
   <si>
     <t>S.Hit_SE.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6815.mp3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6815.mp3　(DOVA-SYNDROME　チョコミント 様)</t>
+  </si>
+  <si>
+    <t>8671.mp3　(DOVA-SYNDROME　かずち 様)</t>
+  </si>
+  <si>
+    <t>8659.mp3　(DOVA-SYNDROME　かずち 様)</t>
+  </si>
+  <si>
+    <t>8497.mp3　(DOVA-SYNDROME　Gimgigam 様)</t>
+  </si>
+  <si>
+    <t>8811.mp3　(DOVA-SYNDROME　かずち 様)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -13377,7 +13398,7 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
       <c r="C26" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
@@ -13394,7 +13415,7 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
@@ -13411,7 +13432,7 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B28" s="10"/>
       <c r="C28" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>117</v>
@@ -13427,7 +13448,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29" s="10"/>
       <c r="C29" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
@@ -13730,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>69</v>
@@ -13746,7 +13767,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
@@ -13763,7 +13784,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="28" t="s">
@@ -13780,7 +13801,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="28" t="s">
@@ -13797,7 +13818,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="28" t="s">
@@ -13831,7 +13852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -14315,7 +14336,7 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B37" s="10"/>
       <c r="C37" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="20" t="s">
@@ -14328,7 +14349,7 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" s="10"/>
       <c r="C38" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="20" t="s">
@@ -14343,7 +14364,7 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B39" s="10"/>
       <c r="C39" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="22" t="s">
@@ -14358,7 +14379,7 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B40" s="10"/>
       <c r="C40" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="20" t="s">
@@ -14400,8 +14421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14676,7 +14697,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="11" t="s">
@@ -14687,6 +14708,9 @@
       <c r="H34" s="10"/>
       <c r="I34" s="5"/>
       <c r="J34" s="3"/>
+      <c r="K34" t="s">
+        <v>281</v>
+      </c>
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -14694,7 +14718,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
@@ -14928,7 +14952,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="4" t="s">
@@ -15455,7 +15479,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="20" t="s">
@@ -15476,7 +15500,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="4" t="s">
@@ -15508,8 +15532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -15888,6 +15912,9 @@
       <c r="H35" s="13"/>
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
+      <c r="L35" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
@@ -15906,6 +15933,9 @@
       <c r="H36" s="13"/>
       <c r="I36" s="10"/>
       <c r="J36" s="5"/>
+      <c r="L36" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
@@ -15923,6 +15953,9 @@
       <c r="H37" s="13"/>
       <c r="I37" s="10"/>
       <c r="J37" s="5"/>
+      <c r="L37" t="s">
+        <v>283</v>
+      </c>
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
@@ -15935,13 +15968,16 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="13" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
       <c r="H38" s="13"/>
       <c r="I38" s="10"/>
       <c r="J38" s="5"/>
+      <c r="L38" t="s">
+        <v>284</v>
+      </c>
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15950,17 +15986,18 @@
         <v>5</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="17"/>
       <c r="H39" s="14"/>
       <c r="I39" s="15"/>
       <c r="J39" s="8"/>
+      <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
@@ -15974,7 +16011,6 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
@@ -16267,7 +16303,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="31" t="s">
@@ -16285,7 +16321,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
@@ -16692,7 +16728,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="28" t="s">
@@ -16709,7 +16745,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="28" t="s">
@@ -16726,7 +16762,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="28" t="s">
@@ -16743,7 +16779,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="29" t="s">
@@ -17151,7 +17187,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="28" t="s">
@@ -17170,7 +17206,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
@@ -17189,7 +17225,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
@@ -17206,7 +17242,7 @@
     <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="15"/>
       <c r="C28" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="28" t="s">

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -207,19 +207,6 @@
     <t>・Lスティックで選択</t>
     <rPh sb="8" eb="10">
       <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・「リスタート」を選択し、〇ボタンでステージの形とプレイヤーの位置をリセットする。</t>
-    <rPh sb="9" eb="11">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>イチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -321,55 +308,6 @@
   </si>
   <si>
     <r>
-      <t>・ステージを選択して〇ボタンでBGMが止まり、SEと共にフェードアウト。選択されたステージの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>プレイ画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に切り替わる</t>
-    </r>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>トモ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>・</t>
     </r>
     <r>
@@ -594,111 +532,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>・「続ける」を選択し、〇ボタンで</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>プレイ画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に戻る(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ポーズウィンドウ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>が消える)</t>
-    </r>
-    <rPh sb="2" eb="3">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・「やめる」を選択し、〇ボタンでフェードアウト(暗転)して</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ステージセレクト画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に戻る</t>
-    </r>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>アンテン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトルのBGM</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1007,10 +840,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・〇ボタンでジャンプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・HPは１</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1804,86 +1633,6 @@
       <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・〇ボタンor×ボタンを押すと、SEと共にフェードアウト(暗転)して</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ステージセレクト画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>へ</t>
-    </r>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>トモ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>アンテン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・〇ボタンor×ボタンを押すと、SEと共にフェードアウト(暗転)し</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ステージセレクト画面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>へ</t>
-    </r>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>トモ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>アンテン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ESC</t>
@@ -2722,28 +2471,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・正面にはドアがあり、○ボタンor×ボタン入力でプレイヤーがドアをくぐり、シーン遷移（移動は自動で行う）</t>
-    <rPh sb="1" eb="3">
-      <t>ショウメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①の位置にポスターが貼られていて、それがクレジットの選択肢になっている</t>
     <rPh sb="2" eb="4">
       <t>イチ</t>
@@ -2753,37 +2480,6 @@
     </rPh>
     <rPh sb="26" eb="29">
       <t>センタクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ゲーム終了を選択していた場合、〇ボタンでアプリを閉じる（モニターの電源が全て切れ、部屋が暗転しフェードアウト）</t>
-    <rPh sb="4" eb="6">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>デンゲン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヘヤ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>アンテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3268,6 +2964,310 @@
   </si>
   <si>
     <t>その4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Aボタンでジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・「続ける」を選択し、Aボタンで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プレイ画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に戻る(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ポーズウィンドウ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が消える)</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「リスタート」を選択し、Aボタンでステージの形とプレイヤーの位置をリセットする。</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・「やめる」を選択し、Aボタンでフェードアウト(暗転)して</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ステージセレクト画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に戻る</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>アンテン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・ステージを選択してAボタンでBGMが止まり、SEと共にフェードアウト。選択されたステージの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プレイ画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に切り替わる</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲーム終了を選択していた場合、Aボタンでアプリを閉じる（モニターの電源が全て切れ、部屋が暗転しフェードアウト）</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>アンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・正面にはドアがあり、Aボタン入力でプレイヤーがドアをくぐり、シーン遷移（移動は自動で行う）</t>
+    <rPh sb="1" eb="3">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・Aボタンを押すと、SEと共にフェードアウト(暗転)して</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ステージセレクト画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>へ</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>アンテン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・Aボタンを押すと、SEと共にフェードアウト(暗転)し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ステージセレクト画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>へ</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>アンテン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -13124,7 +13124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -13136,68 +13136,68 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13250,7 +13250,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
@@ -13260,7 +13260,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -13274,7 +13274,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="11" t="s">
@@ -13284,7 +13284,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -13298,7 +13298,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="13" t="s">
@@ -13308,7 +13308,7 @@
         <v>9</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -13322,7 +13322,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="14" t="s">
@@ -13332,7 +13332,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -13398,11 +13398,11 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
       <c r="C26" s="13" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -13415,11 +13415,11 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="22"/>
@@ -13432,10 +13432,10 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B28" s="10"/>
       <c r="C28" s="20" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="22"/>
@@ -13448,11 +13448,11 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29" s="10"/>
       <c r="C29" s="13" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="22"/>
@@ -13487,7 +13487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -13499,35 +13499,35 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13580,7 +13580,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
@@ -13590,7 +13590,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -13628,7 +13628,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -13671,11 +13671,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -13751,10 +13751,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="26"/>
@@ -13767,11 +13767,11 @@
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="26"/>
@@ -13784,11 +13784,11 @@
         <v>3</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="28" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="26"/>
@@ -13801,11 +13801,11 @@
         <v>3</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="28" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="26"/>
@@ -13818,11 +13818,11 @@
         <v>3</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="28" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="26"/>
@@ -13852,7 +13852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -13865,7 +13865,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="32" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
@@ -13873,7 +13873,7 @@
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="65" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="21"/>
@@ -13884,7 +13884,7 @@
       <c r="H2" s="33"/>
       <c r="I2" s="22"/>
       <c r="J2" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K2" s="22"/>
     </row>
@@ -13894,14 +13894,14 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="65" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="22"/>
       <c r="H3" s="26"/>
       <c r="I3" s="22"/>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K3" s="22"/>
     </row>
@@ -13916,7 +13916,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="22"/>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K4" s="22"/>
     </row>
@@ -13931,14 +13931,14 @@
       <c r="H5" s="26"/>
       <c r="I5" s="22"/>
       <c r="J5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="29"/>
       <c r="B6" s="65" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C6" s="66"/>
       <c r="D6" s="22"/>
@@ -13948,7 +13948,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="22"/>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K6" s="22"/>
     </row>
@@ -13963,7 +13963,7 @@
       <c r="H7" s="26"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K7" s="22"/>
     </row>
@@ -13990,7 +13990,7 @@
       <c r="H9" s="26"/>
       <c r="I9" s="22"/>
       <c r="J9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K9" s="22"/>
     </row>
@@ -14005,7 +14005,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K10" s="22"/>
     </row>
@@ -14090,7 +14090,7 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="67" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F18" s="68"/>
       <c r="G18" s="69"/>
@@ -14098,7 +14098,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="70" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B19" s="68"/>
       <c r="C19" s="69"/>
@@ -14180,7 +14180,7 @@
     </row>
     <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -14228,17 +14228,17 @@
         <v>1</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
@@ -14252,17 +14252,17 @@
         <v>2</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="52" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G32" s="54" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="55"/>
@@ -14276,17 +14276,17 @@
         <v>3</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="59" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
@@ -14336,11 +14336,11 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B37" s="10"/>
       <c r="C37" s="24" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="20" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="10"/>
@@ -14349,11 +14349,11 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" s="10"/>
       <c r="C38" s="13" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="20" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
@@ -14364,11 +14364,11 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B39" s="10"/>
       <c r="C39" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="22" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="26"/>
@@ -14379,11 +14379,11 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B40" s="10"/>
       <c r="C40" s="13" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="20" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="26"/>
@@ -14421,8 +14421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14446,34 +14446,34 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>158</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K11" s="63" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L11" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
       <c r="M13" s="64" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -14534,7 +14534,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
@@ -14544,7 +14544,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -14570,7 +14570,7 @@
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -14619,7 +14619,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="11" t="s">
@@ -14629,7 +14629,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -14697,11 +14697,11 @@
         <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="13"/>
@@ -14709,7 +14709,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="3"/>
       <c r="K34" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="M34" s="3"/>
     </row>
@@ -14718,11 +14718,11 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="14"/>
@@ -14767,8 +14767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14792,12 +14792,12 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>159</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
@@ -14805,7 +14805,7 @@
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -14855,17 +14855,17 @@
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -14933,11 +14933,11 @@
         <v>1</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="24"/>
@@ -14952,11 +14952,11 @@
         <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="14"/>
@@ -14989,8 +14989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A4" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -15004,7 +15004,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -15014,32 +15014,32 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M9" s="1" t="s">
-        <v>25</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M10" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -15049,7 +15049,7 @@
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -15061,7 +15061,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -15073,7 +15073,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -15081,7 +15081,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M16" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -15105,12 +15105,12 @@
     <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="M19" s="1"/>
       <c r="N19" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="Z21" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15129,7 +15129,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="Z23" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15167,17 +15167,17 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -15192,7 +15192,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -15217,7 +15217,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
@@ -15242,7 +15242,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
@@ -15267,7 +15267,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="11" t="s">
@@ -15277,7 +15277,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -15292,7 +15292,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="11" t="s">
@@ -15302,7 +15302,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -15317,7 +15317,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="11" t="s">
@@ -15327,7 +15327,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -15342,7 +15342,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="11" t="s">
@@ -15352,7 +15352,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -15367,17 +15367,17 @@
         <v>9</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -15392,7 +15392,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="14" t="s">
@@ -15402,7 +15402,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="8"/>
@@ -15461,11 +15461,11 @@
         <v>1</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="25" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="26"/>
@@ -15479,11 +15479,11 @@
         <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="26"/>
@@ -15491,7 +15491,7 @@
       <c r="I39" s="10"/>
       <c r="J39" s="5"/>
       <c r="N39" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15500,11 +15500,11 @@
         <v>3</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="17"/>
@@ -15514,7 +15514,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="N40" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
@@ -15532,7 +15532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -15552,37 +15552,37 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
@@ -15592,7 +15592,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
@@ -15602,7 +15602,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M16" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -15625,7 +15625,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M19" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
@@ -15682,7 +15682,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="11" t="s">
@@ -15692,7 +15692,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -15707,7 +15707,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -15717,7 +15717,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -15732,7 +15732,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
@@ -15742,7 +15742,7 @@
         <v>9</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -15757,7 +15757,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="13" t="s">
@@ -15767,7 +15767,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -15782,7 +15782,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="13" t="s">
@@ -15792,7 +15792,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -15807,17 +15807,17 @@
         <v>6</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -15832,17 +15832,17 @@
         <v>7</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -15901,11 +15901,11 @@
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="26"/>
@@ -15913,7 +15913,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
       <c r="L35" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
@@ -15922,11 +15922,11 @@
         <v>2</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="13" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
@@ -15934,7 +15934,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="5"/>
       <c r="L36" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
@@ -15943,10 +15943,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="26"/>
@@ -15954,7 +15954,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="5"/>
       <c r="L37" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="M37" s="3"/>
     </row>
@@ -15964,11 +15964,11 @@
         <v>4</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="13" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
@@ -15976,7 +15976,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="5"/>
       <c r="L38" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="M38" s="3"/>
     </row>
@@ -15986,11 +15986,11 @@
         <v>5</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="14" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="17"/>
@@ -16014,7 +16014,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
@@ -16032,8 +16032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -16052,12 +16052,12 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
@@ -16067,17 +16067,17 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>32</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>21</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -16132,17 +16132,17 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -16157,17 +16157,17 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -16182,17 +16182,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -16207,17 +16207,17 @@
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -16303,11 +16303,11 @@
         <v>1</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="24"/>
@@ -16321,11 +16321,11 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="14"/>
@@ -16353,8 +16353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -16366,46 +16366,46 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F5" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -16458,7 +16458,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11" t="s">
@@ -16468,7 +16468,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -16506,7 +16506,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -16549,11 +16549,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -16568,11 +16568,11 @@
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -16587,11 +16587,11 @@
         <v>3</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -16606,11 +16606,11 @@
         <v>4</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -16625,11 +16625,11 @@
         <v>5</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -16644,11 +16644,11 @@
         <v>6</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -16728,11 +16728,11 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="26"/>
@@ -16745,11 +16745,11 @@
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="26"/>
@@ -16762,11 +16762,11 @@
         <v>3</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="28" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="26"/>
@@ -16779,11 +16779,11 @@
         <v>4</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="29" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
@@ -16832,22 +16832,22 @@
   <sheetData>
     <row r="4" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P4" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P5" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P6" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -16884,18 +16884,18 @@
         <v>1</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="11" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -16906,16 +16906,16 @@
     <row r="23" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="15"/>
       <c r="C23" s="4" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="8"/>
       <c r="H23" s="4" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -16947,67 +16947,67 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -17026,7 +17026,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -17063,7 +17063,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="11" t="s">
@@ -17073,7 +17073,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -17087,7 +17087,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="11" t="s">
@@ -17097,7 +17097,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -17111,17 +17111,17 @@
         <v>3</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -17187,11 +17187,11 @@
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="22"/>
@@ -17206,11 +17206,11 @@
         <v>2</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -17225,11 +17225,11 @@
         <v>3</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="22"/>
@@ -17242,11 +17242,11 @@
     <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="15"/>
       <c r="C28" s="14" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="28" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="18"/>

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="288">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -2500,31 +2500,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チュートリアルステージにはステージセレクト画面と同じモニターを置き、それに操作説明動画を流す</t>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・前の画面のBGMは止め、タイトル画面と同じのBGMを流す。タイトルからの場合、音量を下げて引き継ぐ</t>
     <rPh sb="1" eb="2">
       <t>マエ</t>
@@ -3267,6 +3242,35 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアルステージでは、左下に操作説明がウィンドウで表示される</t>
+    <rPh sb="14" eb="16">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作説明はコントローラーのイラストと、文字で説明する</t>
+    <rPh sb="0" eb="4">
+      <t>ソウサセツメイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -13124,7 +13128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -13398,7 +13402,7 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
       <c r="C26" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
@@ -13415,7 +13419,7 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
@@ -13432,7 +13436,7 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B28" s="10"/>
       <c r="C28" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>112</v>
@@ -13448,7 +13452,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29" s="10"/>
       <c r="C29" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
@@ -13751,7 +13755,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>65</v>
@@ -13767,7 +13771,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
@@ -13784,7 +13788,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="28" t="s">
@@ -13801,7 +13805,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="28" t="s">
@@ -13818,7 +13822,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="28" t="s">
@@ -14336,7 +14340,7 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B37" s="10"/>
       <c r="C37" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="20" t="s">
@@ -14349,7 +14353,7 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" s="10"/>
       <c r="C38" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="20" t="s">
@@ -14364,7 +14368,7 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B39" s="10"/>
       <c r="C39" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="22" t="s">
@@ -14379,7 +14383,7 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B40" s="10"/>
       <c r="C40" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="20" t="s">
@@ -14451,7 +14455,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -14473,7 +14477,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -14697,7 +14701,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="11" t="s">
@@ -14709,7 +14713,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="3"/>
       <c r="K34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M34" s="3"/>
     </row>
@@ -14718,7 +14722,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
@@ -14767,7 +14771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -14792,7 +14796,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
@@ -14952,7 +14956,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="4" t="s">
@@ -14989,7 +14993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -15019,7 +15023,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
@@ -15029,7 +15033,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M9" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
@@ -15039,7 +15043,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -15461,11 +15465,11 @@
         <v>1</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="26"/>
@@ -15479,7 +15483,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="20" t="s">
@@ -15500,7 +15504,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="4" t="s">
@@ -15532,8 +15536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -15557,7 +15561,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
@@ -15592,7 +15596,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
@@ -15602,7 +15606,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -15625,11 +15629,13 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M19" s="1" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="M20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
@@ -15807,17 +15813,17 @@
         <v>6</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" s="20" t="s">
         <v>230</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>231</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -15901,7 +15907,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="24" t="s">
@@ -15913,7 +15919,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
       <c r="L35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
@@ -15922,11 +15928,11 @@
         <v>2</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
@@ -15934,7 +15940,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="5"/>
       <c r="L36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
@@ -15943,10 +15949,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="26"/>
@@ -15954,7 +15960,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="5"/>
       <c r="L37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M37" s="3"/>
     </row>
@@ -15964,11 +15970,11 @@
         <v>4</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
@@ -15976,7 +15982,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="5"/>
       <c r="L38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M38" s="3"/>
     </row>
@@ -15986,11 +15992,11 @@
         <v>5</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="17"/>
@@ -16014,7 +16020,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
@@ -16067,17 +16073,17 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -16303,7 +16309,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="31" t="s">
@@ -16321,7 +16327,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
@@ -16390,7 +16396,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -16728,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="28" t="s">
@@ -16745,7 +16751,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="28" t="s">
@@ -16762,11 +16768,11 @@
         <v>3</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="26"/>
@@ -16779,11 +16785,11 @@
         <v>4</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
@@ -16832,22 +16838,22 @@
   <sheetData>
     <row r="4" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -16884,18 +16890,18 @@
         <v>1</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -16906,16 +16912,16 @@
     <row r="23" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="15"/>
       <c r="C23" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="8"/>
       <c r="H23" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -16934,7 +16940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -17187,7 +17193,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="28" t="s">
@@ -17206,7 +17212,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
@@ -17225,7 +17231,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
@@ -17242,7 +17248,7 @@
     <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="15"/>
       <c r="C28" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="28" t="s">

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="289">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -994,62 +994,6 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>キザ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>灰ブロックは模様のみ。青ブロック、緑ブロックの模様はほのかに光る</t>
-    <rPh sb="0" eb="1">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ミドリ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>モヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ヒカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>青ブロック、緑ブロックは、動く時にそれぞれの色のエフェクトが残像のように現れる(ブロックの通った軌跡に現れる)</t>
-    <rPh sb="0" eb="1">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ミドリ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ザンゾウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>キセキ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>アラワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2629,28 +2573,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・操作の説明等が一枚絵で記されている</t>
-    <rPh sb="1" eb="3">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチマイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>シル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・一枚絵では収まらないため、数枚に分けて説明する</t>
     <rPh sb="1" eb="3">
       <t>イチマイ</t>
@@ -3271,6 +3193,97 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Setモードのまま青ブロックにポインターを合わせると、移した後状態が半透明で表示される</t>
+    <rPh sb="10" eb="11">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ハントウメイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・操作の説明等が一枚絵で記されている(コントローラーのイラストと文字)</t>
+    <rPh sb="1" eb="3">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチマイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シル</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ブロック４個分の高さから落ちると、死にはしないが画面が赤くなる</t>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・死亡すると画面が真っ赤になり、リスタート</t>
+    <rPh sb="1" eb="3">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6298,13 +6311,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>115570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6366,13 +6379,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>452119</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>121919</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>111760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6434,13 +6447,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>292099</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>176530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>632459</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>157480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6502,13 +6515,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>75564</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>133986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>285114</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6762,13 +6775,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>78740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>147320</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6829,13 +6842,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>231140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6893,13 +6906,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>174985</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>48992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>175183</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>17440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6960,13 +6973,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>58420</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7023,13 +7036,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>46990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13128,9 +13141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -13160,12 +13171,12 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
@@ -13175,33 +13186,30 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="M12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
-      <c r="M14" t="s">
-        <v>104</v>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13326,7 +13334,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="14" t="s">
@@ -13336,7 +13344,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -13402,11 +13410,11 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
       <c r="C26" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -13419,11 +13427,11 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="22"/>
@@ -13436,10 +13444,10 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B28" s="10"/>
       <c r="C28" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="22"/>
@@ -13452,11 +13460,11 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29" s="10"/>
       <c r="C29" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="22"/>
@@ -13508,12 +13516,12 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -13521,17 +13529,17 @@
         <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13584,7 +13592,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
@@ -13594,7 +13602,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -13632,7 +13640,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -13675,11 +13683,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -13755,7 +13763,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>65</v>
@@ -13771,7 +13779,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
@@ -13788,11 +13796,11 @@
         <v>3</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="26"/>
@@ -13805,11 +13813,11 @@
         <v>3</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="26"/>
@@ -13822,11 +13830,11 @@
         <v>3</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="26"/>
@@ -13869,7 +13877,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
@@ -13877,7 +13885,7 @@
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="21"/>
@@ -13888,7 +13896,7 @@
       <c r="H2" s="33"/>
       <c r="I2" s="22"/>
       <c r="J2" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K2" s="22"/>
     </row>
@@ -13898,14 +13906,14 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="22"/>
       <c r="H3" s="26"/>
       <c r="I3" s="22"/>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K3" s="22"/>
     </row>
@@ -13920,7 +13928,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="22"/>
       <c r="J4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K4" s="22"/>
     </row>
@@ -13935,14 +13943,14 @@
       <c r="H5" s="26"/>
       <c r="I5" s="22"/>
       <c r="J5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="29"/>
       <c r="B6" s="65" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="66"/>
       <c r="D6" s="22"/>
@@ -13952,7 +13960,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="22"/>
       <c r="J6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K6" s="22"/>
     </row>
@@ -13967,7 +13975,7 @@
       <c r="H7" s="26"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K7" s="22"/>
     </row>
@@ -13994,7 +14002,7 @@
       <c r="H9" s="26"/>
       <c r="I9" s="22"/>
       <c r="J9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K9" s="22"/>
     </row>
@@ -14009,7 +14017,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K10" s="22"/>
     </row>
@@ -14094,7 +14102,7 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="67" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F18" s="68"/>
       <c r="G18" s="69"/>
@@ -14102,7 +14110,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="70" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B19" s="68"/>
       <c r="C19" s="69"/>
@@ -14184,7 +14192,7 @@
     </row>
     <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -14232,17 +14240,17 @@
         <v>1</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="47" t="s">
         <v>175</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="G31" s="47" t="s">
-        <v>177</v>
       </c>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
@@ -14256,17 +14264,17 @@
         <v>2</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G32" s="54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="55"/>
@@ -14280,17 +14288,17 @@
         <v>3</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="59" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
@@ -14340,11 +14348,11 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B37" s="10"/>
       <c r="C37" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="10"/>
@@ -14353,11 +14361,11 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" s="10"/>
       <c r="C38" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
@@ -14368,11 +14376,11 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B39" s="10"/>
       <c r="C39" s="28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="26"/>
@@ -14383,11 +14391,11 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B40" s="10"/>
       <c r="C40" s="13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="26"/>
@@ -14455,29 +14463,29 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K11" s="63" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L11" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
       <c r="M13" s="64" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -14538,7 +14546,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
@@ -14548,7 +14556,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -14574,7 +14582,7 @@
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -14623,7 +14631,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="11" t="s">
@@ -14633,7 +14641,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -14701,7 +14709,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="11" t="s">
@@ -14713,7 +14721,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="3"/>
       <c r="K34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M34" s="3"/>
     </row>
@@ -14722,7 +14730,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
@@ -14772,7 +14780,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14796,7 +14804,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
@@ -14809,7 +14817,7 @@
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -14956,7 +14964,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="4" t="s">
@@ -15008,7 +15016,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -15018,32 +15026,32 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M9" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M10" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -15053,7 +15061,7 @@
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -15065,7 +15073,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -15077,7 +15085,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -15085,7 +15093,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M16" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -15109,12 +15117,12 @@
     <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="M19" s="1"/>
       <c r="N19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="Z21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15133,7 +15141,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="Z23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15171,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
@@ -15196,7 +15204,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -15221,7 +15229,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
@@ -15246,7 +15254,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
@@ -15271,7 +15279,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="11" t="s">
@@ -15296,7 +15304,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="11" t="s">
@@ -15321,7 +15329,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="11" t="s">
@@ -15346,7 +15354,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="11" t="s">
@@ -15356,7 +15364,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -15371,17 +15379,17 @@
         <v>9</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -15396,7 +15404,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="14" t="s">
@@ -15406,7 +15414,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="8"/>
@@ -15465,11 +15473,11 @@
         <v>1</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="26"/>
@@ -15483,7 +15491,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="20" t="s">
@@ -15495,7 +15503,7 @@
       <c r="I39" s="10"/>
       <c r="J39" s="5"/>
       <c r="N39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15504,7 +15512,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="4" t="s">
@@ -15518,7 +15526,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="N40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
@@ -15536,7 +15544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -15561,7 +15569,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
@@ -15586,7 +15594,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
@@ -15596,7 +15604,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
@@ -15606,7 +15614,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -15629,12 +15637,12 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M19" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M20" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15813,17 +15821,17 @@
         <v>6</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -15907,7 +15915,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="24" t="s">
@@ -15919,7 +15927,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
       <c r="L35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
@@ -15928,11 +15936,11 @@
         <v>2</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
@@ -15940,7 +15948,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="5"/>
       <c r="L36" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
@@ -15949,10 +15957,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="28" t="s">
         <v>223</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>225</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="26"/>
@@ -15960,7 +15968,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="5"/>
       <c r="L37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M37" s="3"/>
     </row>
@@ -15970,11 +15978,11 @@
         <v>4</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
@@ -15982,7 +15990,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="5"/>
       <c r="L38" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M38" s="3"/>
     </row>
@@ -15992,11 +16000,11 @@
         <v>5</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="17"/>
@@ -16020,7 +16028,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
@@ -16073,17 +16081,17 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -16138,7 +16146,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
@@ -16163,7 +16171,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -16188,7 +16196,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
@@ -16309,7 +16317,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="31" t="s">
@@ -16327,7 +16335,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
@@ -16359,8 +16367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -16377,7 +16385,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -16389,14 +16397,14 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F5" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -16411,7 +16419,17 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L8" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L10" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -16512,7 +16530,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -16555,11 +16573,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -16574,11 +16592,11 @@
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -16593,11 +16611,11 @@
         <v>3</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -16612,11 +16630,11 @@
         <v>4</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -16631,11 +16649,11 @@
         <v>5</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -16650,11 +16668,11 @@
         <v>6</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -16734,7 +16752,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="28" t="s">
@@ -16751,7 +16769,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="28" t="s">
@@ -16768,11 +16786,11 @@
         <v>3</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="26"/>
@@ -16785,11 +16803,11 @@
         <v>4</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
@@ -16838,22 +16856,22 @@
   <sheetData>
     <row r="4" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P6" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -16890,18 +16908,18 @@
         <v>1</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -16912,16 +16930,16 @@
     <row r="23" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="15"/>
       <c r="C23" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="8"/>
       <c r="H23" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -16940,7 +16958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -16953,67 +16971,67 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -17032,7 +17050,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -17079,7 +17097,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -17103,7 +17121,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -17117,17 +17135,17 @@
         <v>3</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -17193,11 +17211,11 @@
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="22"/>
@@ -17212,11 +17230,11 @@
         <v>2</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -17231,11 +17249,11 @@
         <v>3</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="22"/>
@@ -17248,11 +17266,11 @@
     <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="15"/>
       <c r="C28" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="18"/>

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="287">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -746,19 +746,6 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>チャクチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>銃を構えた時にSE</t>
-    <rPh sb="0" eb="1">
-      <t>ジュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カマ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>トキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2809,10 +2796,6 @@
   </si>
   <si>
     <t>Crash_SE.mp3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Posture_SE.mp3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4102,75 +4085,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9028</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>651185</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>22861</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7989246" y="2370513"/>
-          <a:ext cx="1972194" cy="478675"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>操作説明</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>569098</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -4430,73 +4344,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>344307</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>60961</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>367167</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>53341</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="下矢印 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="7224474" y="2421776"/>
-          <a:ext cx="227907" cy="687878"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>83323</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -4517,60 +4364,6 @@
         <a:xfrm>
           <a:off x="4750573" y="2863216"/>
           <a:ext cx="217170" cy="708660"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>348117</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>182881</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>378597</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="下矢印 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="7228284" y="2072641"/>
-          <a:ext cx="235527" cy="695498"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -5041,186 +4834,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>〇ボタンを押す</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9028</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>129541</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>16647</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>144781</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="四角形吹き出し 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7989246" y="1778232"/>
-          <a:ext cx="1337656" cy="486294"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -106706"/>
-            <a:gd name="adj2" fmla="val 72753"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>操作説明を選択し</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>〇ボタンを押す</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>614817</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>112395</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>637678</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>127636</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="四角形吹き出し 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7949067" y="2855595"/>
-          <a:ext cx="1356361" cy="472441"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -80998"/>
-            <a:gd name="adj2" fmla="val -82892"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>×</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ボタンを押す</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13122,8 +12735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13151,65 +12764,65 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13272,7 +12885,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -13334,7 +12947,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="14" t="s">
@@ -13344,7 +12957,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -13410,11 +13023,11 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
       <c r="C26" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -13427,11 +13040,11 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="22"/>
@@ -13444,10 +13057,10 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B28" s="10"/>
       <c r="C28" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="22"/>
@@ -13460,11 +13073,11 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29" s="10"/>
       <c r="C29" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="22"/>
@@ -13497,10 +13110,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L33"/>
+  <dimension ref="A2:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13511,35 +13124,35 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13592,7 +13205,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
@@ -13602,7 +13215,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -13640,7 +13253,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -13683,11 +13296,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -13762,10 +13375,11 @@
       <c r="B28" s="10">
         <v>1</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="E28" s="29" t="s">
+      <c r="C28" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="28" t="s">
         <v>65</v>
       </c>
       <c r="F28" s="11"/>
@@ -13779,11 +13393,11 @@
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="26"/>
@@ -13793,10 +13407,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B30" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="28" t="s">
@@ -13810,10 +13424,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B31" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="28" t="s">
@@ -13825,33 +13439,16 @@
       <c r="I31" s="10"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B32" s="10">
-        <v>3</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="15"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="8"/>
+    <row r="32" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -13877,7 +13474,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
@@ -13885,7 +13482,7 @@
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="21"/>
@@ -13896,7 +13493,7 @@
       <c r="H2" s="33"/>
       <c r="I2" s="22"/>
       <c r="J2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K2" s="22"/>
     </row>
@@ -13906,14 +13503,14 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="22"/>
       <c r="H3" s="26"/>
       <c r="I3" s="22"/>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K3" s="22"/>
     </row>
@@ -13928,7 +13525,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="22"/>
       <c r="J4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K4" s="22"/>
     </row>
@@ -13943,14 +13540,14 @@
       <c r="H5" s="26"/>
       <c r="I5" s="22"/>
       <c r="J5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="29"/>
       <c r="B6" s="65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="66"/>
       <c r="D6" s="22"/>
@@ -13960,7 +13557,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="22"/>
       <c r="J6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K6" s="22"/>
     </row>
@@ -13975,7 +13572,7 @@
       <c r="H7" s="26"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K7" s="22"/>
     </row>
@@ -14002,7 +13599,7 @@
       <c r="H9" s="26"/>
       <c r="I9" s="22"/>
       <c r="J9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K9" s="22"/>
     </row>
@@ -14017,7 +13614,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K10" s="22"/>
     </row>
@@ -14102,7 +13699,7 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F18" s="68"/>
       <c r="G18" s="69"/>
@@ -14110,7 +13707,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="68"/>
       <c r="C19" s="69"/>
@@ -14192,7 +13789,7 @@
     </row>
     <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -14240,17 +13837,17 @@
         <v>1</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="G31" s="47" t="s">
         <v>174</v>
-      </c>
-      <c r="G31" s="47" t="s">
-        <v>175</v>
       </c>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
@@ -14264,17 +13861,17 @@
         <v>2</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="53" t="s">
-        <v>174</v>
-      </c>
       <c r="G32" s="54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="55"/>
@@ -14288,17 +13885,17 @@
         <v>3</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="F33" s="60" t="s">
-        <v>174</v>
-      </c>
       <c r="G33" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
@@ -14348,11 +13945,11 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B37" s="10"/>
       <c r="C37" s="24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="10"/>
@@ -14361,11 +13958,11 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" s="10"/>
       <c r="C38" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
@@ -14376,11 +13973,11 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B39" s="10"/>
       <c r="C39" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="26"/>
@@ -14391,11 +13988,11 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B40" s="10"/>
       <c r="C40" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="26"/>
@@ -14463,29 +14060,29 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K11" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L11" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
       <c r="M13" s="64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -14546,7 +14143,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
@@ -14556,7 +14153,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -14582,7 +14179,7 @@
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -14631,7 +14228,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="11" t="s">
@@ -14641,7 +14238,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -14709,7 +14306,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="11" t="s">
@@ -14721,7 +14318,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="3"/>
       <c r="K34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M34" s="3"/>
     </row>
@@ -14730,7 +14327,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
@@ -14804,7 +14401,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
@@ -14817,7 +14414,7 @@
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -14964,7 +14561,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="4" t="s">
@@ -15016,7 +14613,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -15026,32 +14623,32 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M9" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M10" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -15061,7 +14658,7 @@
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -15073,7 +14670,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -15085,7 +14682,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -15093,7 +14690,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M16" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -15117,12 +14714,12 @@
     <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="M19" s="1"/>
       <c r="N19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="Z21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15141,7 +14738,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="Z23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15179,7 +14776,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
@@ -15189,7 +14786,7 @@
         <v>37</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -15204,7 +14801,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -15229,7 +14826,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
@@ -15254,7 +14851,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
@@ -15279,7 +14876,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="11" t="s">
@@ -15304,7 +14901,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="11" t="s">
@@ -15329,7 +14926,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="11" t="s">
@@ -15354,7 +14951,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="11" t="s">
@@ -15364,7 +14961,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -15379,17 +14976,17 @@
         <v>9</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -15404,7 +15001,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="14" t="s">
@@ -15414,7 +15011,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="8"/>
@@ -15473,11 +15070,11 @@
         <v>1</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="26"/>
@@ -15491,7 +15088,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="20" t="s">
@@ -15503,7 +15100,7 @@
       <c r="I39" s="10"/>
       <c r="J39" s="5"/>
       <c r="N39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15512,7 +15109,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="4" t="s">
@@ -15526,7 +15123,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="N40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
@@ -15544,8 +15141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="A3595" sqref="A3595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -15569,7 +15166,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
@@ -15594,7 +15191,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
@@ -15604,7 +15201,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
@@ -15614,7 +15211,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -15637,12 +15234,12 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M19" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M20" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15821,17 +15418,17 @@
         <v>6</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" s="20" t="s">
         <v>227</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>228</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -15915,7 +15512,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="24" t="s">
@@ -15927,7 +15524,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
       <c r="L35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
@@ -15936,11 +15533,11 @@
         <v>2</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
@@ -15948,7 +15545,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="5"/>
       <c r="L36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
@@ -15957,10 +15554,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="26"/>
@@ -15968,7 +15565,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="5"/>
       <c r="L37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M37" s="3"/>
     </row>
@@ -15978,11 +15575,11 @@
         <v>4</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
@@ -15990,7 +15587,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="5"/>
       <c r="L38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M38" s="3"/>
     </row>
@@ -16000,11 +15597,11 @@
         <v>5</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="17"/>
@@ -16028,7 +15625,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
@@ -16081,17 +15678,17 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -16146,17 +15743,17 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>68</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -16171,7 +15768,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -16181,7 +15778,7 @@
         <v>37</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -16196,17 +15793,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -16225,13 +15822,13 @@
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -16317,7 +15914,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="31" t="s">
@@ -16335,7 +15932,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
@@ -16367,8 +15964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -16380,56 +15977,56 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F5" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -16530,7 +16127,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -16573,11 +16170,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -16592,11 +16189,11 @@
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -16611,11 +16208,11 @@
         <v>3</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -16630,11 +16227,11 @@
         <v>4</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -16649,11 +16246,11 @@
         <v>5</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -16668,11 +16265,11 @@
         <v>6</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -16752,7 +16349,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="28" t="s">
@@ -16769,7 +16366,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="28" t="s">
@@ -16786,11 +16383,11 @@
         <v>3</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="26"/>
@@ -16803,11 +16400,11 @@
         <v>4</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
@@ -16856,22 +16453,22 @@
   <sheetData>
     <row r="4" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -16908,18 +16505,18 @@
         <v>1</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -16930,16 +16527,16 @@
     <row r="23" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="15"/>
       <c r="C23" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="8"/>
       <c r="H23" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -16958,9 +16555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -16971,67 +16566,67 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -17050,7 +16645,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -17097,7 +16692,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -17121,7 +16716,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -17135,17 +16730,17 @@
         <v>3</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>186</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>187</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -17211,11 +16806,11 @@
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="22"/>
@@ -17230,11 +16825,11 @@
         <v>2</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -17249,11 +16844,11 @@
         <v>3</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="22"/>
@@ -17266,11 +16861,11 @@
     <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="15"/>
       <c r="C28" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="18"/>

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="303">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -3267,6 +3267,118 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃やレーザーの色で状態を判断する</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Getモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Setモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X軸</t>
+    <rPh sb="1" eb="2">
+      <t>ジク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y軸</t>
+    <rPh sb="1" eb="2">
+      <t>ジク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z軸</t>
+    <rPh sb="1" eb="2">
+      <t>ジク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃の色</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーザーの色</t>
+    <rPh sb="5" eb="6">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scale</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <rPh sb="0" eb="1">
+      <t>ムラサキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3389,7 +3501,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -3800,13 +3912,220 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3926,6 +4245,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6725,7 +7089,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="795699" y="158750"/>
-          <a:ext cx="1580375" cy="2565400"/>
+          <a:ext cx="1580375" cy="2573020"/>
           <a:chOff x="1680889" y="146050"/>
           <a:chExt cx="1560055" cy="2565400"/>
         </a:xfrm>
@@ -12735,7 +13099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -13110,10 +13474,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L32"/>
+  <dimension ref="A2:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13122,22 +13486,22 @@
     <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="L4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>79</v>
       </c>
@@ -13145,17 +13509,63 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N12" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="O12" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="P12" s="80" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N13" s="76"/>
+      <c r="O13" s="72" t="s">
+        <v>291</v>
+      </c>
+      <c r="P13" s="81"/>
+    </row>
+    <row r="14" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N14" s="77"/>
+      <c r="O14" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="P14" s="82"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N15" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="O15" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="P15" s="78" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -13170,8 +13580,15 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N16" s="76"/>
+      <c r="O16" s="72" t="s">
+        <v>291</v>
+      </c>
+      <c r="P16" s="79" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -13198,8 +13615,15 @@
       <c r="L17" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="N17" s="77"/>
+      <c r="O17" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="P17" s="83" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="11"/>
       <c r="B18" s="10">
         <v>1</v>
@@ -13222,8 +13646,11 @@
       <c r="J18" s="13"/>
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="11"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4"/>
@@ -13236,8 +13663,14 @@
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="N19" s="84" t="s">
+        <v>299</v>
+      </c>
+      <c r="O19" s="85" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -13250,8 +13683,14 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N20" s="84" t="s">
+        <v>300</v>
+      </c>
+      <c r="O20" s="85" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
         <v>87</v>
       </c>
@@ -13267,7 +13706,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="11"/>
       <c r="B22" s="6" t="s">
         <v>1</v>
@@ -13291,7 +13730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B23" s="10">
         <v>1</v>
       </c>
@@ -13308,7 +13747,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="15"/>
       <c r="C24" s="4"/>
       <c r="D24" s="8"/>
@@ -13319,7 +13758,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -13332,7 +13771,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -13348,7 +13787,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
@@ -13371,7 +13810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B28" s="10">
         <v>1</v>
       </c>
@@ -13388,7 +13827,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B29" s="10">
         <v>2</v>
       </c>
@@ -13405,7 +13844,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B30" s="10">
         <v>2</v>
       </c>
@@ -13422,7 +13861,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B31" s="10">
         <v>2</v>
       </c>
@@ -13439,7 +13878,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="15"/>
       <c r="C32" s="14"/>
       <c r="D32" s="4"/>
@@ -13451,9 +13890,15 @@
       <c r="J32" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="P12:P14"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="304">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -3380,6 +3380,10 @@
     <rPh sb="0" eb="1">
       <t>ムラサキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4227,6 +4231,51 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4243,51 +4292,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13118,7 +13122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -13476,8 +13480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13530,38 +13534,38 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="N12" s="75" t="s">
+      <c r="N12" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="O12" s="71" t="s">
+      <c r="O12" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="P12" s="80" t="s">
+      <c r="P12" s="77" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="N13" s="76"/>
-      <c r="O13" s="72" t="s">
+      <c r="N13" s="75"/>
+      <c r="O13" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="P13" s="81"/>
+      <c r="P13" s="78"/>
     </row>
     <row r="14" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N14" s="77"/>
-      <c r="O14" s="74" t="s">
+      <c r="N14" s="76"/>
+      <c r="O14" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="P14" s="82"/>
+      <c r="P14" s="79"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="N15" s="75" t="s">
+      <c r="N15" s="74" t="s">
         <v>289</v>
       </c>
-      <c r="O15" s="71" t="s">
+      <c r="O15" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="P15" s="78" t="s">
+      <c r="P15" s="69" t="s">
         <v>294</v>
       </c>
     </row>
@@ -13580,11 +13584,11 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="72" t="s">
+      <c r="N16" s="75"/>
+      <c r="O16" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="P16" s="79" t="s">
+      <c r="P16" s="70" t="s">
         <v>295</v>
       </c>
     </row>
@@ -13615,11 +13619,11 @@
       <c r="L17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="77"/>
-      <c r="O17" s="73" t="s">
+      <c r="N17" s="76"/>
+      <c r="O17" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="P17" s="83" t="s">
+      <c r="P17" s="71" t="s">
         <v>296</v>
       </c>
     </row>
@@ -13657,16 +13661,18 @@
       <c r="D19" s="8"/>
       <c r="E19" s="4"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
-      <c r="N19" s="84" t="s">
+      <c r="N19" s="72" t="s">
         <v>299</v>
       </c>
-      <c r="O19" s="85" t="s">
+      <c r="O19" s="73" t="s">
         <v>301</v>
       </c>
     </row>
@@ -13683,10 +13689,10 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="N20" s="84" t="s">
+      <c r="N20" s="72" t="s">
         <v>300</v>
       </c>
-      <c r="O20" s="85" t="s">
+      <c r="O20" s="73" t="s">
         <v>302</v>
       </c>
     </row>
@@ -13926,10 +13932,10 @@
       <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -13947,10 +13953,10 @@
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="22"/>
       <c r="H3" s="26"/>
       <c r="I3" s="22"/>
@@ -13991,10 +13997,10 @@
     </row>
     <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="29"/>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -14143,19 +14149,19 @@
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="84"/>
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="303">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -3380,10 +3380,6 @@
     <rPh sb="0" eb="1">
       <t>ムラサキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4231,51 +4227,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4292,6 +4243,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13122,7 +13118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -13480,8 +13476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13534,38 +13530,38 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="N12" s="74" t="s">
+      <c r="N12" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="O12" s="65" t="s">
+      <c r="O12" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="P12" s="77" t="s">
+      <c r="P12" s="80" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="N13" s="75"/>
-      <c r="O13" s="66" t="s">
+      <c r="N13" s="76"/>
+      <c r="O13" s="72" t="s">
         <v>291</v>
       </c>
-      <c r="P13" s="78"/>
+      <c r="P13" s="81"/>
     </row>
     <row r="14" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N14" s="76"/>
-      <c r="O14" s="68" t="s">
+      <c r="N14" s="77"/>
+      <c r="O14" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="P14" s="79"/>
+      <c r="P14" s="82"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="N15" s="74" t="s">
+      <c r="N15" s="75" t="s">
         <v>289</v>
       </c>
-      <c r="O15" s="65" t="s">
+      <c r="O15" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="P15" s="69" t="s">
+      <c r="P15" s="78" t="s">
         <v>294</v>
       </c>
     </row>
@@ -13584,11 +13580,11 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="66" t="s">
+      <c r="N16" s="76"/>
+      <c r="O16" s="72" t="s">
         <v>291</v>
       </c>
-      <c r="P16" s="70" t="s">
+      <c r="P16" s="79" t="s">
         <v>295</v>
       </c>
     </row>
@@ -13619,11 +13615,11 @@
       <c r="L17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="76"/>
-      <c r="O17" s="67" t="s">
+      <c r="N17" s="77"/>
+      <c r="O17" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="P17" s="71" t="s">
+      <c r="P17" s="83" t="s">
         <v>296</v>
       </c>
     </row>
@@ -13661,18 +13657,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="4"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="4" t="s">
-        <v>303</v>
-      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
-      <c r="N19" s="72" t="s">
+      <c r="N19" s="84" t="s">
         <v>299</v>
       </c>
-      <c r="O19" s="73" t="s">
+      <c r="O19" s="85" t="s">
         <v>301</v>
       </c>
     </row>
@@ -13689,10 +13683,10 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="N20" s="72" t="s">
+      <c r="N20" s="84" t="s">
         <v>300</v>
       </c>
-      <c r="O20" s="73" t="s">
+      <c r="O20" s="85" t="s">
         <v>302</v>
       </c>
     </row>
@@ -13932,10 +13926,10 @@
       <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="81"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -13953,10 +13947,10 @@
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="81"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="22"/>
       <c r="H3" s="26"/>
       <c r="I3" s="22"/>
@@ -13997,10 +13991,10 @@
     </row>
     <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="29"/>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="81"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -14149,19 +14143,19 @@
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="82" t="s">
+      <c r="E18" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="304">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -3380,6 +3380,10 @@
     <rPh sb="0" eb="1">
       <t>ムラサキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4227,6 +4231,51 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4243,51 +4292,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13097,17 +13101,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="N11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.69921875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="11" spans="14:14" x14ac:dyDescent="0.45">
+      <c r="N11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13476,7 +13486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -13530,38 +13540,38 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="N12" s="75" t="s">
+      <c r="N12" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="O12" s="71" t="s">
+      <c r="O12" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="P12" s="80" t="s">
+      <c r="P12" s="77" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="N13" s="76"/>
-      <c r="O13" s="72" t="s">
+      <c r="N13" s="75"/>
+      <c r="O13" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="P13" s="81"/>
+      <c r="P13" s="78"/>
     </row>
     <row r="14" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N14" s="77"/>
-      <c r="O14" s="74" t="s">
+      <c r="N14" s="76"/>
+      <c r="O14" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="P14" s="82"/>
+      <c r="P14" s="79"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="N15" s="75" t="s">
+      <c r="N15" s="74" t="s">
         <v>289</v>
       </c>
-      <c r="O15" s="71" t="s">
+      <c r="O15" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="P15" s="78" t="s">
+      <c r="P15" s="69" t="s">
         <v>294</v>
       </c>
     </row>
@@ -13580,11 +13590,11 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="72" t="s">
+      <c r="N16" s="75"/>
+      <c r="O16" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="P16" s="79" t="s">
+      <c r="P16" s="70" t="s">
         <v>295</v>
       </c>
     </row>
@@ -13615,11 +13625,11 @@
       <c r="L17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="77"/>
-      <c r="O17" s="73" t="s">
+      <c r="N17" s="76"/>
+      <c r="O17" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="P17" s="83" t="s">
+      <c r="P17" s="71" t="s">
         <v>296</v>
       </c>
     </row>
@@ -13663,10 +13673,10 @@
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
-      <c r="N19" s="84" t="s">
+      <c r="N19" s="72" t="s">
         <v>299</v>
       </c>
-      <c r="O19" s="85" t="s">
+      <c r="O19" s="73" t="s">
         <v>301</v>
       </c>
     </row>
@@ -13683,10 +13693,10 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="N20" s="84" t="s">
+      <c r="N20" s="72" t="s">
         <v>300</v>
       </c>
-      <c r="O20" s="85" t="s">
+      <c r="O20" s="73" t="s">
         <v>302</v>
       </c>
     </row>
@@ -13926,10 +13936,10 @@
       <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -13947,10 +13957,10 @@
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="22"/>
       <c r="H3" s="26"/>
       <c r="I3" s="22"/>
@@ -13991,10 +14001,10 @@
     </row>
     <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="29"/>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -14143,19 +14153,19 @@
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="84"/>
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="308">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -847,31 +847,6 @@
     <t>ブロックの仕様</t>
     <rPh sb="5" eb="7">
       <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>銃の長さは両手持ちで丁度いいくらい(プレイヤーの身長の半分くらい)</t>
-    <rPh sb="0" eb="1">
-      <t>ジュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リョウテ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>チョウド</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シンチョウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ハンブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2535,31 +2510,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・張り紙なら壁、モニターならステージ上の邪魔にならない所に設置してある</t>
-    <rPh sb="1" eb="2">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ガミ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジャマ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>トコロ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セッチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・一枚絵では収まらないため、数枚に分けて説明する</t>
     <rPh sb="1" eb="3">
       <t>イチマイ</t>
@@ -2582,40 +2532,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Poster</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Monitor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0.8*1.2*0.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0.8*1.0*0.01</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明用オブジェクト(張り紙)</t>
-    <rPh sb="0" eb="3">
-      <t>セツメイヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ガミ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>説明用オブジェクト(モニター)</t>
-    <rPh sb="0" eb="3">
-      <t>セツメイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>プレイ中のBGMは１～５，６～１０，１１～１５，１６～２０ステージに分けて変える</t>
@@ -3271,22 +3189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>銃やレーザーの色で状態を判断する</t>
-    <rPh sb="0" eb="1">
-      <t>ジュウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハンダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Getモード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3384,6 +3286,93 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイ画面内の左下に表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Window</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明用オブジェクト</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>銃やレーザーの色、モードウィンドウで状態を判断する</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Get:X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Get:Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Get:Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set:X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set:Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set:Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右下のウィンドウは選択(Get)しているブロックの情報</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3505,7 +3494,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -3920,40 +3909,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -3980,114 +3939,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -4123,13 +3980,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4231,49 +4114,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4292,6 +4136,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7093,7 +7006,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="795699" y="158750"/>
-          <a:ext cx="1580375" cy="2573020"/>
+          <a:ext cx="1580375" cy="2580640"/>
           <a:chOff x="1680889" y="146050"/>
           <a:chExt cx="1560055" cy="2565400"/>
         </a:xfrm>
@@ -7431,6 +7344,247 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2689860" y="678180"/>
+          <a:ext cx="3512820" cy="2087880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プレイ画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5516880" y="2240280"/>
+          <a:ext cx="655320" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Position</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Get:X</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314352</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>620057</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="15080640">
+          <a:off x="4557484" y="2717808"/>
+          <a:ext cx="1207282" cy="305705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4716780" y="2781300"/>
+          <a:ext cx="784860" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11317,26 +11471,85 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>668865</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>220133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>124859</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123262</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670560" y="457200"/>
-          <a:ext cx="6926580" cy="4328160"/>
+          <a:off x="668865" y="448733"/>
+          <a:ext cx="5585861" cy="3332129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プレイ画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76392</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>74796</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5020733" y="2861733"/>
+          <a:ext cx="1185526" cy="870663"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11363,7 +11576,135 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>Position</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>Get:X</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>184431</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>29328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>670543</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="15080640">
+          <a:off x="3968138" y="3230621"/>
+          <a:ext cx="945098" cy="486112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>547610</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347844</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3891943" y="3805096"/>
+          <a:ext cx="1248034" cy="225037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11949,284 +12290,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="297180"/>
-          <a:ext cx="3169920" cy="3970020"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
-            <a:t>ポスター</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="楕円 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3695700" y="358140"/>
-          <a:ext cx="167640" cy="167640"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="楕円 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="807720" y="350520"/>
-          <a:ext cx="167640" cy="167640"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="楕円 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="4046220"/>
-          <a:ext cx="167640" cy="167640"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="楕円 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3703320" y="4061460"/>
-          <a:ext cx="167640" cy="167640"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142754</xdr:colOff>
+      <xdr:colOff>657176</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>28553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>411160</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266468</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>16269</xdr:rowOff>
     </xdr:to>
@@ -12237,8 +12307,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4193893" y="491540"/>
-          <a:ext cx="4994735" cy="3691615"/>
+          <a:off x="1316290" y="478680"/>
+          <a:ext cx="4882203" cy="3588728"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12273,14 +12343,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>337235</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>192543</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>168605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>198567</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53875</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>86901</xdr:rowOff>
     </xdr:to>
@@ -12291,8 +12361,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4388374" y="631592"/>
-          <a:ext cx="4587661" cy="3390701"/>
+          <a:off x="1510771" y="618732"/>
+          <a:ext cx="4475129" cy="3294245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12319,7 +12389,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
-            <a:t>モニター</a:t>
+            <a:t>ウィンドウ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13103,7 +13173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -13114,7 +13184,7 @@
   <sheetData>
     <row r="11" spans="14:14" x14ac:dyDescent="0.45">
       <c r="N11" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -13143,60 +13213,60 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13259,7 +13329,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -13321,7 +13391,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="14" t="s">
@@ -13331,7 +13401,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -13397,11 +13467,11 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
       <c r="C26" s="13" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -13414,11 +13484,11 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="22"/>
@@ -13431,10 +13501,10 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B28" s="10"/>
       <c r="C28" s="20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="22"/>
@@ -13447,11 +13517,11 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29" s="10"/>
       <c r="C29" s="13" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="22"/>
@@ -13484,10 +13554,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P32"/>
+  <dimension ref="A2:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13496,86 +13566,110 @@
     <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="L4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="L4" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="L5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="E5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="L6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="L6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="N10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N11" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="N12" s="74" t="s">
-        <v>288</v>
-      </c>
-      <c r="O12" s="65" t="s">
-        <v>290</v>
-      </c>
-      <c r="P12" s="77" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="N13" s="75"/>
-      <c r="O13" s="66" t="s">
-        <v>291</v>
-      </c>
-      <c r="P13" s="78"/>
-    </row>
-    <row r="14" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N14" s="76"/>
-      <c r="O14" s="68" t="s">
-        <v>292</v>
-      </c>
-      <c r="P14" s="79"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="N15" s="74" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N11" s="80"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="O15" s="65" t="s">
-        <v>290</v>
-      </c>
-      <c r="P15" s="69" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q11" s="85"/>
+      <c r="R11" s="93" t="s">
+        <v>300</v>
+      </c>
+      <c r="S11" s="81"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N12" s="73" t="s">
+        <v>280</v>
+      </c>
+      <c r="O12" s="79" t="s">
+        <v>282</v>
+      </c>
+      <c r="P12" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="94" t="s">
+        <v>301</v>
+      </c>
+      <c r="S12" s="90"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N13" s="74"/>
+      <c r="O13" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="S13" s="91"/>
+    </row>
+    <row r="14" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N14" s="75"/>
+      <c r="O14" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="S14" s="92"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N15" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="O15" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="P15" s="86" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="94" t="s">
+        <v>304</v>
+      </c>
+      <c r="S15" s="90"/>
+    </row>
+    <row r="16" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -13590,15 +13684,20 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="66" t="s">
-        <v>291</v>
-      </c>
-      <c r="P16" s="70" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N16" s="74"/>
+      <c r="O16" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="P16" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="69" t="s">
+        <v>305</v>
+      </c>
+      <c r="S16" s="91"/>
+    </row>
+    <row r="17" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -13625,21 +13724,26 @@
       <c r="L17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="76"/>
-      <c r="O17" s="67" t="s">
-        <v>292</v>
-      </c>
-      <c r="P17" s="71" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N17" s="75"/>
+      <c r="O17" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="P17" s="88" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="95" t="s">
+        <v>306</v>
+      </c>
+      <c r="S17" s="92"/>
+    </row>
+    <row r="18" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="11"/>
       <c r="B18" s="10">
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
@@ -13649,7 +13753,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -13657,10 +13761,10 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
       <c r="N18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="11"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4"/>
@@ -13673,14 +13777,14 @@
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
-      <c r="N19" s="72" t="s">
-        <v>299</v>
-      </c>
-      <c r="O19" s="73" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N19" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="O19" s="66" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -13693,16 +13797,16 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="N20" s="72" t="s">
-        <v>300</v>
-      </c>
-      <c r="O20" s="73" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N20" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="O20" s="66" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -13716,7 +13820,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="11"/>
       <c r="B22" s="6" t="s">
         <v>1</v>
@@ -13740,16 +13844,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B23" s="10">
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -13757,7 +13861,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="15"/>
       <c r="C24" s="4"/>
       <c r="D24" s="8"/>
@@ -13768,7 +13872,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -13781,7 +13885,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -13797,7 +13901,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
@@ -13820,12 +13924,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B28" s="10">
         <v>1</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="28" t="s">
@@ -13837,16 +13941,16 @@
       <c r="I28" s="10"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B29" s="10">
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="26"/>
@@ -13854,16 +13958,16 @@
       <c r="I29" s="10"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B30" s="10">
         <v>2</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="26"/>
@@ -13871,16 +13975,16 @@
       <c r="I30" s="10"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B31" s="10">
         <v>2</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="26"/>
@@ -13888,7 +13992,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="15"/>
       <c r="C32" s="14"/>
       <c r="D32" s="4"/>
@@ -13900,10 +14004,22 @@
       <c r="J32" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="15">
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
     <mergeCell ref="N12:N14"/>
     <mergeCell ref="N15:N17"/>
-    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q14"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13929,17 +14045,17 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="81"/>
+      <c r="A2" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="68"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -13948,7 +14064,7 @@
       <c r="H2" s="33"/>
       <c r="I2" s="22"/>
       <c r="J2" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K2" s="22"/>
     </row>
@@ -13957,15 +14073,15 @@
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
-      <c r="E3" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="81"/>
+      <c r="E3" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="68"/>
       <c r="G3" s="22"/>
       <c r="H3" s="26"/>
       <c r="I3" s="22"/>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" s="22"/>
     </row>
@@ -13980,7 +14096,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="22"/>
       <c r="J4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K4" s="22"/>
     </row>
@@ -13995,16 +14111,16 @@
       <c r="H5" s="26"/>
       <c r="I5" s="22"/>
       <c r="J5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="29"/>
-      <c r="B6" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="81"/>
+      <c r="B6" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="68"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -14012,7 +14128,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="22"/>
       <c r="J6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K6" s="22"/>
     </row>
@@ -14027,7 +14143,7 @@
       <c r="H7" s="26"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K7" s="22"/>
     </row>
@@ -14054,7 +14170,7 @@
       <c r="H9" s="26"/>
       <c r="I9" s="22"/>
       <c r="J9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K9" s="22"/>
     </row>
@@ -14069,7 +14185,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K10" s="22"/>
     </row>
@@ -14153,19 +14269,19 @@
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="82" t="s">
+      <c r="E18" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="70"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
@@ -14244,7 +14360,7 @@
     </row>
     <row r="29" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -14292,17 +14408,17 @@
         <v>1</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="G31" s="47" t="s">
         <v>173</v>
-      </c>
-      <c r="G31" s="47" t="s">
-        <v>174</v>
       </c>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
@@ -14316,17 +14432,17 @@
         <v>2</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="53" t="s">
-        <v>173</v>
-      </c>
       <c r="G32" s="54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="55"/>
@@ -14340,17 +14456,17 @@
         <v>3</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="F33" s="60" t="s">
-        <v>173</v>
-      </c>
       <c r="G33" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H33" s="62"/>
       <c r="I33" s="62"/>
@@ -14400,11 +14516,11 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B37" s="10"/>
       <c r="C37" s="24" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="10"/>
@@ -14413,11 +14529,11 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" s="10"/>
       <c r="C38" s="13" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
@@ -14428,11 +14544,11 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B39" s="10"/>
       <c r="C39" s="28" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="26"/>
@@ -14443,11 +14559,11 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B40" s="10"/>
       <c r="C40" s="13" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="26"/>
@@ -14486,7 +14602,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -14515,29 +14631,29 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K11" s="63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L11" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
       <c r="M13" s="64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -14598,7 +14714,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="16" t="s">
@@ -14608,7 +14724,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -14634,7 +14750,7 @@
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -14683,7 +14799,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="11" t="s">
@@ -14693,7 +14809,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -14761,7 +14877,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="11" t="s">
@@ -14773,7 +14889,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="3"/>
       <c r="K34" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="M34" s="3"/>
     </row>
@@ -14782,7 +14898,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
@@ -14856,7 +14972,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
@@ -14869,7 +14985,7 @@
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -15016,7 +15132,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="4" t="s">
@@ -15068,7 +15184,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -15078,32 +15194,32 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M9" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M10" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -15113,7 +15229,7 @@
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -15125,7 +15241,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -15137,7 +15253,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -15145,7 +15261,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M16" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -15169,12 +15285,12 @@
     <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="M19" s="1"/>
       <c r="N19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="Z21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15193,7 +15309,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="Z23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15231,7 +15347,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
@@ -15256,7 +15372,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -15281,7 +15397,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
@@ -15306,7 +15422,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
@@ -15331,7 +15447,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="11" t="s">
@@ -15356,7 +15472,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="11" t="s">
@@ -15381,7 +15497,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="11" t="s">
@@ -15406,7 +15522,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="11" t="s">
@@ -15416,7 +15532,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -15431,17 +15547,17 @@
         <v>9</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -15456,7 +15572,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="14" t="s">
@@ -15466,7 +15582,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="8"/>
@@ -15525,11 +15641,11 @@
         <v>1</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="26"/>
@@ -15543,7 +15659,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="20" t="s">
@@ -15555,7 +15671,7 @@
       <c r="I39" s="10"/>
       <c r="J39" s="5"/>
       <c r="N39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15564,7 +15680,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="4" t="s">
@@ -15578,7 +15694,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="N40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
@@ -15596,8 +15712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="A3595" sqref="A3595"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -15621,7 +15737,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
@@ -15646,7 +15762,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
@@ -15656,7 +15772,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
@@ -15666,7 +15782,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M16" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -15689,12 +15805,17 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M19" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M20" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M21" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15873,17 +15994,17 @@
         <v>6</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" s="20" t="s">
         <v>226</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>227</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -15967,7 +16088,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="24" t="s">
@@ -15979,7 +16100,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
       <c r="L35" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
@@ -15988,11 +16109,11 @@
         <v>2</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
@@ -16000,7 +16121,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="5"/>
       <c r="L36" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
@@ -16009,10 +16130,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="26"/>
@@ -16020,7 +16141,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="5"/>
       <c r="L37" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="M37" s="3"/>
     </row>
@@ -16030,11 +16151,11 @@
         <v>4</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="13" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
@@ -16042,7 +16163,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="5"/>
       <c r="L38" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M38" s="3"/>
     </row>
@@ -16052,11 +16173,11 @@
         <v>5</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="14" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="17"/>
@@ -16080,7 +16201,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
@@ -16133,17 +16254,17 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -16198,7 +16319,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11" t="s">
@@ -16223,7 +16344,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
@@ -16248,7 +16369,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
@@ -16369,7 +16490,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="31" t="s">
@@ -16387,7 +16508,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
@@ -16437,7 +16558,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -16449,14 +16570,14 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -16471,17 +16592,17 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L9" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L10" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -16582,7 +16703,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -16625,11 +16746,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -16644,11 +16765,11 @@
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -16663,11 +16784,11 @@
         <v>3</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -16682,11 +16803,11 @@
         <v>4</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -16701,11 +16822,11 @@
         <v>5</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -16720,11 +16841,11 @@
         <v>6</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -16804,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="28" t="s">
@@ -16821,7 +16942,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="28" t="s">
@@ -16838,11 +16959,11 @@
         <v>3</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="26"/>
@@ -16855,11 +16976,11 @@
         <v>4</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
@@ -16898,32 +17019,32 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:P23"/>
+  <dimension ref="B4:P22"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="4" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P5" t="s">
-        <v>229</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P6" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -16955,54 +17076,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+    <row r="22" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="6">
         <v>1</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="5" t="s">
+      <c r="C22" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="15"/>
-      <c r="C23" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="8"/>
+      <c r="H22" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17021,67 +17123,67 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -17100,7 +17202,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -17147,7 +17249,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -17171,7 +17273,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -17185,17 +17287,17 @@
         <v>3</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>185</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>186</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -17261,11 +17363,11 @@
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="22"/>
@@ -17280,11 +17382,11 @@
         <v>2</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="22"/>
@@ -17299,11 +17401,11 @@
         <v>3</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="22"/>
@@ -17316,11 +17418,11 @@
     <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="15"/>
       <c r="C28" s="14" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="18"/>

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="305">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -2083,29 +2083,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・L2でGetting,Setingの切り替え(SE付き)</t>
-    <rPh sb="19" eb="20">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・R2を押す事で撃てる(レーザーポインター)(SE付き)</t>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3189,14 +3166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Getモード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Setモード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>X軸</t>
     <rPh sb="1" eb="2">
       <t>ジク</t>
@@ -3218,13 +3187,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>白</t>
-    <rPh sb="0" eb="1">
-      <t>シロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>赤</t>
     <rPh sb="0" eb="1">
       <t>アカ</t>
@@ -3256,6 +3218,97 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Position</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイ画面内の左下に表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Window</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明用オブジェクト</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>銃やレーザーの色、モードウィンドウで状態を判断する</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・L2でGetting(SE付き)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・R2をSetting(SE付き)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scale</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Position:X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Position:Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Position:Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scale:X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scale:Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scale:Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>レーザーの色</t>
     <rPh sb="5" eb="6">
       <t>イロ</t>
@@ -3263,14 +3316,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Position</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Scale</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>黄</t>
     <rPh sb="0" eb="1">
       <t>キ</t>
@@ -3285,93 +3330,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・プレイ画面内の左下に表示</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒダリシタ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Window</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明用オブジェクト</t>
-    <rPh sb="0" eb="3">
-      <t>セツメイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>銃やレーザーの色、モードウィンドウで状態を判断する</t>
-    <rPh sb="0" eb="1">
-      <t>ジュウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハンダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウィンドウ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Get:X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Get:Y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Get:Z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Set:X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Set:Y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Set:Z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>右下のウィンドウは選択(Get)しているブロックの情報</t>
+    <t>右下のウィンドウは銃の状態</t>
     <rPh sb="0" eb="1">
       <t>ミギ</t>
     </rPh>
     <rPh sb="1" eb="2">
       <t>シタ</t>
     </rPh>
-    <rPh sb="9" eb="11">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジョウホウ</t>
+    <rPh sb="9" eb="10">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3494,7 +3464,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -3951,36 +3921,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -4006,13 +3946,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4117,39 +4169,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4159,19 +4178,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4180,31 +4211,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7462,7 +7520,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Get:X</a:t>
+            <a:t>X</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -11585,7 +11643,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
-            <a:t>Get:X</a:t>
+            <a:t>X</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
         </a:p>
@@ -13184,7 +13242,7 @@
   <sheetData>
     <row r="11" spans="14:14" x14ac:dyDescent="0.45">
       <c r="N11" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -13256,7 +13314,7 @@
         <v>85</v>
       </c>
       <c r="M12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
@@ -13467,7 +13525,7 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
       <c r="C26" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
@@ -13484,7 +13542,7 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
@@ -13501,7 +13559,7 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B28" s="10"/>
       <c r="C28" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>108</v>
@@ -13517,7 +13575,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29" s="10"/>
       <c r="C29" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
@@ -13554,10 +13612,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S32"/>
+  <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13566,110 +13624,130 @@
     <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="L2" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="L4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="L5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="L7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="N10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N11" s="80"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="80" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="93" t="s">
-        <v>300</v>
-      </c>
-      <c r="S11" s="81"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="N12" s="73" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N11" s="77"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="71" t="s">
+        <v>301</v>
+      </c>
+      <c r="S11" s="97"/>
+      <c r="T11" s="71" t="s">
+        <v>291</v>
+      </c>
+      <c r="U11" s="72"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="N12" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="O12" s="68" t="s">
+        <v>278</v>
+      </c>
+      <c r="P12" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="91" t="s">
+        <v>302</v>
+      </c>
+      <c r="S12" s="92"/>
+      <c r="T12" s="73" t="s">
+        <v>295</v>
+      </c>
+      <c r="U12" s="74"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="N13" s="89"/>
+      <c r="O13" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="P13" s="80" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="U13" s="76"/>
+    </row>
+    <row r="14" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N14" s="90"/>
+      <c r="O14" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="O12" s="79" t="s">
-        <v>282</v>
-      </c>
-      <c r="P12" s="73" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="94" t="s">
-        <v>301</v>
-      </c>
-      <c r="S12" s="90"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="N13" s="74"/>
-      <c r="O13" s="77" t="s">
+      <c r="P14" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="69" t="s">
-        <v>302</v>
-      </c>
-      <c r="S13" s="91"/>
-    </row>
-    <row r="14" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="N14" s="75"/>
-      <c r="O14" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="95" t="s">
+      <c r="Q14" s="86"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="U14" s="70"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="N15" s="88" t="s">
+        <v>294</v>
+      </c>
+      <c r="O15" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="P15" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="91" t="s">
         <v>303</v>
       </c>
-      <c r="S14" s="92"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="N15" s="73" t="s">
-        <v>281</v>
-      </c>
-      <c r="O15" s="76" t="s">
-        <v>282</v>
-      </c>
-      <c r="P15" s="86" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="94" t="s">
-        <v>304</v>
-      </c>
-      <c r="S15" s="90"/>
-    </row>
-    <row r="16" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S15" s="92"/>
+      <c r="T15" s="73" t="s">
+        <v>298</v>
+      </c>
+      <c r="U15" s="74"/>
+    </row>
+    <row r="16" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -13684,20 +13762,22 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="77" t="s">
-        <v>283</v>
-      </c>
-      <c r="P16" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="69" t="s">
-        <v>305</v>
-      </c>
-      <c r="S16" s="91"/>
-    </row>
-    <row r="17" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N16" s="89"/>
+      <c r="O16" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="P16" s="80" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="U16" s="76"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -13724,20 +13804,22 @@
       <c r="L17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="75"/>
-      <c r="O17" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="P17" s="88" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="95" t="s">
-        <v>306</v>
-      </c>
-      <c r="S17" s="92"/>
-    </row>
-    <row r="18" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N17" s="90"/>
+      <c r="O17" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="P17" s="82" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="U17" s="70"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="11"/>
       <c r="B18" s="10">
         <v>1</v>
@@ -13760,11 +13842,8 @@
       <c r="J18" s="13"/>
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
-      <c r="N18" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="19" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="11"/>
       <c r="B19" s="15"/>
       <c r="C19" s="4"/>
@@ -13777,14 +13856,8 @@
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
       <c r="L19" s="8"/>
-      <c r="N19" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="O19" s="66" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -13797,14 +13870,8 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="N20" s="65" t="s">
-        <v>292</v>
-      </c>
-      <c r="O20" s="66" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="21" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
         <v>86</v>
       </c>
@@ -13820,7 +13887,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="11"/>
       <c r="B22" s="6" t="s">
         <v>1</v>
@@ -13844,7 +13911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B23" s="10">
         <v>1</v>
       </c>
@@ -13861,7 +13928,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="15"/>
       <c r="C24" s="4"/>
       <c r="D24" s="8"/>
@@ -13872,7 +13939,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -13885,7 +13952,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -13901,7 +13968,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
@@ -13924,12 +13991,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B28" s="10">
         <v>1</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="28" t="s">
@@ -13941,12 +14008,12 @@
       <c r="I28" s="10"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B29" s="10">
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="28" t="s">
@@ -13958,12 +14025,12 @@
       <c r="I29" s="10"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B30" s="10">
         <v>2</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="28" t="s">
@@ -13975,12 +14042,12 @@
       <c r="I30" s="10"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B31" s="10">
         <v>2</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="28" t="s">
@@ -13992,7 +14059,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="15"/>
       <c r="C32" s="14"/>
       <c r="D32" s="4"/>
@@ -14004,22 +14071,27 @@
       <c r="J32" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="R17:S17"/>
+  <mergeCells count="20">
     <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R12:S14"/>
+    <mergeCell ref="R15:S17"/>
     <mergeCell ref="N12:N14"/>
     <mergeCell ref="N15:N17"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q14"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14052,10 +14124,10 @@
       <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="84"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -14073,10 +14145,10 @@
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="84"/>
       <c r="G3" s="22"/>
       <c r="H3" s="26"/>
       <c r="I3" s="22"/>
@@ -14117,10 +14189,10 @@
     </row>
     <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="29"/>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -14269,19 +14341,19 @@
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="85"/>
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="71"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
@@ -14516,7 +14588,7 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B37" s="10"/>
       <c r="C37" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="20" t="s">
@@ -14529,7 +14601,7 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B38" s="10"/>
       <c r="C38" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="20" t="s">
@@ -14544,7 +14616,7 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B39" s="10"/>
       <c r="C39" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="22" t="s">
@@ -14559,7 +14631,7 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B40" s="10"/>
       <c r="C40" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="20" t="s">
@@ -14631,29 +14703,29 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K11" s="63" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L11" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="19.8" x14ac:dyDescent="0.45">
       <c r="M13" s="64" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -14877,7 +14949,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="11" t="s">
@@ -14889,7 +14961,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="3"/>
       <c r="K34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M34" s="3"/>
     </row>
@@ -14898,7 +14970,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
@@ -14972,7 +15044,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
@@ -15132,7 +15204,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="4" t="s">
@@ -15194,32 +15266,32 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M9" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M10" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -15229,7 +15301,7 @@
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -15241,7 +15313,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -15285,12 +15357,12 @@
     <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="M19" s="1"/>
       <c r="N19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="Z21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15309,7 +15381,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="Z23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15557,7 +15629,7 @@
         <v>194</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -15641,11 +15713,11 @@
         <v>1</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="26"/>
@@ -15659,7 +15731,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="20" t="s">
@@ -15671,7 +15743,7 @@
       <c r="I39" s="10"/>
       <c r="J39" s="5"/>
       <c r="N39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15680,7 +15752,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="4" t="s">
@@ -15694,7 +15766,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="N40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
@@ -15712,8 +15784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="K8" sqref="K7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -15737,7 +15809,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
@@ -15762,7 +15834,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
@@ -15772,7 +15844,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
@@ -15782,7 +15854,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -15805,17 +15877,17 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M19" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M20" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M21" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -15994,17 +16066,17 @@
         <v>6</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -16088,7 +16160,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="24" t="s">
@@ -16100,7 +16172,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="5"/>
       <c r="L35" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
@@ -16109,11 +16181,11 @@
         <v>2</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
@@ -16121,7 +16193,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="5"/>
       <c r="L36" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
@@ -16130,10 +16202,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>221</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="26"/>
@@ -16141,7 +16213,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="5"/>
       <c r="L37" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M37" s="3"/>
     </row>
@@ -16151,11 +16223,11 @@
         <v>4</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="26"/>
@@ -16163,7 +16235,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="5"/>
       <c r="L38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M38" s="3"/>
     </row>
@@ -16173,11 +16245,11 @@
         <v>5</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="17"/>
@@ -16201,7 +16273,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
@@ -16254,17 +16326,17 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -16490,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="31" t="s">
@@ -16508,7 +16580,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
@@ -16577,7 +16649,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -16597,12 +16669,12 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="L10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -16925,7 +16997,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="28" t="s">
@@ -16942,7 +17014,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="28" t="s">
@@ -16959,11 +17031,11 @@
         <v>3</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="26"/>
@@ -16976,11 +17048,11 @@
         <v>4</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="26"/>
@@ -17029,22 +17101,22 @@
   <sheetData>
     <row r="4" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P5" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -17081,18 +17153,18 @@
         <v>1</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
@@ -17363,7 +17435,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="28" t="s">
@@ -17382,7 +17454,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="28" t="s">
@@ -17401,7 +17473,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="28" t="s">
@@ -17418,7 +17490,7 @@
     <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="15"/>
       <c r="C28" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="28" t="s">

--- a/Document/Axis_仕様書.xlsx
+++ b/Document/Axis_仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="794" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="画面フロー" sheetId="28" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="デモムービー" sheetId="32" r:id="rId3"/>
     <sheet name="ステージセレクト画面" sheetId="27" r:id="rId4"/>
     <sheet name="プレイ画面" sheetId="33" r:id="rId5"/>
-    <sheet name="ポーズ画面" sheetId="35" r:id="rId6"/>
-    <sheet name="プレイヤー" sheetId="36" r:id="rId7"/>
-    <sheet name="操作説明" sheetId="44" r:id="rId8"/>
-    <sheet name="障害物" sheetId="40" r:id="rId9"/>
-    <sheet name="ブロック" sheetId="39" r:id="rId10"/>
-    <sheet name="銃" sheetId="41" r:id="rId11"/>
-    <sheet name="スイッチ " sheetId="43" r:id="rId12"/>
+    <sheet name="チュートリアルステージ１" sheetId="45" r:id="rId6"/>
+    <sheet name="チュートリアルステージ2" sheetId="46" r:id="rId7"/>
+    <sheet name="ポーズ画面" sheetId="35" r:id="rId8"/>
+    <sheet name="プレイヤー" sheetId="36" r:id="rId9"/>
+    <sheet name="操作説明" sheetId="44" r:id="rId10"/>
+    <sheet name="障害物" sheetId="40" r:id="rId11"/>
+    <sheet name="ブロック" sheetId="39" r:id="rId12"/>
+    <sheet name="銃" sheetId="41" r:id="rId13"/>
+    <sheet name="スイッチ " sheetId="43" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="341">
   <si>
     <t>CGリソースリスト</t>
     <phoneticPr fontId="3"/>
@@ -3046,22 +3048,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チュートリアルステージでは、左下に操作説明がウィンドウで表示される</t>
-    <rPh sb="14" eb="16">
-      <t>ヒダリシタ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>操作説明はコントローラーのイラストと、文字で説明する</t>
     <rPh sb="0" eb="4">
       <t>ソウサセツメイ</t>
@@ -3342,6 +3328,352 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアルステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアルステージでは、下に操作説明がウィンドウで表示される</t>
+    <rPh sb="14" eb="15">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃の状態の他、説明文を表記する</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>セツメイブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明に使うコントローラーイラスト</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ウィンドウ５を表示する</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ブロックが動き終えるとウィンドウ６～８を順に表示する</t>
+    <rPh sb="6" eb="7">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ウィンドウ９を表示する</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ウィンドウ９はObjectParPar (1)にXの数値を吐き出すまで表示</t>
+    <rPh sb="27" eb="29">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ウィンドウ１０～１２を表示</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ウィンドウ１２はゴールするまで表示</t>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Position：Zが設定されたまま始まり、ウィンドウ１～４を順番に表示</t>
+    <rPh sb="19" eb="20">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（Lボタン、Rボタン、Rトリガーを押しても反応しない）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（Lボタン、Rボタン、Lトリガーを押しても反応しない）</t>
+  </si>
+  <si>
+    <t>（Lボタン、Rボタンを押しても反応しない）</t>
+  </si>
+  <si>
+    <t>（Lボタンを押しても反応しない）</t>
+  </si>
+  <si>
+    <t>・チュートリアルステージ１をクリアしてチュートリアルステージ２が始まる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ウィンドウ１３～１４を順に表示</t>
+    <rPh sb="12" eb="13">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ウィンドウ１５～１６を順に表示</t>
+    <rPh sb="12" eb="13">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ウィンドウ１６はプレイヤーが軸をYに切り替えるまで表示</t>
+    <rPh sb="15" eb="16">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ウィンドウ１７～１８を表示</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ウィンドウ１８はFloor_A_04 (73~75,164~166,171,182)にプレイヤーが乗るまで表示</t>
+    <rPh sb="50" eb="51">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ウィンドウ１９～２０を表示</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ウィンドウ２０はチュートリアルステージ２をクリアするまで表示</t>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クリア演出のワープと同時にウィンドウは消す</t>
+    <rPh sb="4" eb="6">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇チュートリアルステージ１の流れ</t>
+    <rPh sb="14" eb="15">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇チュートリアルステージ２の流れ</t>
+    <rPh sb="14" eb="15">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Lトリガーを強調したコントローラーイラストを表示</t>
+    <rPh sb="7" eb="9">
+      <t>キョウチョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ウィンドウ４とイラストはObjectParPar (1)の数値を取得するまで表示する</t>
+    <rPh sb="30" eb="32">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Rトリガーを強調したコントローラーイラストを表示</t>
+    <rPh sb="7" eb="9">
+      <t>キョウチョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ウィンドウ５とイラストはObjectParParに数値を吐き出し、ブロックが動き終えるまで表示する</t>
+    <rPh sb="26" eb="28">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Lトリガーを強調したコントローラーイラストを表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ウィンドウ８とイラストはObjectParPar (２)の数値を取得するまで表示する</t>
+    <rPh sb="30" eb="32">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Rボタンを強調したコントローラーイラストを表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・イラストはプレイヤーがRボタンで軸をXに切り替えるまで表示</t>
+    <rPh sb="17" eb="18">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Lボタンを強調したコントローラーイラストを表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ウィンドウ１４とイラストはプレイヤーがタイプを切り替えるまで表示</t>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4064,7 +4396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4202,46 +4534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4262,8 +4555,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6261,6 +6596,629 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657176</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266468</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>16269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1316290" y="478680"/>
+          <a:ext cx="4882203" cy="3588728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>192543</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86901</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1510771" y="618732"/>
+          <a:ext cx="4475129" cy="3294245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+            <a:t>ウィンドウ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3657600" y="177800"/>
+          <a:ext cx="812800" cy="812800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="円柱 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="723900"/>
+          <a:ext cx="120650" cy="2508250"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 123438"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>334241</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>543528</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8891</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1675361" y="1951991"/>
+          <a:ext cx="209287" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a: